--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.978</v>
+        <v>16.057</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3346823959.717</v>
+        <v>-0.098</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1625383.018</v>
+        <v>29.438</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.986</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.217</v>
+        <v>5.082</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2939236.245298506</v>
+        <v>24.30285659702906</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2364863.121688105</v>
+        <v>24.29545986064133</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1418563.368758546</v>
+        <v>24.31603389984011</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3410257.945615597</v>
+        <v>24.28033920681321</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-2165389.391833161</v>
+        <v>24.30325315108374</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1852484.007330539</v>
+        <v>24.29878628384353</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3065495.678597284</v>
+        <v>24.29253071638224</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-348261.9735325158</v>
+        <v>24.32922946984136</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-63742.95656192482</v>
+        <v>24.32877774366617</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1587315.806007851</v>
+        <v>24.28018313634121</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1015536.456925615</v>
+        <v>24.29648871044633</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-943851.892946498</v>
+        <v>24.30199362931613</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1569506.177202092</v>
+        <v>24.30287441831429</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-2150862.213303389</v>
+        <v>24.26438040963895</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-1151303.556021558</v>
+        <v>24.29891584766316</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1526295.390067442</v>
+        <v>24.29658165745149</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-664170.1200112669</v>
+        <v>24.31797629751306</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>118126.8095171239</v>
+        <v>24.3371093522713</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1721022.393013647</v>
+        <v>24.27251480521402</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1358805.648889208</v>
+        <v>24.28167471744035</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-936688.5167316867</v>
+        <v>24.29259064896117</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2177881.729383069</v>
+        <v>24.25868284996043</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1091415.792324966</v>
+        <v>24.29131086426649</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1441313.167562164</v>
+        <v>24.31288835279052</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-241503.5108495447</v>
+        <v>24.32069297654858</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-249716.0695413208</v>
+        <v>24.32114383253625</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-3092164.442273486</v>
+        <v>24.27005392136665</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>106678.9714396005</v>
+        <v>24.33759798542009</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>618575.1318359929</v>
+        <v>24.33426381000895</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2858230.368075365</v>
+        <v>24.2821693667516</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1800404.932011536</v>
+        <v>24.36820381130213</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1677803.533344686</v>
+        <v>24.35078364463218</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1007481.868953764</v>
+        <v>24.36178379916934</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1703677.569554337</v>
+        <v>24.38649707771413</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1813655.177189396</v>
+        <v>24.38947706827625</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-781191.7086236654</v>
+        <v>24.32068927560713</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36985.39851077036</v>
+        <v>24.34358239302291</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>373942.8746148828</v>
+        <v>24.36023140086222</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-773445.8050047826</v>
+        <v>24.30708983063426</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>124319.8983048247</v>
+        <v>24.33670264611084</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>391839.9383138181</v>
+        <v>24.3485102682147</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1494287.804848419</v>
+        <v>24.26304671414364</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-14326.6275693585</v>
+        <v>24.31995501196354</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>569685.6901697826</v>
+        <v>24.35405411599294</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1120898.848370683</v>
+        <v>24.37617836868174</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2645110.957673898</v>
+        <v>24.29819322496694</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-867669.0520077033</v>
+        <v>24.31798016223965</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-353947.0407292455</v>
+        <v>24.32360362111559</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-3317767.795184871</v>
+        <v>24.27142253142859</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-82412.29553250971</v>
+        <v>24.33917305600438</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>536338.9766590378</v>
+        <v>24.34691561494693</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2753424.069583003</v>
+        <v>24.28983734152071</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2115696.485787019</v>
+        <v>24.3715170910035</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2487928.816264998</v>
+        <v>24.36980708950164</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1468533.663135951</v>
+        <v>24.38017718755033</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1845026.070251647</v>
+        <v>24.38989804534042</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2247241.140142832</v>
+        <v>24.40625643910916</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1352589.75443925</v>
+        <v>24.2937352552224</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-296805.6045172615</v>
+        <v>24.3228986109707</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>95987.76448127761</v>
+        <v>24.34494235530225</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1303906.225995686</v>
+        <v>24.29029375171842</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-115805.7433372418</v>
+        <v>24.32449218157513</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>378443.2828701715</v>
+        <v>24.34908493602589</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1601537.617526085</v>
+        <v>24.25979105879479</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-393373.7010598875</v>
+        <v>24.30870403077678</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>622345.6974830102</v>
+        <v>24.36403571302072</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1858195.459288969</v>
+        <v>24.25825105766129</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>913610.8340505931</v>
+        <v>24.36038816018053</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-4488780.6658487</v>
+        <v>24.28974388479526</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-2149003.052444756</v>
+        <v>24.30906014217213</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1149789.915277229</v>
+        <v>24.32250234665041</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-4617922.617132353</v>
+        <v>24.27689381906412</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-96480.67664977946</v>
+        <v>24.33309132504995</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>785984.4260842405</v>
+        <v>24.3426464355131</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-4871074.635496492</v>
+        <v>24.28335487763681</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2215247.655635809</v>
+        <v>24.35547223674214</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2943669.877748418</v>
+        <v>24.36055435315298</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>355340.3540827312</v>
+        <v>24.34545329859358</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1004974.320457391</v>
+        <v>24.35477940362422</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1500655.979856474</v>
+        <v>24.36404249951395</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-2346680.082702968</v>
+        <v>24.28782235838174</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1182803.262646248</v>
+        <v>24.3047497334355</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>313298.0212871702</v>
+        <v>24.33909487971004</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-2191903.673935868</v>
+        <v>24.28767034267528</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-385474.5423205331</v>
+        <v>24.32824508877573</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>406234.9722321927</v>
+        <v>24.35062507145329</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-2222674.487412943</v>
+        <v>24.27543541214792</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-415746.6590002046</v>
+        <v>24.31920449441207</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>777812.7658876991</v>
+        <v>24.35648380977768</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-2982558.575917577</v>
+        <v>24.26584291930345</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>722255.4546275649</v>
+        <v>24.34700814476797</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-742688.3311431017</v>
+        <v>24.3095616862523</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-655192.3739286918</v>
+        <v>24.29090944711316</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>446485.803640689</v>
+        <v>24.35997016063958</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>728043.0286897778</v>
+        <v>24.36749860705292</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-1231912.469762009</v>
+        <v>24.25996969675714</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-833463.9970575223</v>
+        <v>24.28233237491768</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-478615.4254325672</v>
+        <v>24.29670888104204</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-983488.385838428</v>
+        <v>24.30168185629508</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-303327.9823673659</v>
+        <v>24.31284691676857</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>436182.2896013199</v>
+        <v>24.34644645854594</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-1421304.306371852</v>
+        <v>24.25575627562216</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1156576.006736</v>
+        <v>24.26636964250923</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-1060512.037295079</v>
+        <v>24.27678143478844</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-1719842.887931197</v>
+        <v>24.25105190378488</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-782479.3203872915</v>
+        <v>24.30051617604506</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>344943.0564042786</v>
+        <v>24.35034127085873</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-424067.9602555152</v>
+        <v>24.3100362664201</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>590436.9011882173</v>
+        <v>24.38236259523227</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>894825.689200935</v>
+        <v>24.4052803821644</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-999560.6130633333</v>
+        <v>24.25306678107041</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-595763.8070315443</v>
+        <v>24.27811246215515</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-175701.4587405142</v>
+        <v>24.3248554127489</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1858273.533679678</v>
+        <v>24.40411973712306</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>899445.7497932868</v>
+        <v>24.39734089199291</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1543858.584343947</v>
+        <v>24.44451821809899</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1754403.563519398</v>
+        <v>24.46486189595606</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-298491.1460712277</v>
+        <v>24.30924645431668</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1184951.596017046</v>
+        <v>24.433696343303</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1469468.894226317</v>
+        <v>24.44258619557623</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-63900.92884938147</v>
+        <v>24.33914901002553</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>609507.8872020603</v>
+        <v>24.37264017869004</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1040600.656997516</v>
+        <v>24.39290608377952</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1136330.785651135</v>
+        <v>24.27176160522361</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>578148.5036489228</v>
+        <v>24.366815024421</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>924648.6803316333</v>
+        <v>24.39053860481313</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-1179211.853279531</v>
+        <v>24.27526087801663</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2038250.872817659</v>
+        <v>24.44871177061403</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2457100.132452456</v>
+        <v>24.47810055942989</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1862784.734254515</v>
+        <v>24.53625814456906</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2187957.496656673</v>
+        <v>24.56573513904113</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2440772.148609383</v>
+        <v>24.58958233449354</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>358770.6461987813</v>
+        <v>24.37718459258823</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1862763.332556317</v>
+        <v>24.53334269388785</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2037261.362356081</v>
+        <v>24.55286286900125</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2279439.086647401</v>
+        <v>24.42490543936583</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>584581.1229226947</v>
+        <v>24.37444059789564</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1025266.464394015</v>
+        <v>24.39786377781828</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1741246.640771672</v>
+        <v>24.45627451586872</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-591451.0469050208</v>
+        <v>24.28494390069847</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1066636.945496394</v>
+        <v>24.40985610780245</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1453281.966107244</v>
+        <v>24.43830986620438</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-680925.4922631814</v>
+        <v>24.31024575482035</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>382199.4487381382</v>
+        <v>24.35846804818272</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>974263.5912975708</v>
+        <v>24.39297409829947</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-1252261.950741102</v>
+        <v>24.26165397970806</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>396207.7508181218</v>
+        <v>24.35892127039961</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1027020.026034846</v>
+        <v>24.40528686439002</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-1226470.222359977</v>
+        <v>24.26526190875991</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1893024.092353979</v>
+        <v>24.43431256297941</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2889674.934854321</v>
+        <v>24.49613252454776</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1858566.70732289</v>
+        <v>24.5185655420963</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2133065.328564908</v>
+        <v>24.53716174476176</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2563061.518779796</v>
+        <v>24.59152644062663</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-55954.48581683655</v>
+        <v>24.32959172413628</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1660677.633406416</v>
+        <v>24.50034574783307</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2128150.328975112</v>
+        <v>24.54787809118289</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2627160.326289793</v>
+        <v>24.39628801034877</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>-199182.1464198722</v>
+        <v>24.32417619667427</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>333846.9535323547</v>
+        <v>24.34960770079222</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1236772.676412385</v>
+        <v>24.38680883717325</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-1230635.638686149</v>
+        <v>24.28427913911377</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1191304.305342117</v>
+        <v>24.38430754878903</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1829991.58806004</v>
+        <v>24.4089565819047</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-1199042.18615953</v>
+        <v>24.30425900540882</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>663136.2713275653</v>
+        <v>24.36220389753537</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1778143.662843935</v>
+        <v>24.39734834903814</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-1675682.067159082</v>
+        <v>24.28293843005453</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>590071.6223790282</v>
+        <v>24.36118111589285</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1662966.549513389</v>
+        <v>24.40146416249176</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-2189503.635240631</v>
+        <v>24.26996484847262</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2245954.011692281</v>
+        <v>24.40393421696911</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4040131.389659845</v>
+        <v>24.46674298264165</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1883017.110675588</v>
+        <v>24.441222000648</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2516556.975880883</v>
+        <v>24.47618352867066</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3450431.286596019</v>
+        <v>24.54046534904608</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-647095.1843959654</v>
+        <v>24.30377997717713</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1691095.151109014</v>
+        <v>24.45368458394507</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2829780.101104002</v>
+        <v>24.51655794471927</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-1279102.54194595</v>
+        <v>24.27857040357959</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-622238.4453333424</v>
+        <v>24.31574094885009</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>169132.4879148747</v>
+        <v>24.35647876972974</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-1400879.683565269</v>
+        <v>24.26184239953457</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-108684.2231946233</v>
+        <v>24.35250686811665</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>171428.676152924</v>
+        <v>24.35555231059789</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-1289298.070173509</v>
+        <v>24.27837901421514</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1316068.56533652</v>
+        <v>24.42445662328969</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1555915.015159899</v>
+        <v>24.43231322837681</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-273199.8220939133</v>
+        <v>24.33851004751991</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>79762.01251604209</v>
+        <v>24.37101758818245</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>137736.6179286529</v>
+        <v>24.37579432488101</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-400653.0485692624</v>
+        <v>24.31327588357758</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-459003.3759122816</v>
+        <v>24.29037559397404</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>353187.3648179212</v>
+        <v>24.38069738771115</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-573751.8347213172</v>
+        <v>24.28073406188552</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33814.76640871209</v>
+        <v>24.3594803065969</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>75738.40019787768</v>
+        <v>24.36024819288359</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-795117.5887772737</v>
+        <v>24.23658151994946</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-366294.9276508683</v>
+        <v>24.32111120279141</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-256012.1755882975</v>
+        <v>24.31387252876447</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-856109.8051438839</v>
+        <v>24.23579844383421</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>121235.27649937</v>
+        <v>24.37990547760506</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-624339.9623029776</v>
+        <v>24.30784969350593</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>275756.4268982776</v>
+        <v>24.36731555432005</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>546724.993288799</v>
+        <v>24.37498938668752</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-1224603.791627334</v>
+        <v>24.26141358714524</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>672014.3851498722</v>
+        <v>24.41697344373164</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>876814.4035508046</v>
+        <v>24.40819999860869</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-1106786.092675746</v>
+        <v>24.27662566780081</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1899567.398148424</v>
+        <v>24.4922397514845</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1785758.796324442</v>
+        <v>24.46572156028397</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>914491.1673324209</v>
+        <v>24.47261416145988</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1258259.874299428</v>
+        <v>24.50446436849084</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1223025.328506498</v>
+        <v>24.49537185475664</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-206731.7606944107</v>
+        <v>24.33328059244747</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>458160.7740684927</v>
+        <v>24.40098557424269</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>649882.8123161357</v>
+        <v>24.44056721708405</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-173817.7466908162</v>
+        <v>24.32598955842809</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>345362.9759402659</v>
+        <v>24.41848143619581</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>295142.5962193133</v>
+        <v>24.39748999034632</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-669316.2475112774</v>
+        <v>24.24114762091031</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>276008.6708304818</v>
+        <v>24.40165203025208</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>255335.3442683643</v>
+        <v>24.39776273104847</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-705242.3997643376</v>
+        <v>24.25074545500241</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>947686.0254388625</v>
+        <v>24.51163445581643</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-1344431.193739237</v>
+        <v>24.26806078540553</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-224891.2543253166</v>
+        <v>24.33730664229598</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>263063.7720864353</v>
+        <v>24.35145813684644</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-1360786.146002979</v>
+        <v>24.24605165433116</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>550600.1197596216</v>
+        <v>24.39631473410243</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>738089.8379270419</v>
+        <v>24.40087630225974</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-1249417.392439011</v>
+        <v>24.2669314943703</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1801822.795973638</v>
+        <v>24.46862176121421</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1883252.898597526</v>
+        <v>24.46099776570664</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1240954.150944768</v>
+        <v>24.4859197705982</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1453179.201258525</v>
+        <v>24.50057471014226</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1479879.994080339</v>
+        <v>24.50402765166555</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-720367.6123872835</v>
+        <v>24.26827748176227</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-22842.90384348258</v>
+        <v>24.34557557880142</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>257231.7005694126</v>
+        <v>24.38555008869472</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-412966.7494668273</v>
+        <v>24.29339812147171</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>232025.4519914902</v>
+        <v>24.38504115089853</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>255191.4638748975</v>
+        <v>24.38299080029561</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-725843.1265503331</v>
+        <v>24.2296470294248</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>135974.3097133035</v>
+        <v>24.37366382387882</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>224211.6255081236</v>
+        <v>24.39717892019181</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-745297.0554165264</v>
+        <v>24.24086107434555</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>802031.341268871</v>
+        <v>24.47009287199784</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-2105773.352012739</v>
+        <v>24.26418779594865</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-485815.3704710665</v>
+        <v>24.32594517647826</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>378355.7129738572</v>
+        <v>24.35251627383488</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1841945.852853693</v>
+        <v>24.26729033880237</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>929731.0998149387</v>
+        <v>24.38880687028032</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1258062.432619419</v>
+        <v>24.40560291316763</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-1979206.84016913</v>
+        <v>24.2725954185789</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2466230.556629893</v>
+        <v>24.44478967766354</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2679661.556963786</v>
+        <v>24.45105189466668</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1361884.491185968</v>
+        <v>24.44671964600586</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1810998.901627188</v>
+        <v>24.46883394356853</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1898633.84345012</v>
+        <v>24.46815117709244</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-1122999.964270475</v>
+        <v>24.2781271688759</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-162679.0465284577</v>
+        <v>24.33844219546901</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>668711.4082813999</v>
+        <v>24.40328867571735</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-749256.419280036</v>
+        <v>24.27479044233983</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>238364.7154541621</v>
+        <v>24.36624589336364</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>298947.0789369906</v>
+        <v>24.37114439981931</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-1002544.806285495</v>
+        <v>24.24556191502573</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>137206.2968295676</v>
+        <v>24.36274435841662</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>299492.2424794862</v>
+        <v>24.38541549187439</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-1127292.67968467</v>
+        <v>24.24361617587896</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>880772.1806693892</v>
+        <v>24.42635349115934</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>136133.2964005803</v>
+        <v>24.38105652137271</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-51340.44481034677</v>
+        <v>24.35992788403437</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>409949.3739687329</v>
+        <v>24.45052263328235</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>478155.2520745553</v>
+        <v>24.44233107678001</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-346622.9930210912</v>
+        <v>24.30579050486689</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>14487.2821617907</v>
+        <v>24.36212942449496</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>156866.9565980711</v>
+        <v>24.38776404853179</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-342570.5197306738</v>
+        <v>24.29157680213054</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>69971.3758138928</v>
+        <v>24.35195946291756</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>369422.6750409579</v>
+        <v>24.39690775151043</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-645417.0228014512</v>
+        <v>24.22407182075142</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-338035.9626878512</v>
+        <v>24.31673384921829</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-134480.7632321501</v>
+        <v>24.32720767819277</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-672719.5731917361</v>
+        <v>24.24132058800768</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>165456.4349428052</v>
+        <v>24.40623377971251</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>798808.8786220966</v>
+        <v>24.48364382610815</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>41842.16701052947</v>
+        <v>24.39155095522579</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>523766.2723770311</v>
+        <v>24.4961303274725</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>595603.9464303703</v>
+        <v>24.52903930892096</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-266275.7317093291</v>
+        <v>24.30307535597012</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>37649.79986175411</v>
+        <v>24.3946413132383</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>307893.2498857595</v>
+        <v>24.47424647395937</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1032299.759545487</v>
+        <v>24.50547918424041</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>669972.1762055483</v>
+        <v>24.53065451545507</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>853862.9713775131</v>
+        <v>24.58343853964221</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>846976.7485686359</v>
+        <v>24.57156710422042</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>11463.54245467105</v>
+        <v>24.36202356427813</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>736074.8986947249</v>
+        <v>24.5592910096066</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>697090.8843790342</v>
+        <v>24.54034539669078</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-66285.51868217079</v>
+        <v>24.33719901448093</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-530647.1287746247</v>
+        <v>24.23244460897291</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>429451.8697479365</v>
+        <v>24.45071703868897</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>444753.5416586865</v>
+        <v>24.4429966962287</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-536897.65728487</v>
+        <v>24.25452169104338</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>1072266.115251677</v>
+        <v>24.584945738905</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1171457.011114898</v>
+        <v>24.60609262685104</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>786439.6980581112</v>
+        <v>24.66471644975177</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>927564.7421320593</v>
+        <v>24.70573654944361</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>972938.9996099254</v>
+        <v>24.72204684781534</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>119400.921614989</v>
+        <v>24.41216333871527</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>849454.5962735775</v>
+        <v>24.68726120059624</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>860398.2715798659</v>
+        <v>24.68639237529666</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1113154.300055889</v>
+        <v>24.51218502312046</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>612999.326494948</v>
+        <v>24.50449394680551</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>760656.8222746596</v>
+        <v>24.53040512283281</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>860564.1523356405</v>
+        <v>24.5592463105078</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-136418.7205398314</v>
+        <v>24.31171955072406</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>655467.5031757976</v>
+        <v>24.51430684537303</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>647128.3968909902</v>
+        <v>24.51378485706348</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-328358.011185253</v>
+        <v>24.28648340010434</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>224028.8899569462</v>
+        <v>24.39336276607363</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>409346.262855128</v>
+        <v>24.41825580836496</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-587046.0171397262</v>
+        <v>24.20988375699381</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>334226.6712934567</v>
+        <v>24.42558731605972</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>396877.3501907352</v>
+        <v>24.44378299776105</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-562774.4500538883</v>
+        <v>24.22830214815405</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>981502.2771021124</v>
+        <v>24.54303083213047</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1254067.019535806</v>
+        <v>24.60206786021586</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>794964.2429569638</v>
+        <v>24.64364384184999</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>952495.1139158948</v>
+        <v>24.67471171847846</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1040348.168488314</v>
+        <v>24.72121335318898</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-67424.68409889525</v>
+        <v>24.33245173245269</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>841626.5436819238</v>
+        <v>24.63386871928629</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>894623.2715061526</v>
+        <v>24.65584006101842</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1357561.028494601</v>
+        <v>24.46276205143871</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>320103.5855604441</v>
+        <v>24.41307987634226</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>548584.5977153762</v>
+        <v>24.45021426378883</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>684773.9595861651</v>
+        <v>24.45809998080493</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-336899.670362263</v>
+        <v>24.30249631496137</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>774354.4329753153</v>
+        <v>24.47379159314206</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>886057.4698734427</v>
+        <v>24.48829996785829</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-488665.1169084838</v>
+        <v>24.28446556030011</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>396567.5965519754</v>
+        <v>24.39722275998428</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>761474.1246969511</v>
+        <v>24.43138857766249</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-784332.1291749629</v>
+        <v>24.25133465304022</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>440878.2926413734</v>
+        <v>24.42351706345675</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>702461.6472609009</v>
+        <v>24.45622152499708</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-877569.6869075829</v>
+        <v>24.24952745374315</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1236270.106044055</v>
+        <v>24.50268500243824</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1775479.848376784</v>
+        <v>24.5732118156084</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>939121.3607697628</v>
+        <v>24.55640942762315</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1285150.374907901</v>
+        <v>24.61752544921389</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1436313.553977329</v>
+        <v>24.67249615159511</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-183737.1803949662</v>
+        <v>24.32184855039874</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1093317.776563402</v>
+        <v>24.59835229246371</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1326154.846464609</v>
+        <v>24.65481994379619</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1686583.336059085</v>
+        <v>24.2978402946237</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-576852.7254782715</v>
+        <v>24.33863655954072</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>267099.2748304263</v>
+        <v>24.35739243321926</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-2454878.456959654</v>
+        <v>24.25418682777829</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1155302.493043674</v>
+        <v>24.32572763531548</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-713670.2080109357</v>
+        <v>24.32820309041772</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2533804.081979436</v>
+        <v>24.26811130648545</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1726380.725302581</v>
+        <v>24.39818227371817</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>2138431.597644583</v>
+        <v>24.39968082005473</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-452949.97769674</v>
+        <v>24.32240523805056</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30713.03529925793</v>
+        <v>24.35632846747064</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31058.14284728318</v>
+        <v>24.34686076192161</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-1111577.230103384</v>
+        <v>24.27336394412715</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-816537.4276117308</v>
+        <v>24.29758536607236</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-369992.4186479887</v>
+        <v>24.32650545687451</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-669546.2507095626</v>
+        <v>24.29807816812507</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>189488.9058083668</v>
+        <v>24.3659313231778</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>292195.5188370611</v>
+        <v>24.36415597613915</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-1357917.713510517</v>
+        <v>24.24898350975619</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-735628.7470485588</v>
+        <v>24.31609371321247</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-495224.2386519889</v>
+        <v>24.31995032194133</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1442513.264565306</v>
+        <v>24.2477238110376</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>258741.3830051697</v>
+        <v>24.37706033744437</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-611687.1198973418</v>
+        <v>24.33318353390504</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1198910.756907706</v>
+        <v>24.39427691722235</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1085018.598087404</v>
+        <v>24.38601564347027</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-2054141.907941551</v>
+        <v>24.26899989637623</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>890985.1827981597</v>
+        <v>24.39890775199851</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1089096.971121204</v>
+        <v>24.38935069250214</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-2153796.998457278</v>
+        <v>24.28085327245315</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>3030928.575963662</v>
+        <v>24.46963396700955</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>2698827.868440407</v>
+        <v>24.44464975124624</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1377582.897221707</v>
+        <v>24.44662570665582</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>2022936.056042084</v>
+        <v>24.48574684787723</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>2035037.351163692</v>
+        <v>24.46203205582847</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-589093.1947334403</v>
+        <v>24.30757009957701</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1238390.964298494</v>
+        <v>24.41389242849652</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1076163.57394859</v>
+        <v>24.40676793900694</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-237434.0841377801</v>
+        <v>24.33655992948889</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>631989.1788307825</v>
+        <v>24.4199675289714</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>617588.1636493343</v>
+        <v>24.40384024122713</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-1152252.224978436</v>
+        <v>24.26163503090778</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>371752.007651573</v>
+        <v>24.39988180173528</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>375477.8448040092</v>
+        <v>24.40561853694732</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1245325.887246067</v>
+        <v>24.26677391536955</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1625711.921938847</v>
+        <v>24.49739418404191</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-2049273.811775521</v>
+        <v>24.29251810747087</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>247157.7669346979</v>
+        <v>24.35993294737354</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>503871.7684055262</v>
+        <v>24.35738111288569</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2310442.703643369</v>
+        <v>24.25082166115178</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>719897.3580230901</v>
+        <v>24.37496658774426</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1007502.122167237</v>
+        <v>24.37633641080919</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2354752.781701137</v>
+        <v>24.26840590980471</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2890467.231882456</v>
+        <v>24.44259564253211</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2716904.527002269</v>
+        <v>24.43356768839068</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1733151.308438232</v>
+        <v>24.44560989708977</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2150854.441906932</v>
+        <v>24.47002536953522</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2186291.344989763</v>
+        <v>24.4592434950504</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-1601386.665100581</v>
+        <v>24.24874075974624</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>266910.2935796162</v>
+        <v>24.35720194133518</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>101018.8047986384</v>
+        <v>24.34866410640043</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-640492.7093062608</v>
+        <v>24.30632745411978</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>499019.0279131897</v>
+        <v>24.38649592551353</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>564400.7217238231</v>
+        <v>24.38737943956225</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-1222836.741227953</v>
+        <v>24.25087046552807</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>211217.5828396124</v>
+        <v>24.37316628834535</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>419023.9322421267</v>
+        <v>24.40222275267853</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1350192.988235547</v>
+        <v>24.2582144542102</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>1383462.239157351</v>
+        <v>24.45758853970517</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-3047828.968327796</v>
+        <v>24.29428930884538</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>218133.9490366262</v>
+        <v>24.35524013528778</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>976192.2922777805</v>
+        <v>24.36404139349067</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2986404.90634406</v>
+        <v>24.27829372911375</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1389893.475835677</v>
+        <v>24.37711825230809</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>2315186.358460109</v>
+        <v>24.39223501512533</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3314088.737909837</v>
+        <v>24.2827220327832</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>4433033.584665083</v>
+        <v>24.43336205572462</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>4524773.263373461</v>
+        <v>24.43465534261582</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>2178741.380791211</v>
+        <v>24.4248778904211</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2928405.574784955</v>
+        <v>24.45211663390565</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>3086039.660915412</v>
+        <v>24.44695281263849</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1915570.276965661</v>
+        <v>24.27521733924527</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1003980.2416295</v>
+        <v>24.36548891414135</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>1012419.150746473</v>
+        <v>24.37683412857568</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1266090.172192749</v>
+        <v>24.29647960275842</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>515736.4370532309</v>
+        <v>24.37440531410525</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>679694.1932915223</v>
+        <v>24.37934450800756</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1672584.337105163</v>
+        <v>24.26955910913637</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>288148.0130987262</v>
+        <v>24.36494067077813</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>689459.31909166</v>
+        <v>24.39545781223919</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1890148.313964804</v>
+        <v>24.26752555620091</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1657593.328271898</v>
+        <v>24.42524664276796</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>275040.7429915339</v>
+        <v>24.38136804606132</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-12272.37958103119</v>
+        <v>24.36868477771816</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>652745.861782707</v>
+        <v>24.44881614475919</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>786990.9892212576</v>
+        <v>24.43638406206049</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-622840.97052367</v>
+        <v>24.29101468074233</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-108463.9090709517</v>
+        <v>24.35882174177719</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>208779.3235227607</v>
+        <v>24.37862875447493</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-529329.8141734942</v>
+        <v>24.32079517772569</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>272889.3085801803</v>
+        <v>24.37880011963128</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>572787.5629552177</v>
+        <v>24.39795257904299</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1099102.187321766</v>
+        <v>24.23708426132528</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-586526.1516598257</v>
+        <v>24.31653751668556</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-187085.8985607796</v>
+        <v>24.32582358625822</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1142975.948594576</v>
+        <v>24.25166570885533</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>352653.374301168</v>
+        <v>24.40224599872639</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>1361766.524831577</v>
+        <v>24.45651038643248</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>138266.0155857748</v>
+        <v>24.4003001369977</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>754454.9359176094</v>
+        <v>24.48296747629634</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1006073.750539561</v>
+        <v>24.51107754631111</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-476598.4724039204</v>
+        <v>24.29139596631626</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>83837.09368481161</v>
+        <v>24.39454952654929</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>515818.268657408</v>
+        <v>24.43745501109175</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1870542.95401254</v>
+        <v>24.50171439510373</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1210578.205364295</v>
+        <v>24.52131934289226</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1568608.000689558</v>
+        <v>24.582854713661</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1515971.285220872</v>
+        <v>24.55986644018812</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-102510.2544598227</v>
+        <v>24.34427773689644</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1232246.824021884</v>
+        <v>24.54017869262708</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1318564.689794624</v>
+        <v>24.53350281904858</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>51404.51321295744</v>
+        <v>24.36442938627142</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>838792.5428494925</v>
+        <v>24.4532703875375</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>770399.5286924349</v>
+        <v>24.44034528960523</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-901162.3739239469</v>
+        <v>24.25331559788946</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>638025.7479328574</v>
+        <v>24.44477946031883</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>610891.5441806243</v>
+        <v>24.43313629808972</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-926135.9878716054</v>
+        <v>24.26911585080424</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1791333.620502258</v>
+        <v>24.55967468446409</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1825490.673446397</v>
+        <v>24.56750178397524</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1395296.048666207</v>
+        <v>24.64033065104533</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1592241.02376604</v>
+        <v>24.68341176822174</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1676205.4837541</v>
+        <v>24.69055913908585</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>189378.3355664912</v>
+        <v>24.38926607550778</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1417273.485260998</v>
+        <v>24.65705343245304</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1417485.104728222</v>
+        <v>24.63735707678088</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1891742.84073467</v>
+        <v>24.50413457998365</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1063219.739304624</v>
+        <v>24.49186688538948</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1357905.016180925</v>
+        <v>24.53059093698102</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1522890.123565328</v>
+        <v>24.5455200113734</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-374167.2687594826</v>
+        <v>24.30293393873034</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1106301.162687741</v>
+        <v>24.49705867801327</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1176321.864566153</v>
+        <v>24.50412545155016</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-360611.9416349313</v>
+        <v>24.31529290198428</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>697481.6372306219</v>
+        <v>24.41165653252508</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>687933.100157992</v>
+        <v>24.41475337012918</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-1023853.755474317</v>
+        <v>24.22936181999796</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>462814.812299634</v>
+        <v>24.41574608154868</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>532547.1687877319</v>
+        <v>24.42614329467366</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1019776.795611742</v>
+        <v>24.24344900711883</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>1626536.753736911</v>
+        <v>24.51533839755766</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1903852.808089886</v>
+        <v>24.55686436113663</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1329141.627741645</v>
+        <v>24.60968774050075</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1580442.563262685</v>
+        <v>24.64347045095992</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1769797.530582526</v>
+        <v>24.68038302656919</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-121867.2371385024</v>
+        <v>24.32044781661361</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1360309.604147891</v>
+        <v>24.60191271472154</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1376131.331586701</v>
+        <v>24.60003923636386</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>2604396.868828383</v>
+        <v>24.46382762857098</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>556394.4633959427</v>
+        <v>24.41522229835187</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1002259.491443373</v>
+        <v>24.45458838531058</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1342779.404561765</v>
+        <v>24.46269001325563</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-736774.4205497436</v>
+        <v>24.30711250547373</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>1413155.095352554</v>
+        <v>24.4682385728711</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1643571.147602717</v>
+        <v>24.48173413918725</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-734066.1018973915</v>
+        <v>24.3125566809934</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1088973.936546232</v>
+        <v>24.41282373130726</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1183791.882935335</v>
+        <v>24.42596180612493</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-1342880.314208898</v>
+        <v>24.26811104310921</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>833023.8820968803</v>
+        <v>24.41463830551422</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1168215.272956659</v>
+        <v>24.44244946971147</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1453725.605743729</v>
+        <v>24.26728621449804</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2143446.32556658</v>
+        <v>24.48684067756543</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>2791364.040030196</v>
+        <v>24.53873790992953</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1592644.648449863</v>
+        <v>24.53342763793648</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1951712.71665156</v>
+        <v>24.58315022558596</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>2390213.940041197</v>
+        <v>24.63608040245539</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-362643.0029418666</v>
+        <v>24.32029859582985</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1908562.681600599</v>
+        <v>24.57482825708691</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2133545.82952595</v>
+        <v>24.60137839504121</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-2056367.579997401</v>
+        <v>24.30321533077117</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1339676.119074984</v>
+        <v>24.31293451581027</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-498257.2505079001</v>
+        <v>24.33669098883395</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2889930.62136972</v>
+        <v>24.26643520956293</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1680055.555979625</v>
+        <v>24.30001793815963</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1425807.030139423</v>
+        <v>24.30237626174591</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2878264.906813053</v>
+        <v>24.28353170911867</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>274693.6995269706</v>
+        <v>24.34240996901054</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>712410.8662432475</v>
+        <v>24.35272400885432</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-984799.7107687092</v>
+        <v>24.29463457294134</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-658730.4057488872</v>
+        <v>24.30881428626807</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-583447.6354181158</v>
+        <v>24.31550312061388</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1323365.586526467</v>
+        <v>24.29293450380825</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-972209.5039138839</v>
+        <v>24.30457857542791</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-113395.8229183162</v>
+        <v>24.34806351855681</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1381724.220550584</v>
+        <v>24.27695806452769</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-481953.7282743131</v>
+        <v>24.31298618488736</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-271412.9579509411</v>
+        <v>24.32249628840448</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1751469.875229048</v>
+        <v>24.23665449753713</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1369859.55510889</v>
+        <v>24.25684927158101</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1123291.092819816</v>
+        <v>24.26455624170327</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1787496.54039025</v>
+        <v>24.24365522712515</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-613768.2832043021</v>
+        <v>24.29693102525314</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1533664.590486034</v>
+        <v>24.30852648679805</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-318394.0877464208</v>
+        <v>24.33098321031077</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-196503.9187270746</v>
+        <v>24.33395429742937</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-2564737.317739645</v>
+        <v>24.2562643962646</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-305705.8255827156</v>
+        <v>24.33476706650276</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-200071.7829023527</v>
+        <v>24.33014334553409</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2443399.266857437</v>
+        <v>24.2737783754524</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1289709.203479139</v>
+        <v>24.37784584528537</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1210507.624408318</v>
+        <v>24.36810332610547</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>670357.8374176036</v>
+        <v>24.37939519533446</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>1091485.203699521</v>
+        <v>24.39809201682008</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>1303337.011442308</v>
+        <v>24.39651375943812</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-719377.1060830326</v>
+        <v>24.3095749805608</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1057381.538335186</v>
+        <v>24.39171599363026</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1228375.128269301</v>
+        <v>24.40666810493626</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-1015677.369940661</v>
+        <v>24.28480564677893</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-137469.6820786114</v>
+        <v>24.33078991787751</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>2137.426490428498</v>
+        <v>24.33111561815792</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1537693.359858965</v>
+        <v>24.22614794667118</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-309531.997736845</v>
+        <v>24.30480315384697</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-159500.3826466447</v>
+        <v>24.31959654939583</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1570786.251358458</v>
+        <v>24.24066738713248</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>685214.7981651295</v>
+        <v>24.3805139216816</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-2555491.514045814</v>
+        <v>24.28456729799775</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1008259.400594039</v>
+        <v>24.31260316963288</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-502543.5334387501</v>
+        <v>24.32237021644083</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-2704710.465589561</v>
+        <v>24.2516079694912</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-439467.1233484244</v>
+        <v>24.32491467871202</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-255175.3733567443</v>
+        <v>24.33184699322055</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-2335028.713323395</v>
+        <v>24.27504897748788</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1357629.845256409</v>
+        <v>24.36601122772604</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1488369.442223069</v>
+        <v>24.37352737133189</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>977251.9467472819</v>
+        <v>24.38896495150036</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1165963.369629879</v>
+        <v>24.39647023431495</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1552232.822321035</v>
+        <v>24.40998759067089</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-1573289.1877709</v>
+        <v>24.2685458832448</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>238502.9702489937</v>
+        <v>24.35354869193231</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>484496.3914490898</v>
+        <v>24.3701640299538</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1373966.973696247</v>
+        <v>24.26770794218348</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-294450.3850641577</v>
+        <v>24.31011131426088</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6090.769207269162</v>
+        <v>24.32861227908584</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-1611950.837754982</v>
+        <v>24.22462956677006</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-620732.7184448144</v>
+        <v>24.28900158364456</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-97346.75426883649</v>
+        <v>24.32793383455596</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1560421.835781506</v>
+        <v>24.24189267281606</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>361644.2385818854</v>
+        <v>24.35270098631696</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-3812939.284540957</v>
+        <v>24.28018281483748</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-2102740.138003816</v>
+        <v>24.30716173496507</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-872266.7227436173</v>
+        <v>24.32539605659913</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-3833909.665546508</v>
+        <v>24.26398938618685</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-753643.8677409403</v>
+        <v>24.32131713751265</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>150089.0609789099</v>
+        <v>24.34040652922705</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-4094878.055031914</v>
+        <v>24.27321804456528</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1129701.848558978</v>
+        <v>24.3543288069587</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2043546.128011619</v>
+        <v>24.3702088393501</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>560533.7913211513</v>
+        <v>24.35846227048187</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1053680.766203628</v>
+        <v>24.3720479761804</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1612632.54451967</v>
+        <v>24.38450950267683</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-2354001.315411245</v>
+        <v>24.2698449674433</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>117843.1650338901</v>
+        <v>24.33885518200193</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>992893.9789077383</v>
+        <v>24.37279831212734</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-2233593.88802204</v>
+        <v>24.26636513064327</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-718825.1153151188</v>
+        <v>24.31038667365191</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-179217.938442612</v>
+        <v>24.33078236772759</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-2260841.188003892</v>
+        <v>24.24221106560358</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-922130.1741033297</v>
+        <v>24.28904972111297</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-160703.2609333392</v>
+        <v>24.32832014575587</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-2393615.053073062</v>
+        <v>24.24959431759366</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>9396.039858469949</v>
+        <v>24.33360684094536</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-535595.8788907805</v>
+        <v>24.30556281874562</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-580523.4543405803</v>
+        <v>24.28481090989975</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-40098.06477279214</v>
+        <v>24.3340749474671</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>74235.49453998468</v>
+        <v>24.32957535396037</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-1022689.007938101</v>
+        <v>24.23583890717662</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-674180.1804651904</v>
+        <v>24.27132978734238</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-387369.7654334299</v>
+        <v>24.29493962766154</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-775263.9400880698</v>
+        <v>24.29832032924415</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-69764.25304454874</v>
+        <v>24.32908223995478</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>330952.8450315681</v>
+        <v>24.36064962188299</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-1455371.437244385</v>
+        <v>24.22162030013775</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-1058596.98130841</v>
+        <v>24.25907414279966</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-646543.3818052164</v>
+        <v>24.27530951453332</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1378779.022796882</v>
+        <v>24.2470544744781</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-145518.4876795564</v>
+        <v>24.32995291685868</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>792901.1437005119</v>
+        <v>24.38086474486367</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-193596.4376419292</v>
+        <v>24.33046231131446</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>303283.7503211874</v>
+        <v>24.38177786087894</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>543103.3649148206</v>
+        <v>24.40007400807582</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-785892.0474967696</v>
+        <v>24.24588869058201</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-273644.9258377374</v>
+        <v>24.29699649867513</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>136329.9610232999</v>
+        <v>24.35422349491034</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>992677.3405558027</v>
+        <v>24.39254279297641</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>536882.8325012508</v>
+        <v>24.39380382098032</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>887384.5283800699</v>
+        <v>24.42909204993091</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>815921.6038826433</v>
+        <v>24.41805951890964</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>-576636.2860165491</v>
+        <v>24.26764737604929</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>640475.6805532376</v>
+        <v>24.4162549772607</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>768492.4084324656</v>
+        <v>24.42271624117213</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-198357.0658009704</v>
+        <v>24.33000546785064</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>498206.2667716744</v>
+        <v>24.3863985509489</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>635845.0104473848</v>
+        <v>24.39324837791796</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-1168837.041646899</v>
+        <v>24.23872174041657</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>345344.988496404</v>
+        <v>24.37512871754814</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>411583.8584442485</v>
+        <v>24.37786184590925</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-930179.2175735848</v>
+        <v>24.26826423536352</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>1582349.821145703</v>
+        <v>24.47594289722923</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1563176.720933468</v>
+        <v>24.48710556943671</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1386870.152477714</v>
+        <v>24.56055287788898</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1518675.052636035</v>
+        <v>24.57748736808457</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1563545.500069778</v>
+        <v>24.57823623956142</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>135683.2360227491</v>
+        <v>24.3578212380444</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1257430.399132474</v>
+        <v>24.55389221856689</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1348106.235347514</v>
+        <v>24.56554991126622</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1109326.026398014</v>
+        <v>24.40825905497652</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>270228.8554061092</v>
+        <v>24.37174015048182</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>601906.2038752801</v>
+        <v>24.39024986269246</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>812261.4275627309</v>
+        <v>24.41967907007878</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-876912.5182330069</v>
+        <v>24.2400705025919</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>513357.278177513</v>
+        <v>24.38887173081198</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>691145.5454621734</v>
+        <v>24.41388692683335</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-618375.8318814166</v>
+        <v>24.30031768326783</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>349760.2135683661</v>
+        <v>24.36408808645162</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>618288.2145285925</v>
+        <v>24.38796043096352</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-1288328.39363809</v>
+        <v>24.23134925896666</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>174595.8875229413</v>
+        <v>24.36464190604868</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>399823.5492518253</v>
+        <v>24.38974675987102</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-974506.1050730369</v>
+        <v>24.25989929466967</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>1458820.242681381</v>
+        <v>24.45141604311359</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1784996.606729256</v>
+        <v>24.49804539161738</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1321504.312402838</v>
+        <v>24.54478792061985</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1544877.392647802</v>
+        <v>24.55894931098772</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1726056.532848638</v>
+        <v>24.59305898773437</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-194841.0359630899</v>
+        <v>24.31074906504938</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1241619.939137165</v>
+        <v>24.5240641019638</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1428241.595226237</v>
+        <v>24.55835622445837</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1378077.261796219</v>
+        <v>24.38280995099997</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-452841.9514371131</v>
+        <v>24.31183639640706</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>-47648.85128294421</v>
+        <v>24.33270870121082</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>372274.4631122852</v>
+        <v>24.35211718678265</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-1417073.898248243</v>
+        <v>24.24431252081713</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>459513.6019457284</v>
+        <v>24.3661113193655</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>904569.7119090072</v>
+        <v>24.39688022041927</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-1161188.128661636</v>
+        <v>24.28912829844585</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>495655.7140201234</v>
+        <v>24.35936991684093</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>963182.7595680642</v>
+        <v>24.3896499189077</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1769068.965169721</v>
+        <v>24.24795565581947</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>271392.4506034971</v>
+        <v>24.3492790343484</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>820809.178255151</v>
+        <v>24.38911512713407</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1699293.243611162</v>
+        <v>24.26054491203801</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1705270.072397366</v>
+        <v>24.414001813176</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>2530335.765224226</v>
+        <v>24.47163442542771</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1345574.386379891</v>
+        <v>24.45197217053891</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1738665.277970566</v>
+        <v>24.48446478556156</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2169695.322404397</v>
+        <v>24.53299302866963</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-773803.0756889393</v>
+        <v>24.27778092509356</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1462730.50159311</v>
+        <v>24.4742486882416</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2019719.068743229</v>
+        <v>24.52992410063834</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-3053956.038097912</v>
+        <v>24.30646966426268</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-1822890.010579998</v>
+        <v>24.31435511719722</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1454.920201621707</v>
+        <v>24.34596194953029</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-3867244.145923447</v>
+        <v>24.2838053833656</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-1508243.403587341</v>
+        <v>24.3225115669817</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1115463.087367856</v>
+        <v>24.32355349285975</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-3272624.856401036</v>
+        <v>24.29724755900702</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>1363146.12224766</v>
+        <v>24.36519890773235</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>1920608.711951016</v>
+        <v>24.37516438718016</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-1259038.065774175</v>
+        <v>24.31480179531342</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-448930.0898791145</v>
+        <v>24.33568540832277</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-18414.09789578605</v>
+        <v>24.34991891997464</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-1519447.668932625</v>
+        <v>24.3144640625686</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-1455522.359934801</v>
+        <v>24.31039011428304</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>184439.3501667201</v>
+        <v>24.35403519777734</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-1637109.393496853</v>
+        <v>24.29115354170688</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>344243.1988834978</v>
+        <v>24.34480338691493</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>1094866.183823635</v>
+        <v>24.37523147216351</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-2286132.534533843</v>
+        <v>24.24926577179616</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-1458712.335158181</v>
+        <v>24.29080642520797</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-1065901.189249961</v>
+        <v>24.30931895303731</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-2516427.485329995</v>
+        <v>24.25129897903205</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-298807.5261358604</v>
+        <v>24.33136854609442</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1434460.041063558</v>
+        <v>24.31522531068262</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>302235.0574988873</v>
+        <v>24.34325387901955</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>555506.8314570094</v>
+        <v>24.35394352233094</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-3460809.287080625</v>
+        <v>24.27717830632159</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>864649.1728852759</v>
+        <v>24.3654391850293</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1493201.661749605</v>
+        <v>24.36655552359426</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-3040496.693428069</v>
+        <v>24.2862642473636</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>3638580.5705301</v>
+        <v>24.41126244885574</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3341762.803377044</v>
+        <v>24.40195940364686</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2144676.867782793</v>
+        <v>24.41586510778472</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2984338.316773929</v>
+        <v>24.44180396444332</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2926543.955101381</v>
+        <v>24.44277194081605</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-763046.1580217683</v>
+        <v>24.33108257034631</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1445107.188643395</v>
+        <v>24.41070928386366</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1918236.742990998</v>
+        <v>24.42833192669284</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-628964.1701221718</v>
+        <v>24.32351235943082</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1350268.494217913</v>
+        <v>24.39487426338701</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1607898.111844859</v>
+        <v>24.4159189162277</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-1837359.908702594</v>
+        <v>24.26707401162306</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>690896.4348610734</v>
+        <v>24.36751460280501</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>1310408.718848128</v>
+        <v>24.40615051543708</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-2044439.68520437</v>
+        <v>24.27328049773459</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>2797682.732405511</v>
+        <v>24.45195585974941</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-3373824.316116666</v>
+        <v>24.28811646522639</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1182446.570633093</v>
+        <v>24.32643927653177</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-165978.3769605399</v>
+        <v>24.34287360895457</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-3902465.265937201</v>
+        <v>24.26779705950411</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>380028.2985822535</v>
+        <v>24.35513765427592</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>969070.5329365416</v>
+        <v>24.36784612997068</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-3598822.903750454</v>
+        <v>24.28077812382998</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>3079654.625748984</v>
+        <v>24.39940133785842</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3666592.93034651</v>
+        <v>24.40636084325869</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2549699.860079498</v>
+        <v>24.42230994413417</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3021895.806630865</v>
+        <v>24.43542042941877</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3260128.296642026</v>
+        <v>24.44675765252325</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>-1857998.384809437</v>
+        <v>24.28759209439239</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>368218.3903022957</v>
+        <v>24.37424512188644</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>930067.523949015</v>
+        <v>24.39760781400584</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-1593476.707625551</v>
+        <v>24.29370307583374</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>616184.2124884692</v>
+        <v>24.36773264660615</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1444069.910845796</v>
+        <v>24.40276234204806</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-2086042.671211922</v>
+        <v>24.25294359174532</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-19135.4337281091</v>
+        <v>24.3444734583071</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1290728.045207598</v>
+        <v>24.40524034986015</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-2371221.663333976</v>
+        <v>24.26013583172464</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>2011355.724037036</v>
+        <v>24.41994147859574</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-5356522.869621544</v>
+        <v>24.28688802374048</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-2469188.061833766</v>
+        <v>24.31841252061878</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-455172.1247563201</v>
+        <v>24.343241280767</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-5278923.117481392</v>
+        <v>24.27927814570796</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>817387.8773144037</v>
+        <v>24.34877009619473</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1863027.008815913</v>
+        <v>24.36471765494683</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-5489673.042037988</v>
+        <v>24.28470055213325</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>4096876.504783939</v>
+        <v>24.38269486059926</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>5229290.440143917</v>
+        <v>24.39835653888698</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1853316.032523434</v>
+        <v>24.3828559850266</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2861119.037532749</v>
+        <v>24.39916752835222</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3270828.784206506</v>
+        <v>24.40779408478702</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-2790790.603436146</v>
+        <v>24.29119648481141</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-263576.5260276159</v>
+        <v>24.34843947954761</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>1512381.624199963</v>
+        <v>24.38849901778882</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-2580641.159957846</v>
+        <v>24.28712311178208</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>464165.946299614</v>
+        <v>24.35586814455607</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1957493.558488968</v>
+        <v>24.39135933968437</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-2823414.391589297</v>
+        <v>24.26492053557093</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-168617.0690677084</v>
+        <v>24.33870062214639</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1710429.667377128</v>
+        <v>24.38522898564796</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-3436079.41051507</v>
+        <v>24.26662794902956</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1844622.890453236</v>
+        <v>24.38837339053594</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>358017.3994652795</v>
+        <v>24.36757285304873</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-176667.9725876049</v>
+        <v>24.33204466002173</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>1527471.244575546</v>
+        <v>24.41951192476673</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>2101196.909363159</v>
+        <v>24.45296169864773</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-1369746.900606248</v>
+        <v>24.25578989843055</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-509888.9519614502</v>
+        <v>24.33942753388432</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>233216.399772293</v>
+        <v>24.37617918471706</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-1094528.044410934</v>
+        <v>24.2944227557564</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>269106.4980946122</v>
+        <v>24.34157016471169</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>1255822.901331022</v>
+        <v>24.3805087657503</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-1855074.430275833</v>
+        <v>24.23529147837771</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1326126.844701709</v>
+        <v>24.28254436250313</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-937418.4961314816</v>
+        <v>24.29999117114846</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1981375.207598927</v>
+        <v>24.24821405672814</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-269892.0332280025</v>
+        <v>24.35204596387443</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1170357.281447521</v>
+        <v>24.40332654605592</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>45557.1418342543</v>
+        <v>24.35947247519008</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>1360754.44681727</v>
+        <v>24.45975355219944</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1818065.769128467</v>
+        <v>24.48344654836665</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-1071571.191808378</v>
+        <v>24.24747341427619</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-230467.951521884</v>
+        <v>24.35235911999487</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>250518.9383646251</v>
+        <v>24.39454021386294</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>3906820.815786703</v>
+        <v>24.49345046243324</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2078255.842702234</v>
+        <v>24.49056757082438</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>3040259.182760173</v>
+        <v>24.55314330640137</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>3320764.009742334</v>
+        <v>24.5877033910421</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>-220684.2540303287</v>
+        <v>24.33078304750314</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>2641723.56422153</v>
+        <v>24.55028033284227</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>3166598.566352671</v>
+        <v>24.57185042286778</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-1898.122156279856</v>
+        <v>24.33757606104234</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1533881.958454754</v>
+        <v>24.42009400355169</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1834597.414640307</v>
+        <v>24.43988030398532</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-1422274.105718167</v>
+        <v>24.2636400866743</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1250689.380469979</v>
+        <v>24.40973264460906</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1673114.471202014</v>
+        <v>24.43440899904445</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-1310745.966827243</v>
+        <v>24.27967889060011</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>3524170.85918377</v>
+        <v>24.52409373234584</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>3771466.81801573</v>
+        <v>24.54542391696273</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2825479.751226797</v>
+        <v>24.61630553938765</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>3228513.5190941</v>
+        <v>24.67193820891859</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>3396545.960795199</v>
+        <v>24.68165547995119</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>352024.378869301</v>
+        <v>24.37515545629228</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>3140905.990482806</v>
+        <v>24.65226494108268</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>3210254.125546419</v>
+        <v>24.65323009150962</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>4202652.621103259</v>
+        <v>24.4988969727355</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1466290.083496225</v>
+        <v>24.45410565090518</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>2270511.157319791</v>
+        <v>24.4960906121206</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>3287491.180659367</v>
+        <v>24.56515926446968</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-863328.0796161419</v>
+        <v>24.28880848861717</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2333773.042627048</v>
+        <v>24.51137505470763</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>3052721.877752878</v>
+        <v>24.55268797472637</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-1106831.773576113</v>
+        <v>24.29606821319506</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>928013.3014640475</v>
+        <v>24.39203915610016</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1538767.022496099</v>
+        <v>24.42618769562431</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-1646049.204944417</v>
+        <v>24.24394141543822</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1011412.006696428</v>
+        <v>24.39219031074233</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1762800.673731515</v>
+        <v>24.43911626484688</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1697003.00622609</v>
+        <v>24.25635106918601</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>3053610.892885302</v>
+        <v>24.49460224681653</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>4061704.042004548</v>
+        <v>24.54827387309789</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2656163.863383656</v>
+        <v>24.58733859475791</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>3173112.991916819</v>
+        <v>24.6353096864196</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>3473819.176601402</v>
+        <v>24.67149177464875</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-318807.3758827657</v>
+        <v>24.31159079257472</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>2930674.265661537</v>
+        <v>24.60806630061517</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>3301126.047943152</v>
+        <v>24.63541968830314</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>5508026.648585588</v>
+        <v>24.45653529963201</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>507371.2330096651</v>
+        <v>24.37783213426275</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1618450.933648253</v>
+        <v>24.42571520287029</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>3186674.725533268</v>
+        <v>24.4760669405052</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-1525027.579143596</v>
+        <v>24.28477248523782</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>2555213.993505699</v>
+        <v>24.45535035189425</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>3859468.536731589</v>
+        <v>24.49867195286868</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1708663.974860869</v>
+        <v>24.29760970944537</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1336812.071575847</v>
+        <v>24.38939994481341</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2752686.513596144</v>
+        <v>24.42825887867331</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-2154369.174258433</v>
+        <v>24.27250931528486</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1191571.137271872</v>
+        <v>24.38723751434828</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2714937.195486438</v>
+        <v>24.43205124318184</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-2562591.523042812</v>
+        <v>24.27152514626828</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>3730326.654113405</v>
+        <v>24.4546032949915</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5791474.7583813</v>
+        <v>24.51654747189157</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>3064795.136568062</v>
+        <v>24.50196036593134</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>4301875.642148135</v>
+        <v>24.56955106228483</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4967482.743633355</v>
+        <v>24.62023049003552</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-753144.862754636</v>
+        <v>24.30081910396702</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>3537376.976798123</v>
+        <v>24.54536721745191</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>4475771.33894151</v>
+        <v>24.59529546869999</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.596</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.057</v>
+        <v>15.978</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.098</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.438</v>
+        <v>16.263</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.965</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.082</v>
+        <v>3.217</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.30285659702906</v>
+        <v>9.469423274027712</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.29545986064133</v>
+        <v>12.83469396975399</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.31603389984011</v>
+        <v>18.37909480781874</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.28033920681321</v>
+        <v>3.385960359290664</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.30325315108374</v>
+        <v>11.89295921833445</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.29878628384353</v>
+        <v>14.03124581965</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.29253071638224</v>
+        <v>7.552814655762855</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.32922946984136</v>
+        <v>24.51631765771877</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.32877774366617</v>
+        <v>26.29255029810498</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.28018313634121</v>
+        <v>12.0581072365067</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.29648871044633</v>
+        <v>17.32892396777066</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.30199362931613</v>
+        <v>17.98973167235264</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.30287441831429</v>
+        <v>11.97909815536609</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.26438040963895</v>
+        <v>6.529925763130478</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.29891584766316</v>
+        <v>15.89899927651064</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.29658165745149</v>
+        <v>11.23689394394585</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.31797629751306</v>
+        <v>19.96577380791004</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.3371093522713</v>
+        <v>27.88640454798391</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.27251480521402</v>
+        <v>6.366697455412304</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.28167471744035</v>
+        <v>10.64413471390106</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.29259064896117</v>
+        <v>15.62893891697993</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.25868284996043</v>
+        <v>3.19485053108362</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.29131086426649</v>
+        <v>14.91591107589368</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.31288835279052</v>
+        <v>17.04268325787465</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.32069297654858</v>
+        <v>25.07391570934329</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.32114383253625</v>
+        <v>25.01894284968512</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.27005392136665</v>
+        <v>2.549220584104845</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.33759798542009</v>
+        <v>27.52331842174535</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.33426381000895</v>
+        <v>31.51980813351027</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>24.2821693667516</v>
+        <v>6.304577154442388</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.36820381130213</v>
+        <v>39.53158311262772</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.35078364463218</v>
+        <v>38.65714733013372</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.36178379916934</v>
+        <v>37.3007513999472</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24.38649707771413</v>
+        <v>44.63278988902758</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>24.38947706827625</v>
+        <v>45.79102751017592</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.32068927560713</v>
+        <v>18.32491189696135</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24.34358239302291</v>
+        <v>27.08643548398804</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24.36023140086222</v>
+        <v>30.69477510748477</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.30708983063426</v>
+        <v>17.74366953745397</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>24.33670264611084</v>
+        <v>28.12839693955643</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24.3485102682147</v>
+        <v>31.2228821486163</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>24.26304671414364</v>
+        <v>6.530169786289257</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.31995501196354</v>
+        <v>26.49701254230355</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.35405411599294</v>
+        <v>34.3761936281963</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.37617836868174</v>
+        <v>40.50565777749866</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.29819322496694</v>
+        <v>9.78863001180661</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.31798016223965</v>
+        <v>21.14621515859897</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.32360362111559</v>
+        <v>24.42882117023642</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>24.27142253142859</v>
+        <v>1.963909038642676</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.33917305600438</v>
+        <v>26.07626122303954</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.34691561494693</v>
+        <v>30.68767056931704</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.28983734152071</v>
+        <v>7.943712716230365</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.3715170910035</v>
+        <v>41.09525724176446</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24.36980708950164</v>
+        <v>43.62961155428454</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>24.38017718755033</v>
+        <v>41.45418792868401</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>24.38989804534042</v>
+        <v>45.2392269789581</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>24.40625643910916</v>
+        <v>49.28286694984098</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.2937352552224</v>
+        <v>12.86366763069596</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.3228986109707</v>
+        <v>23.65632008136876</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>24.34494235530225</v>
+        <v>27.67161271182037</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>24.29029375171842</v>
+        <v>12.29246376985205</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.32449218157513</v>
+        <v>25.41162308709738</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24.34908493602589</v>
+        <v>30.86918481007505</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.25979105879479</v>
+        <v>6.064223522694771</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.30870403077678</v>
+        <v>21.62408329745769</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.36403571302072</v>
+        <v>34.70546339533433</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24.25825105766129</v>
+        <v>4.827490430786359</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.36038816018053</v>
+        <v>37.43956025125324</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24.28974388479526</v>
+        <v>6.00062014695235</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.30906014217213</v>
+        <v>16.78524238505994</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.32250234665041</v>
+        <v>21.39086650846935</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.27689381906412</v>
+        <v>1.864674086166769</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.33309132504995</v>
+        <v>26.17183850354</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.3426464355131</v>
+        <v>30.91594992354858</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.28335487763681</v>
+        <v>2.767410147085734</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.35547223674214</v>
+        <v>37.57018801159006</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>24.36055435315298</v>
+        <v>41.14765961762757</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.34545329859358</v>
+        <v>29.26737146326475</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.35477940362422</v>
+        <v>33.97847486152048</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.36404249951395</v>
+        <v>37.57312611271638</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.28782235838174</v>
+        <v>9.386454851946834</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.3047497334355</v>
+        <v>17.96867879084138</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.33909487971004</v>
+        <v>29.00066777173672</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24.28767034267528</v>
+        <v>9.231660164217004</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.32824508877573</v>
+        <v>23.62009425428548</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.35062507145329</v>
+        <v>29.92615961231902</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>24.27543541214792</v>
+        <v>6.041581695462199</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.31920449441207</v>
+        <v>22.82809094659878</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.35648380977768</v>
+        <v>33.91635690421728</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24.26584291930345</v>
+        <v>1.377397203763145</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.34700814476797</v>
+        <v>32.82023021778396</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.3095616862523</v>
+        <v>18.67806831132293</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.29090944711316</v>
+        <v>16.25311813528655</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.35997016063958</v>
+        <v>33.80268669834898</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.36749860705292</v>
+        <v>38.28785117381004</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.25996969675714</v>
+        <v>6.736204863017427</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.28233237491768</v>
+        <v>13.19011294172489</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.29670888104204</v>
+        <v>18.93780736149184</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.30168185629508</v>
+        <v>14.3956355273462</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24.31284691676857</v>
+        <v>22.89839149024363</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.34644645854594</v>
+        <v>32.14308633357291</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>24.25575627562216</v>
+        <v>5.966803095689958</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.26636964250923</v>
+        <v>9.826700166176764</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.27678143478844</v>
+        <v>11.2273703428616</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.25105190378488</v>
+        <v>3.781638455349718</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.30051617604506</v>
+        <v>16.26751660533949</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.35034127085873</v>
+        <v>31.28501771974294</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24.3100362664201</v>
+        <v>18.34934101140297</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>24.38236259523227</v>
+        <v>38.30316136849603</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.4052803821644</v>
+        <v>44.29004169361839</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24.25306678107041</v>
+        <v>6.699795639691839</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.27811246215515</v>
+        <v>14.77537550590429</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.3248554127489</v>
+        <v>23.17625186683797</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>24.40411973712306</v>
+        <v>49.59396432865286</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>24.39734089199291</v>
+        <v>43.05949338070816</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>24.44451821809899</v>
+        <v>54.78738187516485</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>24.46486189595606</v>
+        <v>58.61916160773264</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.30924645431668</v>
+        <v>21.16651768516175</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.433696343303</v>
+        <v>48.61797131000418</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>24.44258619557623</v>
+        <v>53.88303021363427</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.33914901002553</v>
+        <v>25.77763863860987</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.37264017869004</v>
+        <v>35.39533620423021</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.39290608377952</v>
+        <v>41.55224978152665</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.27176160522361</v>
+        <v>7.761371923180221</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.366815024421</v>
+        <v>36.3209341481753</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>24.39053860481313</v>
+        <v>42.09288684465949</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.27526087801663</v>
+        <v>8.745115422380557</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>24.44871177061403</v>
+        <v>57.70816915295244</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.47810055942989</v>
+        <v>64.08217890857887</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>24.53625814456906</v>
+        <v>68.54806692547284</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>24.56573513904113</v>
+        <v>75.85491428730431</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>24.58958233449354</v>
+        <v>81.53582697816546</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.37718459258823</v>
+        <v>34.88736620775158</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>24.53334269388785</v>
+        <v>69.25111303639345</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>24.55286286900125</v>
+        <v>73.23810457732824</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>24.42490543936583</v>
+        <v>53.50940122227781</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.37444059789564</v>
+        <v>36.84616068769229</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.39786377781828</v>
+        <v>44.50221480714491</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>24.45627451586872</v>
+        <v>56.94098338633403</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.28494390069847</v>
+        <v>16.2421656490043</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.40985610780245</v>
+        <v>45.53240198040918</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.43830986620438</v>
+        <v>52.36251237379713</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.31024575482035</v>
+        <v>17.4067763961216</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.35846804818272</v>
+        <v>31.90108049151124</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.39297409829947</v>
+        <v>39.97309291006106</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.26165397970806</v>
+        <v>6.777302456661655</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.35892127039961</v>
+        <v>32.99056126856688</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>24.40528686439002</v>
+        <v>43.02146776101989</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.26526190875991</v>
+        <v>8.87334824842949</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>24.43431256297941</v>
+        <v>54.19021904566874</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>24.49613252454776</v>
+        <v>68.66855845039645</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.5185655420963</v>
+        <v>66.55719884109588</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.53716174476176</v>
+        <v>72.44532064519395</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24.59152644062663</v>
+        <v>81.66893689444007</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.32959172413628</v>
+        <v>25.46965451163111</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.50034574783307</v>
+        <v>62.91111352062399</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24.54787809118289</v>
+        <v>73.10715935534762</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.39628801034877</v>
+        <v>48.98719711367996</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.32417619667427</v>
+        <v>24.19419896673311</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.34960770079222</v>
+        <v>30.87405463679739</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>24.38680883717325</v>
+        <v>42.18940967119925</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.28427913911377</v>
+        <v>11.00892959591972</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>24.38430754878903</v>
+        <v>41.87052981507195</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.4089565819047</v>
+        <v>50.00901055357981</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.30425900540882</v>
+        <v>14.8984021005697</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.36220389753537</v>
+        <v>33.21201919841116</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.39734834903814</v>
+        <v>44.17757319641461</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>24.28293843005453</v>
+        <v>7.469554639886734</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.36118111589285</v>
+        <v>33.45873072315839</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.40146416249176</v>
+        <v>45.7653001922472</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.26996484847262</v>
+        <v>3.746801646774973</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.40393421696911</v>
+        <v>50.22549617128939</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.46674298264165</v>
+        <v>69.02649235057062</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24.441222000648</v>
+        <v>55.82629550629201</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>24.47618352867066</v>
+        <v>65.62909987071141</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24.54046534904608</v>
+        <v>80.07899903519602</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.30377997717713</v>
+        <v>16.50940328940315</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24.45368458394507</v>
+        <v>53.29647004284496</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24.51655794471927</v>
+        <v>71.21155532505269</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.27857040357959</v>
+        <v>11.83617326535183</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.31574094885009</v>
+        <v>19.46431484826373</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.35647876972974</v>
+        <v>28.65447998980403</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.26184239953457</v>
+        <v>7.715767657868778</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.35250686811665</v>
+        <v>25.21820033982005</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.35555231059789</v>
+        <v>29.01225264423746</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.27837901421514</v>
+        <v>10.736710904407</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.42445662328969</v>
+        <v>42.97520306964464</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.43231322837681</v>
+        <v>45.9430340797235</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.33851004751991</v>
+        <v>21.69848694389505</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.37101758818245</v>
+        <v>28.14751884089654</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24.37579432488101</v>
+        <v>29.20678373262403</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>24.31327588357758</v>
+        <v>19.24671626804308</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.29037559397404</v>
+        <v>18.16266708796848</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.38069738771115</v>
+        <v>33.25178049391221</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.28073406188552</v>
+        <v>15.17603589139817</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.3594803065969</v>
+        <v>27.36872106884485</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.36024819288359</v>
+        <v>28.2100472170155</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.23658151994946</v>
+        <v>8.079287753841044</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>24.32111120279141</v>
+        <v>18.11643233448793</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.31387252876447</v>
+        <v>20.69774164378647</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.23579844383421</v>
+        <v>8.383914818939743</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.37990547760506</v>
+        <v>29.28245993656932</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.30784969350593</v>
+        <v>18.40691199239433</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24.36731555432005</v>
+        <v>30.34888786551101</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.37498938668752</v>
+        <v>33.94394737361555</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.26141358714524</v>
+        <v>7.740223247832933</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>24.41697344373164</v>
+        <v>37.0892742261685</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.40819999860869</v>
+        <v>40.25843407816697</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.27662566780081</v>
+        <v>11.04391536574039</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.4922397514845</v>
+        <v>53.54400707794884</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.46572156028397</v>
+        <v>51.9351224175386</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.47261416145988</v>
+        <v>45.77941313157537</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.50446436849084</v>
+        <v>52.95532451149392</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.49537185475664</v>
+        <v>52.21983005549036</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.33328059244747</v>
+        <v>22.30219209516316</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.40098557424269</v>
+        <v>36.41459914768614</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.44056721708405</v>
+        <v>40.48391757619694</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.32598955842809</v>
+        <v>22.70490833555555</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24.41848143619581</v>
+        <v>34.60822468962112</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.39748999034632</v>
+        <v>33.45681624708435</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>24.24114762091031</v>
+        <v>8.791811508656316</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>24.40165203025208</v>
+        <v>34.07067283703918</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.39776273104847</v>
+        <v>33.5178489928557</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.25074545500241</v>
+        <v>9.461388060264376</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.51163445581643</v>
+        <v>49.8413698549325</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.26806078540553</v>
+        <v>9.662994101653108</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.33730664229598</v>
+        <v>23.84205620849</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.35145813684644</v>
+        <v>30.02204531049328</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.24605165433116</v>
+        <v>6.588936322096806</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.39631473410243</v>
+        <v>34.82364808441281</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.40087630225974</v>
+        <v>37.59321813191072</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.2669314943703</v>
+        <v>9.829502085009011</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.46862176121421</v>
+        <v>51.00576822597074</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.46099776570664</v>
+        <v>52.10466158423884</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.4859197705982</v>
+        <v>51.41802623851434</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.50057471014226</v>
+        <v>55.64693304488252</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24.50402765166555</v>
+        <v>56.17898693923993</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.26827748176227</v>
+        <v>12.09443140885492</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>24.34557557880142</v>
+        <v>26.22728882168709</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.38555008869472</v>
+        <v>31.90200457102098</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.29339812147171</v>
+        <v>17.65180700939544</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.38504115089853</v>
+        <v>31.76822873516623</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.38299080029561</v>
+        <v>32.27524446762148</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.2296470294248</v>
+        <v>8.161493347776752</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.37366382387882</v>
+        <v>30.16097364532666</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.39717892019181</v>
+        <v>32.41339394765028</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.24086107434555</v>
+        <v>9.309539255920356</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.47009287199784</v>
+        <v>45.39359206035681</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.26418779594865</v>
+        <v>7.452443088518397</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.32594517647826</v>
+        <v>22.25209267908527</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>24.35251627383488</v>
+        <v>30.14700684785531</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.26729033880237</v>
+        <v>7.063483703634475</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.38880687028032</v>
+        <v>36.59714416451654</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.40560291316763</v>
+        <v>40.0956853968847</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.2725954185789</v>
+        <v>7.423958007642728</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.44478967766354</v>
+        <v>50.69773818599031</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>24.45105189466668</v>
+        <v>52.77536640730884</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.44671964600586</v>
+        <v>46.26571530028664</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.46883394356853</v>
+        <v>52.72119068067803</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>24.46815117709244</v>
+        <v>53.98083676694861</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.2781271688759</v>
+        <v>10.2771970252981</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.33844219546901</v>
+        <v>24.31265342511757</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>24.40328867571735</v>
+        <v>36.46374194576197</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.27479044233983</v>
+        <v>14.86144623324348</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>24.36624589336364</v>
+        <v>30.45339163714893</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.37114439981931</v>
+        <v>31.40982813961195</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.24556191502573</v>
+        <v>8.229785395957698</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.36274435841662</v>
+        <v>29.21661980083899</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.38541549187439</v>
+        <v>32.20487597210817</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.24361617587896</v>
+        <v>7.727113668463378</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.42635349115934</v>
+        <v>41.50638833507929</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.38105652137271</v>
+        <v>29.60102391864335</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.35992788403437</v>
+        <v>25.06879604844303</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.45052263328235</v>
+        <v>39.63354132515929</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.44233107678001</v>
+        <v>41.78707084292626</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.30579050486689</v>
+        <v>15.56159314309458</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.36212942449496</v>
+        <v>27.15491204170115</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.38776404853179</v>
+        <v>31.72596161813224</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.29157680213054</v>
+        <v>18.20179693406536</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.35195946291756</v>
+        <v>28.42374702118111</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.39690775151043</v>
+        <v>35.84354187663537</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.22407182075142</v>
+        <v>8.037558219264923</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.31673384921829</v>
+        <v>16.92076526556434</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.32720767819277</v>
+        <v>22.80344060492178</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.24132058800768</v>
+        <v>8.929159661113012</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.40623377971251</v>
+        <v>31.05825067027318</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.48364382610815</v>
+        <v>47.77969548739006</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.39155095522579</v>
+        <v>28.32080505938183</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.4961303274725</v>
+        <v>47.10825784684167</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.52903930892096</v>
+        <v>49.90879613618853</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.30307535597012</v>
+        <v>16.13456503541558</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.3946413132383</v>
+        <v>28.18202104109979</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.47424647395937</v>
+        <v>38.89433618671632</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.50547918424041</v>
+        <v>51.9084291363313</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.53065451545507</v>
+        <v>50.85708646449608</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24.58343853964221</v>
+        <v>57.49043724992408</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.57156710422042</v>
+        <v>57.2420358471503</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.36202356427813</v>
+        <v>27.11014669306088</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.5592910096066</v>
+        <v>53.6878238281753</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.54034539669078</v>
+        <v>52.25794760971625</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.33719901448093</v>
+        <v>24.81349181263048</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.23244460897291</v>
+        <v>9.1694418578696</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.45071703868897</v>
+        <v>40.86895896056394</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.4429966962287</v>
+        <v>41.37417312200056</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.25452169104338</v>
+        <v>10.49549407205187</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.584945738905</v>
+        <v>59.03245110553351</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.60609262685104</v>
+        <v>62.02433069715327</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.66471644975177</v>
+        <v>61.71612321046075</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>24.70573654944361</v>
+        <v>68.00158647042871</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.72204684781534</v>
+        <v>70.02247673974205</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.41216333871527</v>
+        <v>32.09674270302531</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24.68726120059624</v>
+        <v>65.15857393018526</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.68639237529666</v>
+        <v>65.65417851179424</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.51218502312046</v>
+        <v>52.64905075780727</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>24.50449394680551</v>
+        <v>47.79806291415162</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.53040512283281</v>
+        <v>52.88257419832134</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>24.5592463105078</v>
+        <v>56.32283264496449</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.31171955072406</v>
+        <v>21.9132602809587</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.51430684537303</v>
+        <v>49.63978361532453</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>24.51378485706348</v>
+        <v>49.34780426517436</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>24.28648340010434</v>
+        <v>17.81678484129635</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.39336276607363</v>
+        <v>32.74382703057572</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>24.41825580836496</v>
+        <v>37.75162181705173</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.20988375699381</v>
+        <v>8.187356668775038</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.42558731605972</v>
+        <v>37.22394380603897</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>24.44378299776105</v>
+        <v>39.19856209207901</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.22830214815405</v>
+        <v>10.4856980410448</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.54303083213047</v>
+        <v>54.95068491504878</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>24.60206786021586</v>
+        <v>62.79875222158047</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.64364384184999</v>
+        <v>60.48834514447134</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.67471171847846</v>
+        <v>67.1859515044969</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>24.72121335318898</v>
+        <v>70.921125273741</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.33245173245269</v>
+        <v>23.77468571630553</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.63386871928629</v>
+        <v>63.07365991174002</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>24.65584006101842</v>
+        <v>65.3647486596106</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.46276205143871</v>
+        <v>49.52683715953971</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.41307987634226</v>
+        <v>34.64103844013667</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.45021426378883</v>
+        <v>40.31627018554163</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.45809998080493</v>
+        <v>43.69907290768436</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.30249631496137</v>
+        <v>18.18109423788092</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.47379159314206</v>
+        <v>46.24743383307906</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.48829996785829</v>
+        <v>49.06865659210577</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.28446556030011</v>
+        <v>17.16477738948359</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.39722275998428</v>
+        <v>34.42027997517288</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.43138857766249</v>
+        <v>41.53326331186686</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.25133465304022</v>
+        <v>8.858172367678431</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.42351706345675</v>
+        <v>36.71347139266174</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.45622152499708</v>
+        <v>42.66059886818825</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.24952745374315</v>
+        <v>8.463137716266047</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>24.50268500243824</v>
+        <v>52.36721768692901</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.5732118156084</v>
+        <v>63.56650900847225</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.55640942762315</v>
+        <v>55.49136292033208</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>24.61752544921389</v>
+        <v>66.10358255979359</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.67249615159511</v>
+        <v>70.73954310685828</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>24.32184855039874</v>
+        <v>20.96015664734189</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>24.59835229246371</v>
+        <v>60.78391218871467</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>24.65481994379619</v>
+        <v>68.04471682534495</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.2978402946237</v>
+        <v>13.15930732176829</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.33863655954072</v>
+        <v>22.06246562643825</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>24.35739243321926</v>
+        <v>28.83333252751302</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.25418682777829</v>
+        <v>3.719219278553261</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.32572763531548</v>
+        <v>15.87982434664563</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.32820309041772</v>
+        <v>20.01233829944249</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.26811130648545</v>
+        <v>5.030244016995464</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.39818227371817</v>
+        <v>41.44837237248721</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.39968082005473</v>
+        <v>44.97078330928363</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.32240523805056</v>
+        <v>20.97289985526986</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.35632846747064</v>
+        <v>27.07800239959993</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.34686076192161</v>
+        <v>27.08235856683389</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.27336394412715</v>
+        <v>12.4234493608734</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.29758536607236</v>
+        <v>16.21022527660351</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.32650545687451</v>
+        <v>21.94153973300203</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.29807816812507</v>
+        <v>17.40769569249506</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.3659313231778</v>
+        <v>29.31736534406323</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.36415597613915</v>
+        <v>30.74129057334182</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.24898350975619</v>
+        <v>4.732408500676886</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.31609371321247</v>
+        <v>14.79495412092499</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.31995032194133</v>
+        <v>18.68234641522776</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.2477238110376</v>
+        <v>5.380864342841956</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.37706033744437</v>
+        <v>30.51250000899103</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.33318353390504</v>
+        <v>21.08381204925843</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.39427691722235</v>
+        <v>37.67939398315326</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.38601564347027</v>
+        <v>36.6354809875932</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.26899989637623</v>
+        <v>4.730598454331393</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.39890775199851</v>
+        <v>36.21543941455588</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.38935069250214</v>
+        <v>38.33335078323988</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.28085327245315</v>
+        <v>5.655622756571955</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.46963396700955</v>
+        <v>56.29156624410574</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.44464975124624</v>
+        <v>53.04814816595714</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.44662570665582</v>
+        <v>46.55633650049458</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.48574684787723</v>
+        <v>55.86294565296237</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>24.46203205582847</v>
+        <v>56.03745789079101</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.30757009957701</v>
+        <v>18.05219379773719</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>24.41389242849652</v>
+        <v>44.84921796769636</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>24.40676793900694</v>
+        <v>42.47042235474913</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.33655992948889</v>
+        <v>22.9294755822024</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>24.4199675289714</v>
+        <v>36.70042816382711</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.40384024122713</v>
+        <v>36.47232787523585</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>24.26163503090778</v>
+        <v>5.403519345068769</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.39988180173528</v>
+        <v>33.5578938970841</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.40561853694732</v>
+        <v>33.62672481793282</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>24.26677391536955</v>
+        <v>5.672838101926885</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.49739418404191</v>
+        <v>54.12735763335782</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>24.29251810747087</v>
+        <v>8.759975320632378</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.35993294737354</v>
+        <v>28.85297293401118</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.35738111288569</v>
+        <v>31.09913339735558</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24.25082166115178</v>
+        <v>3.11203746526845</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.37496658774426</v>
+        <v>34.03702789641191</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.37633641080919</v>
+        <v>36.97206964028069</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.26840590980471</v>
+        <v>4.737142226025444</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.44259564253211</v>
+        <v>53.63812475387774</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.43356768839068</v>
+        <v>52.02000639528607</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.44560989708977</v>
+        <v>50.54923858579335</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.47002536953522</v>
+        <v>56.29943277826786</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.4592434950504</v>
+        <v>56.78726506387705</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.24874075974624</v>
+        <v>4.274710480260783</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.35720194133518</v>
+        <v>30.4263906947718</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.34866410640043</v>
+        <v>28.1043073959936</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.30632745411978</v>
+        <v>17.00596905531011</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.38649592551353</v>
+        <v>34.23545311850084</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.38737943956225</v>
+        <v>35.22402815001703</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.25087046552807</v>
+        <v>5.125215408002383</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.37316628834535</v>
+        <v>30.41505399358262</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.40222275267853</v>
+        <v>34.07976107283873</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.2582144542102</v>
+        <v>4.937589868075314</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.45758853970517</v>
+        <v>48.97886278552826</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.29428930884538</v>
+        <v>7.454189455994566</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.35524013528778</v>
+        <v>28.06723872346792</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.36404139349067</v>
+        <v>32.85170638957924</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.27829372911375</v>
+        <v>4.706465805588522</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.37711825230809</v>
+        <v>36.92196767096731</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.39223501512533</v>
+        <v>43.7333804182313</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.2827220327832</v>
+        <v>4.403163949084288</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.43336205572462</v>
+        <v>56.50272429070579</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.43465534261582</v>
+        <v>57.11967555694035</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.4248778904211</v>
+        <v>48.32556069343407</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.45211663390565</v>
+        <v>55.76981697967388</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.44695281263849</v>
+        <v>57.3351425561173</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.27521733924527</v>
+        <v>7.348828088471215</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.36548891414135</v>
+        <v>36.82760457795552</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.37683412857568</v>
+        <v>36.91281245981614</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.29647960275842</v>
+        <v>12.88150710358708</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.37440531410525</v>
+        <v>32.31534964781192</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.37934450800756</v>
+        <v>34.10358718007554</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>24.26955910913637</v>
+        <v>5.413425342990003</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.36494067077813</v>
+        <v>30.35584247574835</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.39545781223919</v>
+        <v>35.46091150422979</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.26752555620091</v>
+        <v>4.72430934728601</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.42524664276796</v>
+        <v>45.95379132511</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.38136804606132</v>
+        <v>30.7532808805401</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.36868477771816</v>
+        <v>26.42238209139914</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.44881614475919</v>
+        <v>40.92832258488247</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.43638406206049</v>
+        <v>43.85659087744893</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.29101468074233</v>
+        <v>12.87578263206152</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.35882174177719</v>
+        <v>24.28439536535623</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.37862875447493</v>
+        <v>31.3206834391253</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.32079517772569</v>
+        <v>17.62921897386695</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.37880011963128</v>
+        <v>31.36147891098711</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.39795257904299</v>
+        <v>36.49508974991882</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.23708426132528</v>
+        <v>4.7462144843666</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.31653751668556</v>
+        <v>14.97995232762534</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.32582358625822</v>
+        <v>22.95489955468735</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.25166570885533</v>
+        <v>5.842924156354822</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.40224599872639</v>
+        <v>33.12237540053264</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>24.45651038643248</v>
+        <v>51.528040874151</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>24.4003001369977</v>
+        <v>30.41375522681661</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.48296747629634</v>
+        <v>47.00910638550963</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>24.51107754631111</v>
+        <v>53.78576602511595</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.29139596631626</v>
+        <v>13.63831795682677</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.39454952654929</v>
+        <v>28.98580098094849</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.43745501109175</v>
+        <v>40.81557080783796</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.50171439510373</v>
+        <v>58.25937219184361</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.52131934289226</v>
+        <v>56.85817626013022</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.582854713661</v>
+        <v>65.78044813913472</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>24.55986644018812</v>
+        <v>64.46871628787093</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.34427773689644</v>
+        <v>24.09244192694438</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>24.54017869262708</v>
+        <v>57.91429721692927</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>24.53350281904858</v>
+        <v>60.10153443947084</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>24.36442938627142</v>
+        <v>27.69543441937969</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.4532703875375</v>
+        <v>43.09405303267786</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.44034528960523</v>
+        <v>41.75651943910167</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.25331559788946</v>
+        <v>6.134790310212619</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>24.44477946031883</v>
+        <v>41.24323916089884</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>24.43313629808972</v>
+        <v>40.62431559268013</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.26911585080424</v>
+        <v>7.39130084930553</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.55967468446409</v>
+        <v>64.01787701192823</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>24.56750178397524</v>
+        <v>64.72964098311355</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>24.64033065104533</v>
+        <v>69.62201199711969</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>24.68341176822174</v>
+        <v>75.68185559482244</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>24.69055913908585</v>
+        <v>78.26537667747662</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>24.38926607550778</v>
+        <v>32.61478878613813</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.65705343245304</v>
+        <v>71.03119246402878</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>24.63735707678088</v>
+        <v>71.03781327271987</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.50413457998365</v>
+        <v>57.1676513600345</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>24.49186688538948</v>
+        <v>51.98300815043599</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>24.53059093698102</v>
+        <v>58.99328975554542</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.5455200113734</v>
+        <v>62.91812806329546</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.30293393873034</v>
+        <v>17.63932333310155</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.49705867801327</v>
+        <v>53.45021121350885</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.50412545155016</v>
+        <v>55.1439342615742</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.31529290198428</v>
+        <v>19.9580112556418</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.41165653252508</v>
+        <v>39.71122561824482</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.41475337012918</v>
+        <v>39.53296699971396</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.22936181999796</v>
+        <v>4.396560517914384</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.41574608154868</v>
+        <v>36.7674655385087</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.42614329467366</v>
+        <v>38.2858264816732</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.24344900711883</v>
+        <v>6.404826935213372</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.51533839755766</v>
+        <v>59.04504158109238</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.55686436113663</v>
+        <v>64.561385866705</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.60968774050075</v>
+        <v>65.72975944495968</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>24.64347045095992</v>
+        <v>73.11103399449925</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.68038302656919</v>
+        <v>78.67281592025654</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.32044781661361</v>
+        <v>23.05018327167443</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>24.60191271472154</v>
+        <v>67.31678558452303</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.60003923636386</v>
+        <v>67.78931632237213</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.46382762857098</v>
+        <v>56.95690920922514</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.41522229835187</v>
+        <v>36.23792007008062</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.45458838531058</v>
+        <v>43.88895535514127</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.46269001325563</v>
+        <v>49.73227049906327</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.30711250547373</v>
+        <v>13.83465639264508</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>24.4682385728711</v>
+        <v>51.34749506415693</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.48173413918725</v>
+        <v>55.36788742188456</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.3125566809934</v>
+        <v>16.80502808700453</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24.41282373130726</v>
+        <v>41.35492509070789</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>24.42596180612493</v>
+        <v>42.63178723792793</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.26811104310921</v>
+        <v>5.598240770012527</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.41463830551422</v>
+        <v>39.77416132699165</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>24.44244946971147</v>
+        <v>45.0388574311933</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.26728621449804</v>
+        <v>5.831033005371214</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.48684067756543</v>
+        <v>57.44619760304592</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.53873790992953</v>
+        <v>66.74305083007731</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>24.53342763793648</v>
+        <v>60.43404364322762</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.58315022558596</v>
+        <v>68.04175118283931</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>24.63608040245539</v>
+        <v>77.3324382662595</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.32029859582985</v>
+        <v>18.87749113242852</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.57482825708691</v>
+        <v>67.80717410000349</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>24.60137839504121</v>
+        <v>72.65409491213249</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.30321533077117</v>
+        <v>11.58709020455579</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.31293451581027</v>
+        <v>16.85096373546714</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.33669098883395</v>
+        <v>23.03092087484661</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.26643520956293</v>
+        <v>1.934023977649378</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.30001793815963</v>
+        <v>12.29834191406455</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.30237626174591</v>
+        <v>14.47634576921709</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>24.28353170911867</v>
+        <v>4.165355894659641</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.34240996901054</v>
+        <v>28.84018415861983</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.35272400885432</v>
+        <v>32.26572735959743</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.29463457294134</v>
+        <v>15.31028790057859</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.30881428626807</v>
+        <v>19.07825142811569</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.31550312061388</v>
+        <v>19.9481975668394</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.29293450380825</v>
+        <v>11.14087870055007</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.30457857542791</v>
+        <v>15.26694193693232</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.34806351855681</v>
+        <v>25.35795197923129</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.27695806452769</v>
+        <v>9.153259176541471</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.31298618488736</v>
+        <v>20.57328827090841</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.32249628840448</v>
+        <v>23.24550495647729</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>24.23665449753713</v>
+        <v>0.7624974148280117</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.25684927158101</v>
+        <v>6.411640294684609</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.26455624170327</v>
+        <v>10.06170005380968</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>24.24365522712515</v>
+        <v>2.516587792400255</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.29693102525314</v>
+        <v>18.38983124638023</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.30852648679805</v>
+        <v>13.82135420741225</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.33098321031077</v>
+        <v>24.01876987372249</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.33395429742937</v>
+        <v>25.04155839391211</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.2562643962646</v>
+        <v>1.589628797705085</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.33476706650276</v>
+        <v>23.69849315001472</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.33014334553409</v>
+        <v>24.73232057947495</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>24.2737783754524</v>
+        <v>4.84430404164803</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.37784584528537</v>
+        <v>38.22154452594293</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.36810332610547</v>
+        <v>37.5134134409801</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.37939519533446</v>
+        <v>35.54039185705851</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.39809201682008</v>
+        <v>41.10012806282287</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.39651375943812</v>
+        <v>43.89700202559402</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.3095749805608</v>
+        <v>17.03343461746714</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.39171599363026</v>
+        <v>40.88451579248546</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.40666810493626</v>
+        <v>43.17992153413652</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.28480564677893</v>
+        <v>11.96256397098654</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.33078991787751</v>
+        <v>24.69691002802432</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.33111561815792</v>
+        <v>26.72126629034358</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>24.22614794667118</v>
+        <v>0.6840540334908383</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.30480315384697</v>
+        <v>21.45526552418711</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.31959654939583</v>
+        <v>23.99266696298866</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>24.24066738713248</v>
+        <v>2.420840840845809</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.3805139216816</v>
+        <v>37.27714716258848</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.28456729799775</v>
+        <v>6.220704815135022</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.31260316963288</v>
+        <v>18.61418793762952</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.32237021644083</v>
+        <v>22.6650223340177</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.2516079694912</v>
+        <v>1.421548981440754</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.32491467871202</v>
+        <v>22.5846719679164</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.33184699322055</v>
+        <v>24.30642472521962</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.27504897748788</v>
+        <v>6.761097933088159</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.36601122772604</v>
+        <v>38.27772367675066</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.37352737133189</v>
+        <v>39.39357852282156</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>24.38896495150036</v>
+        <v>39.00627605799603</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.39647023431495</v>
+        <v>41.38453782528497</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.40998759067089</v>
+        <v>46.2525519453331</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.2685458832448</v>
+        <v>6.529463317984053</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>24.35354869193231</v>
+        <v>29.74660503335495</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.3701640299538</v>
+        <v>32.89887837539947</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.26770794218348</v>
+        <v>7.67178208227967</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.31011131426088</v>
+        <v>22.6144958254564</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.32861227908584</v>
+        <v>26.77459904537319</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.22462956677006</v>
+        <v>0.6659363248859513</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.28900158364456</v>
+        <v>16.66875089292455</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.32793383455596</v>
+        <v>25.11860503607826</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.24189267281606</v>
+        <v>3.675592104288892</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.35270098631696</v>
+        <v>32.0241599035589</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.28018281483748</v>
+        <v>4.659335260397935</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.30716173496507</v>
+        <v>14.54086913671054</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.32539605659913</v>
+        <v>21.65054683793945</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24.26398938618685</v>
+        <v>0.8532150044786242</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.32131713751265</v>
+        <v>21.61156625586736</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.34040652922705</v>
+        <v>27.70195156780292</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.27321804456528</v>
+        <v>1.480004457596916</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.3543288069587</v>
+        <v>33.64560818349761</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.3702088393501</v>
+        <v>39.27177401930983</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.35846227048187</v>
+        <v>31.78610757568968</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.3720479761804</v>
+        <v>36.26919912810833</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.38450950267683</v>
+        <v>41.35050779105836</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.2698449674433</v>
+        <v>4.931016522955499</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>24.33885518200193</v>
+        <v>27.77970567756267</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>24.37279831212734</v>
+        <v>35.86830680067575</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.26636513064327</v>
+        <v>4.388376521529977</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.31038667365191</v>
+        <v>19.51305911889268</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.33078236772759</v>
+        <v>24.90093575360268</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.24221106560358</v>
+        <v>0.3611912222760552</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.28904972111297</v>
+        <v>15.95146517418063</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.32832014575587</v>
+        <v>24.818841364719</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.24959431759366</v>
+        <v>1.224601502474666</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.33360684094536</v>
+        <v>26.7903407290789</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.30556281874562</v>
+        <v>19.44701769260784</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.28481090989975</v>
+        <v>15.09758181705783</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.3340749474671</v>
+        <v>25.88940358847698</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.32957535396037</v>
+        <v>28.17254464441835</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.23583890717662</v>
+        <v>5.92465960717022</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.27132978734238</v>
+        <v>13.0010488659128</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.29493962766154</v>
+        <v>18.82466646246837</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.29832032924415</v>
+        <v>14.54110884050578</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>24.32908223995478</v>
+        <v>25.596968503244</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.36064962188299</v>
+        <v>31.87659141754293</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.22162030013775</v>
+        <v>0.08926015430616019</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.25907414279966</v>
+        <v>7.341403520299377</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.27530951453332</v>
+        <v>14.8728152161996</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.2470544744781</v>
+        <v>3.667686007761962</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.32995291685868</v>
+        <v>24.26038062921847</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.38086474486367</v>
+        <v>39.92989112235293</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.33046231131446</v>
+        <v>21.91672504615374</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.38177786087894</v>
+        <v>34.16770780265497</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.40007400807582</v>
+        <v>40.08065429203181</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.24588869058201</v>
+        <v>6.987503482749396</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.29699649867513</v>
+        <v>19.82965195131573</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.35422349491034</v>
+        <v>30.10781290691322</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.39254279297641</v>
+        <v>42.02759200936492</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>24.39380382098032</v>
+        <v>38.9385390415681</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.42909204993091</v>
+        <v>46.93491293892218</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>24.41805951890964</v>
+        <v>45.30455202826496</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.26764737604929</v>
+        <v>13.31349893087153</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>24.4162549772607</v>
+        <v>41.54749912044836</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>24.42271624117213</v>
+        <v>44.51717193485504</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.33000546785064</v>
+        <v>23.13888232538531</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.3863985509489</v>
+        <v>35.60985278186142</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.39324837791796</v>
+        <v>38.07407767826342</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>24.23872174041657</v>
+        <v>2.282754558813718</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>24.37512871754814</v>
+        <v>33.90150575567957</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>24.37786184590925</v>
+        <v>35.28468842906286</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.26826423536352</v>
+        <v>8.945439818794529</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.47594289722923</v>
+        <v>56.87609705116104</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.48710556943671</v>
+        <v>56.51033837526438</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.56055287788898</v>
+        <v>65.75591276157601</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>24.57748736808457</v>
+        <v>69.46865461444321</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>24.57823623956142</v>
+        <v>70.73258628878946</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>24.3578212380444</v>
+        <v>30.57612357167847</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.55389221856689</v>
+        <v>62.70511471556941</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.56554991126622</v>
+        <v>65.30224465226704</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.40825905497652</v>
+        <v>43.05172453148444</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.37174015048182</v>
+        <v>32.57520005099308</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.39024986269246</v>
+        <v>39.79856446675139</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.41967907007878</v>
+        <v>44.37974085538843</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.2400705025919</v>
+        <v>7.271425034121464</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>24.38887173081198</v>
+        <v>38.05802382428261</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>24.41388692683335</v>
+        <v>41.99502660505432</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.30031768326783</v>
+        <v>16.12171484039606</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.36408808645162</v>
+        <v>32.66785787977565</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>24.38796043096352</v>
+        <v>37.25719502391887</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>24.23134925896666</v>
+        <v>1.009008549123052</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>24.36464190604868</v>
+        <v>30.17046541568217</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>24.38974675987102</v>
+        <v>34.66008037883665</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.25989929466967</v>
+        <v>8.943882637801526</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.45141604311359</v>
+        <v>53.25609120183313</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.49804539161738</v>
+        <v>59.1959418452477</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>24.54478792061985</v>
+        <v>62.22463164130902</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.55894931098772</v>
+        <v>68.23103887001743</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>24.59305898773437</v>
+        <v>73.10286897685026</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.31074906504938</v>
+        <v>21.36267754785422</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>24.5240641019638</v>
+        <v>60.6377218960242</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.55835622445837</v>
+        <v>65.74024395981783</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.38280995099997</v>
+        <v>41.35179960346269</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.31183639640706</v>
+        <v>19.576301544373</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.33270870121082</v>
+        <v>25.94169895983746</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.35211718678265</v>
+        <v>32.53850127243274</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.24431252081713</v>
+        <v>4.054483278763019</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>24.3661113193655</v>
+        <v>34.03031299449417</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.39688022041927</v>
+        <v>41.13945454255753</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.28912829844585</v>
+        <v>12.37495536907137</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.35936991684093</v>
+        <v>32.80088033399007</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.3896499189077</v>
+        <v>38.56465366339146</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.24795565581947</v>
+        <v>1.252923901007808</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>24.3492790343484</v>
+        <v>30.59261419386797</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>24.38911512713407</v>
+        <v>38.49264920869695</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.26054491203801</v>
+        <v>4.368410254165067</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>24.414001813176</v>
+        <v>49.09071972545613</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>24.47163442542771</v>
+        <v>59.92877436678059</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>24.45197217053891</v>
+        <v>52.78959609364011</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>24.48446478556156</v>
+        <v>60.41418953118637</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24.53299302866963</v>
+        <v>68.77467032196871</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.27778092509356</v>
+        <v>11.42877915719482</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>24.4742486882416</v>
+        <v>55.53887937779674</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>24.52992410063834</v>
+        <v>66.52410301507267</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.30646966426268</v>
+        <v>10.27318318171669</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.31435511719722</v>
+        <v>16.89109806136253</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.34596194953029</v>
+        <v>26.69833763515629</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.2838053833656</v>
+        <v>2.442912225350995</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.3225115669817</v>
+        <v>17.23382214216818</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>24.32355349285975</v>
+        <v>19.69655060597868</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.29724755900702</v>
+        <v>7.944934455333115</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.36519890773235</v>
+        <v>34.49859846570635</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.37516438718016</v>
+        <v>37.69174031277199</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>24.31480179531342</v>
+        <v>16.04159540863692</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.33568540832277</v>
+        <v>22.89342091535654</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.34991891997464</v>
+        <v>26.53468916933598</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.3144640625686</v>
+        <v>13.623064577112</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.31039011428304</v>
+        <v>14.17282710404899</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.35403519777734</v>
+        <v>28.27662273616773</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.29115354170688</v>
+        <v>11.48214313012697</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.34480338691493</v>
+        <v>29.88833077372248</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.37523147216351</v>
+        <v>36.86139935502221</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.24926577179616</v>
+        <v>1.920116266997695</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.29080642520797</v>
+        <v>10.88521714738585</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>24.30931895303731</v>
+        <v>15.14132734709515</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>24.25129897903205</v>
+        <v>1.781805232193275</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.33136854609442</v>
+        <v>23.73268103759704</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.31522531068262</v>
+        <v>17.88057042437557</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>24.34325387901955</v>
+        <v>28.5467123461395</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.35394352233094</v>
+        <v>30.10221433842927</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.27717830632159</v>
+        <v>1.899789096116741</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.3654391850293</v>
+        <v>32.88417615685093</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.36655552359426</v>
+        <v>37.38666156578754</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>24.2862642473636</v>
+        <v>6.793330842740108</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.41126244885574</v>
+        <v>50.50152866768791</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24.40195940364686</v>
+        <v>48.55913914710362</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>24.41586510778472</v>
+        <v>47.41419287806769</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24.44180396444332</v>
+        <v>55.52775470003061</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>24.44277194081605</v>
+        <v>54.96929375490246</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>24.33108257034631</v>
+        <v>19.19323277599192</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.41070928386366</v>
+        <v>40.88902321041328</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>24.42833192669284</v>
+        <v>45.53766759689087</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.32351235943082</v>
+        <v>20.01505895370425</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.39487426338701</v>
+        <v>41.02103552004028</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>24.4159189162277</v>
+        <v>43.75530815416246</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.26707401162306</v>
+        <v>3.946308458460766</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>24.36751460280501</v>
+        <v>35.2426892100783</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>24.40615051543708</v>
+        <v>42.91141013282871</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>24.27328049773459</v>
+        <v>3.570616019488195</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.45195585974941</v>
+        <v>58.32822107866011</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24.28811646522639</v>
+        <v>6.910471477263773</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>24.32643927653177</v>
+        <v>19.75806446264725</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.34287360895457</v>
+        <v>25.717406553169</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.26779705950411</v>
+        <v>0.005271701478712032</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.35513765427592</v>
+        <v>29.28912523427328</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.36784612997068</v>
+        <v>33.31701838941385</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.28077812382998</v>
+        <v>4.208870551260031</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.39940133785842</v>
+        <v>45.92890371547107</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.40636084325869</v>
+        <v>49.59547074740182</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.42230994413417</v>
+        <v>50.20932084526174</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.43542042941877</v>
+        <v>54.56494435780699</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>24.44675765252325</v>
+        <v>56.76244529470222</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.28759209439239</v>
+        <v>9.263823125056589</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.37424512188644</v>
+        <v>30.14401289867685</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>24.39760781400584</v>
+        <v>35.4137227786135</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.29370307583374</v>
+        <v>10.54633955692702</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>24.36773264660615</v>
+        <v>32.93315943951127</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.40276234204806</v>
+        <v>41.32074861384319</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.25294359174532</v>
+        <v>2.04034335623906</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.3444734583071</v>
+        <v>26.4642280215892</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.40524034986015</v>
+        <v>41.94240428257468</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.26013583172464</v>
+        <v>1.092634407516304</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.41994147859574</v>
+        <v>48.40329553267433</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.28688802374048</v>
+        <v>4.03746709165922</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.31841252061878</v>
+        <v>16.24819176176504</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.343241280767</v>
+        <v>24.76559473925347</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>24.27927814570796</v>
+        <v>0.6519891120102876</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.34877009619473</v>
+        <v>30.72233269847755</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.36471765494683</v>
+        <v>35.87999738759004</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.28470055213325</v>
+        <v>1.953175252563152</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.38269486059926</v>
+        <v>45.15173491599942</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.39835653888698</v>
+        <v>50.25457725895406</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.3828559850266</v>
+        <v>39.02202265494565</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.39916752835222</v>
+        <v>45.72771304207313</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>24.40779408478702</v>
+        <v>48.45382786424274</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.29119648481141</v>
+        <v>7.809087089810106</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.34843947954761</v>
+        <v>24.90722407635313</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.38849901778882</v>
+        <v>36.92265878226267</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.28712311178208</v>
+        <v>7.830791706348879</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>24.35586814455607</v>
+        <v>30.082651988004</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.39135933968437</v>
+        <v>40.99609123769721</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>24.26492053557093</v>
+        <v>2.624197587311691</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.33870062214639</v>
+        <v>25.25317323361827</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.38522898564796</v>
+        <v>41.26980187662674</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>24.26662794902956</v>
+        <v>-0.06623790988361122</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.38837339053594</v>
+        <v>41.05449795532515</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>24.36757285304873</v>
+        <v>30.23419285344586</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.33204466002173</v>
+        <v>24.10810786660885</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.41951192476673</v>
+        <v>49.01564031569362</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.45296169864773</v>
+        <v>57.40115862819322</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.25578989843055</v>
+        <v>6.333680543746883</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.33942753388432</v>
+        <v>19.11251534521124</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.37617918471706</v>
+        <v>30.15622383782427</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.2944227557564</v>
+        <v>14.13614915452121</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.34157016471169</v>
+        <v>29.77699730453855</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.3805087657503</v>
+        <v>41.09460546793606</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.23529147837771</v>
+        <v>1.873225685737577</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.28254436250313</v>
+        <v>8.949455501752624</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.29999117114846</v>
+        <v>14.14957301982588</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.24821405672814</v>
+        <v>2.474931602106718</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.35204596387443</v>
+        <v>23.39184473857873</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>24.40332654605592</v>
+        <v>40.99386984817657</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>24.35947247519008</v>
+        <v>27.51231162572154</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.45975355219944</v>
+        <v>51.24663046199692</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.48344654836665</v>
+        <v>59.49936386560786</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.24747341427619</v>
+        <v>7.027350076783453</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>24.35235911999487</v>
+        <v>22.46119313259406</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.39454021386294</v>
+        <v>31.28707301849511</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>24.49345046243324</v>
+        <v>70.87101530975951</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.49056757082438</v>
+        <v>61.39333982023739</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.55314330640137</v>
+        <v>77.4570612051531</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.5877033910421</v>
+        <v>82.14098609411894</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.33078304750314</v>
+        <v>22.94323986758253</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>24.55028033284227</v>
+        <v>71.54365782838607</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>24.57185042286778</v>
+        <v>80.45543633810563</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.33757606104234</v>
+        <v>26.6654369318237</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.42009400355169</v>
+        <v>46.79040895908983</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.43988030398532</v>
+        <v>50.73100580645422</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.2636400866743</v>
+        <v>4.95240413948369</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.40973264460906</v>
+        <v>45.80562156468731</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>24.43440899904445</v>
+        <v>52.26191031188144</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>24.27967889060011</v>
+        <v>8.388755451945986</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.52409373234584</v>
+        <v>75.89717108411492</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.54542391696273</v>
+        <v>79.35008640277567</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.61630553938765</v>
+        <v>84.94360772577413</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>24.67193820891859</v>
+        <v>93.25303795940944</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>24.68165547995119</v>
+        <v>96.71739743154846</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>24.37515545629228</v>
+        <v>34.06984711981617</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.65226494108268</v>
+        <v>92.53523046694454</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.65323009150962</v>
+        <v>93.98902659942256</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>24.4988969727355</v>
+        <v>72.05871465212988</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>24.45410565090518</v>
+        <v>50.06300643273404</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>24.4960906121206</v>
+        <v>62.88234965933381</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.56515926446968</v>
+        <v>79.09308623180746</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.28880848861717</v>
+        <v>12.69741182078751</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.51137505470763</v>
+        <v>64.51600414417081</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.55268797472637</v>
+        <v>76.16872176688372</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.29606821319506</v>
+        <v>12.84482682675966</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.39203915610016</v>
+        <v>38.29896209304436</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.42618769562431</v>
+        <v>45.93895789431174</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.24394141543822</v>
+        <v>2.674484905682814</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.39219031074233</v>
+        <v>41.44672708983327</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>24.43911626484688</v>
+        <v>52.40945469055792</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.25635106918601</v>
+        <v>4.071363304604841</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.49460224681653</v>
+        <v>67.39114173594005</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.54827387309789</v>
+        <v>80.82777038983215</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.58733859475791</v>
+        <v>78.96650393666907</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.6353096864196</v>
+        <v>89.14065922454112</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.67149177464875</v>
+        <v>95.05890388371255</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.31159079257472</v>
+        <v>20.31016758132218</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>24.60806630061517</v>
+        <v>85.33864025214653</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.63541968830314</v>
+        <v>92.75210376951834</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.45653529963201</v>
+        <v>69.58135853562143</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.37783213426275</v>
+        <v>32.52421202308037</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.42571520287029</v>
+        <v>45.29963562213423</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>24.4760669405052</v>
+        <v>63.33139628514604</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.28477248523782</v>
+        <v>8.860538169502124</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.45535035189425</v>
+        <v>56.56454781070545</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>24.49867195286868</v>
+        <v>71.81319674406586</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.29760970944537</v>
+        <v>11.27258265557826</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.38939994481341</v>
+        <v>38.75291342792942</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>24.42825887867331</v>
+        <v>51.52881361744454</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.27250931528486</v>
+        <v>4.017123599659485</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.38723751434828</v>
+        <v>39.23084642038515</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>24.43205124318184</v>
+        <v>55.26322749532906</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>24.27152514626828</v>
+        <v>2.052212844198323</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.4546032949915</v>
+        <v>62.55585321510517</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>24.51654747189157</v>
+        <v>82.37288565396581</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>24.50196036593134</v>
+        <v>70.20055044936561</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.56955106228483</v>
+        <v>87.76312930374023</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>24.62023049003552</v>
+        <v>97.21261715286298</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>24.30081910396702</v>
+        <v>15.81831683068236</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>24.54536721745191</v>
+        <v>77.75377471793118</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>24.59529546869999</v>
+        <v>91.2998855808043</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.469423274027712</v>
+        <v>9.469423274027825</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.83469396975399</v>
+        <v>12.83469396975414</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.37909480781874</v>
+        <v>18.37909480781867</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.385960359290664</v>
+        <v>3.385960359290706</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.89295921833445</v>
+        <v>11.89295921833441</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.03124581965</v>
+        <v>14.03124581964986</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.552814655762855</v>
+        <v>7.552814655762838</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.51631765771877</v>
+        <v>24.51631765771873</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.29255029810498</v>
+        <v>26.29255029810499</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.0581072365067</v>
+        <v>12.05810723650664</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.32892396777066</v>
+        <v>17.32892396777061</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.98973167235264</v>
+        <v>17.98973167235256</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.97909815536609</v>
+        <v>11.97909815536617</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.529925763130478</v>
+        <v>6.529925763130347</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.89899927651064</v>
+        <v>15.89899927651069</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.23689394394585</v>
+        <v>11.23689394394569</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.96577380791004</v>
+        <v>19.96577380791008</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.88640454798391</v>
+        <v>27.88640454798384</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.366697455412304</v>
+        <v>6.366697455412218</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.64413471390106</v>
+        <v>10.64413471390099</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.62893891697993</v>
+        <v>15.62893891697992</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.19485053108362</v>
+        <v>3.194850531083585</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.91591107589368</v>
+        <v>14.91591107589358</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.04268325787465</v>
+        <v>17.04268325787455</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.07391570934329</v>
+        <v>25.07391570934337</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.01894284968512</v>
+        <v>25.01894284968526</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.549220584104845</v>
+        <v>2.549220584104777</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.52331842174535</v>
+        <v>27.52331842174524</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.51980813351027</v>
+        <v>31.51980813351036</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.304577154442388</v>
+        <v>6.304577154442413</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.53158311262772</v>
+        <v>39.53158311262769</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.65714733013372</v>
+        <v>38.6571473301338</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.3007513999472</v>
+        <v>37.30075139994726</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.63278988902758</v>
+        <v>44.63278988902754</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.79102751017592</v>
+        <v>45.79102751017599</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.32491189696135</v>
+        <v>18.32491189696131</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.08643548398804</v>
+        <v>27.08643548398799</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.69477510748477</v>
+        <v>30.69477510748482</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.74366953745397</v>
+        <v>17.74366953745401</v>
       </c>
     </row>
     <row r="41">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.2228821486163</v>
+        <v>31.22288214861632</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.530169786289257</v>
+        <v>6.530169786289331</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.49701254230355</v>
+        <v>26.4970125423035</v>
       </c>
     </row>
     <row r="45">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40.50565777749866</v>
+        <v>40.50565777749853</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.78863001180661</v>
+        <v>9.788630011806521</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.14621515859897</v>
+        <v>21.14621515859882</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.42882117023642</v>
+        <v>24.42882117023638</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.963909038642676</v>
+        <v>1.963909038642694</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.07626122303954</v>
+        <v>26.07626122303957</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.68767056931704</v>
+        <v>30.68767056931696</v>
       </c>
     </row>
     <row r="53">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41.09525724176446</v>
+        <v>41.09525724176441</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.62961155428454</v>
+        <v>43.62961155428441</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.45418792868401</v>
+        <v>41.45418792868396</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.2392269789581</v>
+        <v>45.23922697895819</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.28286694984098</v>
+        <v>49.28286694984095</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.86366763069596</v>
+        <v>12.86366763069576</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.65632008136876</v>
+        <v>23.65632008136865</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.67161271182037</v>
+        <v>27.67161271182023</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.29246376985205</v>
+        <v>12.29246376985198</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.41162308709738</v>
+        <v>25.41162308709733</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.86918481007505</v>
+        <v>30.86918481007501</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.064223522694771</v>
+        <v>6.064223522694611</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.62408329745769</v>
+        <v>21.62408329745768</v>
       </c>
     </row>
     <row r="67">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.827490430786359</v>
+        <v>4.827490430786341</v>
       </c>
     </row>
     <row r="69">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6.00062014695235</v>
+        <v>6.000620146952421</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16.78524238505994</v>
+        <v>16.78524238505986</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.39086650846935</v>
+        <v>21.39086650846933</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.864674086166769</v>
+        <v>1.864674086166822</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.17183850354</v>
+        <v>26.17183850353996</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.91594992354858</v>
+        <v>30.91594992354855</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.767410147085734</v>
+        <v>2.767410147085677</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>37.57018801159006</v>
+        <v>37.57018801159001</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.14765961762757</v>
+        <v>41.1476596176274</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.26737146326475</v>
+        <v>29.26737146326473</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.97847486152048</v>
+        <v>33.9784748615204</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.57312611271638</v>
+        <v>37.57312611271627</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>9.386454851946834</v>
+        <v>9.38645485194694</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.96867879084138</v>
+        <v>17.96867879084127</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.00066777173672</v>
+        <v>29.00066777173652</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9.231660164217004</v>
+        <v>9.231660164216997</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.62009425428548</v>
+        <v>23.62009425428553</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.92615961231902</v>
+        <v>29.92615961231915</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.041581695462199</v>
+        <v>6.04158169546217</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.82809094659878</v>
+        <v>22.82809094659882</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.91635690421728</v>
+        <v>33.91635690421727</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.377397203763145</v>
+        <v>1.377397203763049</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.82023021778396</v>
+        <v>32.8202302177841</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>18.67806831132293</v>
+        <v>18.67806831132291</v>
       </c>
     </row>
     <row r="94">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.80268669834898</v>
+        <v>33.80268669834906</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.28785117381004</v>
+        <v>38.28785117381012</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.736204863017427</v>
+        <v>6.736204863017466</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.19011294172489</v>
+        <v>13.19011294172482</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>18.93780736149184</v>
+        <v>18.9378073614919</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.3956355273462</v>
+        <v>14.39563552734612</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.89839149024363</v>
+        <v>22.89839149024369</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.14308633357291</v>
+        <v>32.14308633357279</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5.966803095689958</v>
+        <v>5.966803095689933</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.826700166176764</v>
+        <v>9.826700166176735</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.2273703428616</v>
+        <v>11.22737034286165</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.781638455349718</v>
+        <v>3.781638455349697</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.26751660533949</v>
+        <v>16.2675166053396</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.28501771974294</v>
+        <v>31.2850177197429</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>18.34934101140297</v>
+        <v>18.34934101140304</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.30316136849603</v>
+        <v>38.30316136849605</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.29004169361839</v>
+        <v>44.29004169361843</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6.699795639691839</v>
+        <v>6.69979563969186</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.77537550590429</v>
+        <v>14.77537550590439</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.17625186683797</v>
+        <v>23.17625186683795</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.59396432865286</v>
+        <v>49.59396432865302</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.05949338070816</v>
+        <v>43.05949338070813</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.78738187516485</v>
+        <v>54.78738187516461</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.61916160773264</v>
+        <v>58.61916160773269</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.16651768516175</v>
+        <v>21.16651768516165</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>48.61797131000418</v>
+        <v>48.617971310004</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.88303021363427</v>
+        <v>53.88303021363417</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.77763863860987</v>
+        <v>25.77763863860986</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.39533620423021</v>
+        <v>35.39533620423012</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.55224978152665</v>
+        <v>41.55224978152669</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.761371923180221</v>
+        <v>7.76137192318032</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.3209341481753</v>
+        <v>36.32093414817523</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.09288684465949</v>
+        <v>42.09288684465952</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.745115422380557</v>
+        <v>8.745115422380483</v>
       </c>
     </row>
     <row r="129">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.08217890857887</v>
+        <v>64.08217890857881</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.54806692547284</v>
+        <v>68.54806692547292</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.85491428730431</v>
+        <v>75.8549142873044</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.53582697816546</v>
+        <v>81.53582697816599</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.88736620775158</v>
+        <v>34.88736620775137</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69.25111303639345</v>
+        <v>69.25111303639349</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.23810457732824</v>
+        <v>73.23810457732823</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>53.50940122227781</v>
+        <v>53.50940122227782</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.84616068769229</v>
+        <v>36.84616068769227</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.50221480714491</v>
+        <v>44.50221480714482</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>56.94098338633403</v>
+        <v>56.94098338633419</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.2421656490043</v>
+        <v>16.24216564900421</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>45.53240198040918</v>
+        <v>45.53240198040924</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.36251237379713</v>
+        <v>52.36251237379719</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.4067763961216</v>
+        <v>17.40677639612153</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.90108049151124</v>
+        <v>31.90108049151126</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.97309291006106</v>
+        <v>39.97309291006104</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6.777302456661655</v>
+        <v>6.777302456661616</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.99056126856688</v>
+        <v>32.99056126856676</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.02146776101989</v>
+        <v>43.02146776101992</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.87334824842949</v>
+        <v>8.873348248429441</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.19021904566874</v>
+        <v>54.19021904566878</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.66855845039645</v>
+        <v>68.6685584503964</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>66.55719884109588</v>
+        <v>66.55719884109587</v>
       </c>
     </row>
     <row r="154">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.66893689444007</v>
+        <v>81.66893689444024</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.46965451163111</v>
+        <v>25.46965451163103</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>62.91111352062399</v>
+        <v>62.91111352062396</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73.10715935534762</v>
+        <v>73.10715935534749</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>48.98719711367996</v>
+        <v>48.98719711367998</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.19419896673311</v>
+        <v>24.19419896673301</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.87405463679739</v>
+        <v>30.87405463679738</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.18940967119925</v>
+        <v>42.18940967119912</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>11.00892959591972</v>
+        <v>11.00892959591973</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.87052981507195</v>
+        <v>41.87052981507196</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.00901055357981</v>
+        <v>50.00901055357988</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.8984021005697</v>
+        <v>14.89840210056971</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.21201919841116</v>
+        <v>33.21201919841105</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.17757319641461</v>
+        <v>44.1775731964146</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.469554639886734</v>
+        <v>7.469554639886706</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.45873072315839</v>
+        <v>33.4587307231583</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.7653001922472</v>
+        <v>45.76530019224703</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.746801646774973</v>
+        <v>3.746801646774866</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>50.22549617128939</v>
+        <v>50.22549617128941</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>69.02649235057062</v>
+        <v>69.02649235057063</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.82629550629201</v>
+        <v>55.82629550629211</v>
       </c>
     </row>
     <row r="176">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.07899903519602</v>
+        <v>80.07899903519608</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.50940328940315</v>
+        <v>16.50940328940297</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>53.29647004284496</v>
+        <v>53.29647004284489</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.21155532505269</v>
+        <v>71.2115553250527</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>11.83617326535183</v>
+        <v>11.83617326535186</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.46431484826373</v>
+        <v>19.4643148482638</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.65447998980403</v>
+        <v>28.65447998980401</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7.715767657868778</v>
+        <v>7.715767657868849</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.21820033982005</v>
+        <v>25.21820033982014</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.01225264423746</v>
+        <v>29.01225264423748</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.736710904407</v>
+        <v>10.73671090440703</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>42.97520306964464</v>
+        <v>42.97520306964471</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>45.9430340797235</v>
+        <v>45.94303407972348</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.69848694389505</v>
+        <v>21.69848694389498</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.14751884089654</v>
+        <v>28.14751884089651</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.20678373262403</v>
+        <v>29.20678373262394</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.24671626804308</v>
+        <v>19.2467162680431</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.16266708796848</v>
+        <v>18.16266708796844</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.25178049391221</v>
+        <v>33.25178049391225</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.17603589139817</v>
+        <v>15.17603589139819</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.36872106884485</v>
+        <v>27.36872106884495</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.2100472170155</v>
+        <v>28.21004721701555</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8.079287753841044</v>
+        <v>8.079287753841069</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.11643233448793</v>
+        <v>18.11643233448807</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.69774164378647</v>
+        <v>20.69774164378648</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>8.383914818939743</v>
+        <v>8.383914818939683</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.28245993656932</v>
+        <v>29.28245993656937</v>
       </c>
     </row>
     <row r="204">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.34888786551101</v>
+        <v>30.34888786551095</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.94394737361555</v>
+        <v>33.94394737361553</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>7.740223247832933</v>
+        <v>7.740223247833015</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>37.0892742261685</v>
+        <v>37.08927422616843</v>
       </c>
     </row>
     <row r="209">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11.04391536574039</v>
+        <v>11.04391536574035</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>53.54400707794884</v>
+        <v>53.54400707794886</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.9351224175386</v>
+        <v>51.93512241753863</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.77941313157537</v>
+        <v>45.77941313157528</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.95532451149392</v>
+        <v>52.95532451149401</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.21983005549036</v>
+        <v>52.21983005549044</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.30219209516316</v>
+        <v>22.30219209516321</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.41459914768614</v>
+        <v>36.41459914768609</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.48391757619694</v>
+        <v>40.48391757619682</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.70490833555555</v>
+        <v>22.70490833555554</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.60822468962112</v>
+        <v>34.60822468962115</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.45681624708435</v>
+        <v>33.45681624708441</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>8.791811508656316</v>
+        <v>8.791811508656473</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.07067283703918</v>
+        <v>34.07067283703922</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.5178489928557</v>
+        <v>33.51784899285571</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9.461388060264376</v>
+        <v>9.461388060264415</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>49.8413698549325</v>
+        <v>49.84136985493262</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.662994101653108</v>
+        <v>9.662994101653094</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.84205620849</v>
+        <v>23.84205620848997</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.02204531049328</v>
+        <v>30.02204531049324</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.588936322096806</v>
+        <v>6.588936322096764</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.82364808441281</v>
+        <v>34.82364808441278</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.59321813191072</v>
+        <v>37.59321813191069</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.829502085009011</v>
+        <v>9.829502085009008</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.00576822597074</v>
+        <v>51.00576822597077</v>
       </c>
     </row>
     <row r="235">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.41802623851434</v>
+        <v>51.4180262385143</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>55.64693304488252</v>
+        <v>55.64693304488253</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.17898693923993</v>
+        <v>56.17898693923986</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>12.09443140885492</v>
+        <v>12.09443140885497</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.22728882168709</v>
+        <v>26.22728882168708</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.90200457102098</v>
+        <v>31.90200457102102</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.65180700939544</v>
+        <v>17.65180700939547</v>
       </c>
     </row>
     <row r="243">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.27524446762148</v>
+        <v>32.27524446762153</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.161493347776752</v>
+        <v>8.161493347776833</v>
       </c>
     </row>
     <row r="246">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.41339394765028</v>
+        <v>32.4133939476503</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>9.309539255920356</v>
+        <v>9.309539255920292</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>45.39359206035681</v>
+        <v>45.39359206035688</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>7.452443088518397</v>
+        <v>7.452443088518347</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.25209267908527</v>
+        <v>22.25209267908532</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.14700684785531</v>
+        <v>30.14700684785535</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.063483703634475</v>
+        <v>7.063483703634468</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.59714416451654</v>
+        <v>36.59714416451662</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>40.0956853968847</v>
+        <v>40.09568539688468</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>7.423958007642728</v>
+        <v>7.423958007642781</v>
       </c>
     </row>
     <row r="257">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.77536640730884</v>
+        <v>52.77536640730882</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.26571530028664</v>
+        <v>46.26571530028666</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>52.72119068067803</v>
+        <v>52.72119068067808</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>53.98083676694861</v>
+        <v>53.98083676694874</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.2771970252981</v>
+        <v>10.27719702529812</v>
       </c>
     </row>
     <row r="263">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.46374194576197</v>
+        <v>36.46374194576195</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.86144623324348</v>
+        <v>14.86144623324352</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.45339163714893</v>
+        <v>30.45339163714889</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.40982813961195</v>
+        <v>31.409828139612</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>8.229785395957698</v>
+        <v>8.229785395957776</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.21661980083899</v>
+        <v>29.21661980083906</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.20487597210817</v>
+        <v>32.20487597210813</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>7.727113668463378</v>
+        <v>7.727113668463385</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>41.50638833507929</v>
+        <v>41.50638833507947</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.60102391864335</v>
+        <v>29.60102391864331</v>
       </c>
     </row>
     <row r="274">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.63354132515929</v>
+        <v>39.63354132515927</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.78707084292626</v>
+        <v>41.78707084292625</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.56159314309458</v>
+        <v>15.56159314309457</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.15491204170115</v>
+        <v>27.15491204170124</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.72596161813224</v>
+        <v>31.72596161813233</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.20179693406536</v>
+        <v>18.20179693406532</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.42374702118111</v>
+        <v>28.42374702118106</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.84354187663537</v>
+        <v>35.84354187663538</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.037558219264923</v>
+        <v>8.037558219264994</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.92076526556434</v>
+        <v>16.92076526556442</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.80344060492178</v>
+        <v>22.80344060492185</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.929159661113012</v>
+        <v>8.929159661113022</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.05825067027318</v>
+        <v>31.05825067027321</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.77969548739006</v>
+        <v>47.77969548739008</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.32080505938183</v>
+        <v>28.32080505938176</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>47.10825784684167</v>
+        <v>47.10825784684172</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.90879613618853</v>
+        <v>49.9087961361886</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.13456503541558</v>
+        <v>16.13456503541562</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.18202104109979</v>
+        <v>28.18202104109983</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.89433618671632</v>
+        <v>38.89433618671625</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.9084291363313</v>
+        <v>51.90842913633131</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>50.85708646449608</v>
+        <v>50.85708646449596</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>57.49043724992408</v>
+        <v>57.490437249924</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>57.2420358471503</v>
+        <v>57.24203584715026</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.11014669306088</v>
+        <v>27.11014669306093</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>53.6878238281753</v>
+        <v>53.68782382817526</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.25794760971625</v>
+        <v>52.25794760971627</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.81349181263048</v>
+        <v>24.81349181263045</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>9.1694418578696</v>
+        <v>9.169441857869668</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.86895896056394</v>
+        <v>40.86895896056392</v>
       </c>
     </row>
     <row r="305">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.49549407205187</v>
+        <v>10.49549407205184</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>59.03245110553351</v>
+        <v>59.03245110553343</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>62.02433069715327</v>
+        <v>62.02433069715329</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>61.71612321046075</v>
+        <v>61.71612321046069</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>68.00158647042871</v>
+        <v>68.00158647042876</v>
       </c>
     </row>
     <row r="311">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.09674270302531</v>
+        <v>32.09674270302521</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>65.15857393018526</v>
+        <v>65.15857393018528</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>65.65417851179424</v>
+        <v>65.65417851179426</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.64905075780727</v>
+        <v>52.64905075780713</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>47.79806291415162</v>
+        <v>47.79806291415166</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>52.88257419832134</v>
+        <v>52.88257419832124</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>56.32283264496449</v>
+        <v>56.32283264496441</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>21.9132602809587</v>
+        <v>21.91326028095871</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>49.63978361532453</v>
+        <v>49.63978361532454</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.34780426517436</v>
+        <v>49.34780426517437</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.81678484129635</v>
+        <v>17.81678484129644</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.74382703057572</v>
+        <v>32.7438270305757</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.75162181705173</v>
+        <v>37.75162181705169</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>8.187356668775038</v>
+        <v>8.187356668775099</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.22394380603897</v>
+        <v>37.22394380603898</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.19856209207901</v>
+        <v>39.19856209207899</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.4856980410448</v>
+        <v>10.48569804104476</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.95068491504878</v>
+        <v>54.95068491504882</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>62.79875222158047</v>
+        <v>62.79875222158036</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>60.48834514447134</v>
+        <v>60.4883451444713</v>
       </c>
     </row>
     <row r="332">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.921125273741</v>
+        <v>70.92112527374093</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.77468571630553</v>
+        <v>23.77468571630558</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>63.07365991174002</v>
+        <v>63.07365991174004</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>65.3647486596106</v>
+        <v>65.36474865961057</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>49.52683715953971</v>
+        <v>49.52683715953983</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.64103844013667</v>
+        <v>34.64103844013674</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.31627018554163</v>
+        <v>40.31627018554168</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.69907290768436</v>
+        <v>43.69907290768422</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18.18109423788092</v>
+        <v>18.1810942378809</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.24743383307906</v>
+        <v>46.24743383307911</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.06865659210577</v>
+        <v>49.06865659210586</v>
       </c>
     </row>
     <row r="344">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.42027997517288</v>
+        <v>34.42027997517283</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.53326331186686</v>
+        <v>41.53326331186687</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.858172367678431</v>
+        <v>8.858172367678403</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.71347139266174</v>
+        <v>36.71347139266177</v>
       </c>
     </row>
     <row r="349">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>8.463137716266047</v>
+        <v>8.463137716266015</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>52.36721768692901</v>
+        <v>52.36721768692898</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>63.56650900847225</v>
+        <v>63.56650900847235</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>55.49136292033208</v>
+        <v>55.49136292033222</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.10358255979359</v>
+        <v>66.10358255979358</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>70.73954310685828</v>
+        <v>70.73954310685826</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.96015664734189</v>
+        <v>20.9601566473419</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>60.78391218871467</v>
+        <v>60.78391218871454</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>68.04471682534495</v>
+        <v>68.04471682534499</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.15930732176829</v>
+        <v>13.15930732176833</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.06246562643825</v>
+        <v>22.06246562643824</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.83333252751302</v>
+        <v>28.83333252751309</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3.719219278553261</v>
+        <v>3.719219278553233</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.87982434664563</v>
+        <v>15.87982434664566</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.01233829944249</v>
+        <v>20.0123382994424</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.030244016995464</v>
+        <v>5.030244016995514</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.44837237248721</v>
+        <v>41.44837237248733</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.97078330928363</v>
+        <v>44.9707833092835</v>
       </c>
     </row>
     <row r="368">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.07800239959993</v>
+        <v>27.07800239959995</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.08235856683389</v>
+        <v>27.08235856683388</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.4234493608734</v>
+        <v>12.42344936087342</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.21022527660351</v>
+        <v>16.21022527660354</v>
       </c>
     </row>
     <row r="373">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.40769569249506</v>
+        <v>17.40769569249501</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.31736534406323</v>
+        <v>29.31736534406325</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.74129057334182</v>
+        <v>30.74129057334178</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.732408500676886</v>
+        <v>4.732408500676932</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>14.79495412092499</v>
+        <v>14.79495412092503</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.68234641522776</v>
+        <v>18.6823464152278</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.380864342841956</v>
+        <v>5.380864342841885</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.51250000899103</v>
+        <v>30.51250000899099</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.08381204925843</v>
+        <v>21.08381204925842</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.67939398315326</v>
+        <v>37.67939398315325</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.6354809875932</v>
+        <v>36.63548098759313</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>4.730598454331393</v>
+        <v>4.730598454331389</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.21543941455588</v>
+        <v>36.21543941455583</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.33335078323988</v>
+        <v>38.33335078323985</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.655622756571955</v>
+        <v>5.655622756571983</v>
       </c>
     </row>
     <row r="389">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>53.04814816595714</v>
+        <v>53.04814816595719</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>46.55633650049458</v>
+        <v>46.5563365004945</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.86294565296237</v>
+        <v>55.86294565296235</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.03745789079101</v>
+        <v>56.03745789079094</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.05219379773719</v>
+        <v>18.0521937977372</v>
       </c>
     </row>
     <row r="395">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.47042235474913</v>
+        <v>42.47042235474909</v>
       </c>
     </row>
     <row r="397">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.47232787523585</v>
+        <v>36.47232787523578</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.403519345068769</v>
+        <v>5.40351934506873</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.5578938970841</v>
+        <v>33.55789389708404</v>
       </c>
     </row>
     <row r="402">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5.672838101926885</v>
+        <v>5.672838101926907</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>54.12735763335782</v>
+        <v>54.12735763335786</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>8.759975320632378</v>
+        <v>8.759975320632382</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.85297293401118</v>
+        <v>28.85297293401123</v>
       </c>
     </row>
     <row r="407">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.11203746526845</v>
+        <v>3.112037465268479</v>
       </c>
     </row>
     <row r="409">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.97206964028069</v>
+        <v>36.97206964028064</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.737142226025444</v>
+        <v>4.737142226025405</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>53.63812475387774</v>
+        <v>53.63812475387772</v>
       </c>
     </row>
     <row r="413">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>50.54923858579335</v>
+        <v>50.54923858579333</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>56.29943277826786</v>
+        <v>56.29943277826791</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.78726506387705</v>
+        <v>56.78726506387709</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>4.274710480260783</v>
+        <v>4.274710480260765</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.4263906947718</v>
+        <v>30.42639069477182</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.1043073959936</v>
+        <v>28.10430739599345</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.00596905531011</v>
+        <v>17.00596905531012</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.23545311850084</v>
+        <v>34.23545311850079</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.22402815001703</v>
+        <v>35.22402815001691</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>5.125215408002383</v>
+        <v>5.125215408002369</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.41505399358262</v>
+        <v>30.41505399358261</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.07976107283873</v>
+        <v>34.07976107283878</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.937589868075314</v>
+        <v>4.937589868075289</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>48.97886278552826</v>
+        <v>48.97886278552825</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>7.454189455994566</v>
+        <v>7.454189455994559</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.06723872346792</v>
+        <v>28.06723872346786</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.85170638957924</v>
+        <v>32.85170638957918</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.706465805588522</v>
+        <v>4.706465805588476</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.92196767096731</v>
+        <v>36.92196767096733</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>43.7333804182313</v>
+        <v>43.73338041823126</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.403163949084288</v>
+        <v>4.403163949084409</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>56.50272429070579</v>
+        <v>56.50272429070566</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>57.11967555694035</v>
+        <v>57.11967555694041</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>48.32556069343407</v>
+        <v>48.32556069343399</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>55.76981697967388</v>
+        <v>55.76981697967376</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>57.3351425561173</v>
+        <v>57.33514255611735</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.348828088471215</v>
+        <v>7.348828088471272</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.82760457795552</v>
+        <v>36.82760457795556</v>
       </c>
     </row>
     <row r="442">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.88150710358708</v>
+        <v>12.88150710358714</v>
       </c>
     </row>
     <row r="444">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.10358718007554</v>
+        <v>34.10358718007561</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.413425342990003</v>
+        <v>5.413425342990006</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.35584247574835</v>
+        <v>30.3558424757484</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.46091150422979</v>
+        <v>35.46091150422994</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>4.72430934728601</v>
+        <v>4.724309347285985</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>45.95379132511</v>
+        <v>45.95379132511011</v>
       </c>
     </row>
     <row r="451">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.42238209139914</v>
+        <v>26.42238209139923</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.92832258488247</v>
+        <v>40.92832258488253</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>43.85659087744893</v>
+        <v>43.85659087744892</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.87578263206152</v>
+        <v>12.87578263206156</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.28439536535623</v>
+        <v>24.28439536535621</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.3206834391253</v>
+        <v>31.32068343912533</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.62921897386695</v>
+        <v>17.62921897386702</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.36147891098711</v>
+        <v>31.36147891098704</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.49508974991882</v>
+        <v>36.49508974991878</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.7462144843666</v>
+        <v>4.746214484366583</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.97995232762534</v>
+        <v>14.97995232762528</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.95489955468735</v>
+        <v>22.95489955468732</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.842924156354822</v>
+        <v>5.84292415635484</v>
       </c>
     </row>
     <row r="465">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.528040874151</v>
+        <v>51.52804087415085</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.41375522681661</v>
+        <v>30.41375522681666</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>47.00910638550963</v>
+        <v>47.00910638550947</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>53.78576602511595</v>
+        <v>53.78576602511582</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.63831795682677</v>
+        <v>13.63831795682668</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.98580098094849</v>
+        <v>28.98580098094843</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.81557080783796</v>
+        <v>40.81557080783806</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.25937219184361</v>
+        <v>58.25937219184351</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>56.85817626013022</v>
+        <v>56.85817626013024</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>65.78044813913472</v>
+        <v>65.78044813913479</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.46871628787093</v>
+        <v>64.468716287871</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.09244192694438</v>
+        <v>24.09244192694448</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>57.91429721692927</v>
+        <v>57.91429721692936</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.10153443947084</v>
+        <v>60.10153443947095</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.69543441937969</v>
+        <v>27.69543441937981</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>43.09405303267786</v>
+        <v>43.09405303267785</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.75651943910167</v>
+        <v>41.75651943910155</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>6.134790310212619</v>
+        <v>6.134790310212601</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.24323916089884</v>
+        <v>41.24323916089877</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.62431559268013</v>
+        <v>40.62431559268024</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>7.39130084930553</v>
+        <v>7.391300849305647</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>64.01787701192823</v>
+        <v>64.01787701192829</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>64.72964098311355</v>
+        <v>64.72964098311364</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>69.62201199711969</v>
+        <v>69.62201199711966</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>75.68185559482244</v>
+        <v>75.68185559482239</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>78.26537667747662</v>
+        <v>78.26537667747667</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.61478878613813</v>
+        <v>32.61478878613809</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>71.03119246402878</v>
+        <v>71.03119246402882</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>71.03781327271987</v>
+        <v>71.03781327271986</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>57.1676513600345</v>
+        <v>57.16765136003449</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.98300815043599</v>
+        <v>51.98300815043586</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>58.99328975554542</v>
+        <v>58.99328975554539</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.91812806329546</v>
+        <v>62.91812806329553</v>
       </c>
     </row>
     <row r="499">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>53.45021121350885</v>
+        <v>53.45021121350878</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>55.1439342615742</v>
+        <v>55.14393426157421</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.9580112556418</v>
+        <v>19.95801125564174</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>39.71122561824482</v>
+        <v>39.71122561824485</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.53296699971396</v>
+        <v>39.53296699971402</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.396560517914384</v>
+        <v>4.396560517914367</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.7674655385087</v>
+        <v>36.76746553850864</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.2858264816732</v>
+        <v>38.28582648167328</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.404826935213372</v>
+        <v>6.404826935213425</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>59.04504158109238</v>
+        <v>59.04504158109235</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>64.561385866705</v>
+        <v>64.56138586670494</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>65.72975944495968</v>
+        <v>65.7297594449597</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>73.11103399449925</v>
+        <v>73.11103399449924</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>78.67281592025654</v>
+        <v>78.67281592025647</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.05018327167443</v>
+        <v>23.05018327167445</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>67.31678558452303</v>
+        <v>67.31678558452293</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>67.78931632237213</v>
+        <v>67.78931632237206</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>56.95690920922514</v>
+        <v>56.95690920922517</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.23792007008062</v>
+        <v>36.23792007008057</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.88895535514127</v>
+        <v>43.88895535514125</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>49.73227049906327</v>
+        <v>49.73227049906312</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>13.83465639264508</v>
+        <v>13.83465639264513</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>51.34749506415693</v>
+        <v>51.3474950641568</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>55.36788742188456</v>
+        <v>55.36788742188461</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.80502808700453</v>
+        <v>16.80502808700454</v>
       </c>
     </row>
     <row r="525">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.63178723792793</v>
+        <v>42.63178723792797</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.598240770012527</v>
+        <v>5.598240770012556</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.77416132699165</v>
+        <v>39.77416132699169</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.0388574311933</v>
+        <v>45.03885743119338</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.831033005371214</v>
+        <v>5.831033005371136</v>
       </c>
     </row>
     <row r="531">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>66.74305083007731</v>
+        <v>66.74305083007722</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>60.43404364322762</v>
+        <v>60.43404364322757</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>68.04175118283931</v>
+        <v>68.04175118283922</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>77.3324382662595</v>
+        <v>77.33243826625954</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>18.87749113242852</v>
+        <v>18.87749113242855</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>67.80717410000349</v>
+        <v>67.80717410000341</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>72.65409491213249</v>
+        <v>72.65409491213254</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.58709020455579</v>
+        <v>11.58709020455573</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.85096373546714</v>
+        <v>16.8509637354672</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.03092087484661</v>
+        <v>23.03092087484664</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.934023977649378</v>
+        <v>1.934023977649399</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.29834191406455</v>
+        <v>12.29834191406461</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.47634576921709</v>
+        <v>14.4763457692171</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.165355894659641</v>
+        <v>4.165355894659644</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.84018415861983</v>
+        <v>28.84018415861988</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>32.26572735959743</v>
+        <v>32.26572735959755</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.31028790057859</v>
+        <v>15.31028790057861</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.07825142811569</v>
+        <v>19.07825142811568</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.9481975668394</v>
+        <v>19.94819756683938</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.14087870055007</v>
+        <v>11.14087870055013</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.26694193693232</v>
+        <v>15.26694193693238</v>
       </c>
     </row>
     <row r="553">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.153259176541471</v>
+        <v>9.153259176541415</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.57328827090841</v>
+        <v>20.57328827090842</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.24550495647729</v>
+        <v>23.24550495647732</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.7624974148280117</v>
+        <v>0.7624974148280934</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>6.411640294684609</v>
+        <v>6.411640294684602</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.06170005380968</v>
+        <v>10.06170005380971</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.516587792400255</v>
+        <v>2.51658779240028</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.38983124638023</v>
+        <v>18.38983124638029</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.82135420741225</v>
+        <v>13.82135420741228</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.01876987372249</v>
+        <v>24.01876987372253</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.04155839391211</v>
+        <v>25.04155839391209</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.589628797705085</v>
+        <v>1.589628797705135</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.69849315001472</v>
+        <v>23.69849315001468</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.73232057947495</v>
+        <v>24.73232057947489</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.84430404164803</v>
+        <v>4.844304041647995</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.22154452594293</v>
+        <v>38.22154452594292</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.5134134409801</v>
+        <v>37.51341344098014</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.54039185705851</v>
+        <v>35.54039185705844</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>41.10012806282287</v>
+        <v>41.10012806282285</v>
       </c>
     </row>
     <row r="573">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.03343461746714</v>
+        <v>17.0334346174671</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>40.88451579248546</v>
+        <v>40.88451579248544</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.17992153413652</v>
+        <v>43.17992153413657</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.96256397098654</v>
+        <v>11.96256397098653</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.69691002802432</v>
+        <v>24.69691002802437</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.72126629034358</v>
+        <v>26.72126629034357</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.6840540334908383</v>
+        <v>0.6840540334908454</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.45526552418711</v>
+        <v>21.45526552418712</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.99266696298866</v>
+        <v>23.99266696298874</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.420840840845809</v>
+        <v>2.42084084084582</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>37.27714716258848</v>
+        <v>37.27714716258853</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>6.220704815135022</v>
+        <v>6.220704815135072</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.61418793762952</v>
+        <v>18.61418793762945</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.6650223340177</v>
+        <v>22.66502233401762</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>1.421548981440754</v>
+        <v>1.421548981440719</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.5846719679164</v>
+        <v>22.58467196791637</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.30642472521962</v>
+        <v>24.30642472521975</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.761097933088159</v>
+        <v>6.761097933088315</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.27772367675066</v>
+        <v>38.27772367675072</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>39.39357852282156</v>
+        <v>39.39357852282155</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.00627605799603</v>
+        <v>39.006276057996</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.38453782528497</v>
+        <v>41.38453782528491</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.2525519453331</v>
+        <v>46.25255194533305</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>6.529463317984053</v>
+        <v>6.529463317984025</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.74660503335495</v>
+        <v>29.74660503335478</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.89887837539947</v>
+        <v>32.89887837539939</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.67178208227967</v>
+        <v>7.671782082279623</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.6144958254564</v>
+        <v>22.61449582545638</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.77459904537319</v>
+        <v>26.77459904537316</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>0.6659363248859513</v>
+        <v>0.6659363248859194</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.66875089292455</v>
+        <v>16.66875089292448</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.11860503607826</v>
+        <v>25.11860503607834</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.675592104288892</v>
+        <v>3.675592104288803</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.0241599035589</v>
+        <v>32.02415990355894</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.659335260397935</v>
+        <v>4.659335260397974</v>
       </c>
     </row>
     <row r="609">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.65054683793945</v>
+        <v>21.65054683793938</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0.8532150044786242</v>
+        <v>0.8532150044786526</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.61156625586736</v>
+        <v>21.61156625586738</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.70195156780292</v>
+        <v>27.70195156780297</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.480004457596916</v>
+        <v>1.480004457596912</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.64560818349761</v>
+        <v>33.64560818349764</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.27177401930983</v>
+        <v>39.27177401930977</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.78610757568968</v>
+        <v>31.78610757568969</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.26919912810833</v>
+        <v>36.2691991281083</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.35050779105836</v>
+        <v>41.35050779105833</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.931016522955499</v>
+        <v>4.931016522955399</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.77970567756267</v>
+        <v>27.77970567756262</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.86830680067575</v>
+        <v>35.8683068006757</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.388376521529977</v>
+        <v>4.388376521529967</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.51305911889268</v>
+        <v>19.51305911889269</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.90093575360268</v>
+        <v>24.90093575360266</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.3611912222760552</v>
+        <v>0.3611912222760978</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.95146517418063</v>
+        <v>15.9514651741806</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.818841364719</v>
+        <v>24.81884136471884</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.224601502474666</v>
+        <v>1.22460150247467</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.7903407290789</v>
+        <v>26.79034072907886</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.44701769260784</v>
+        <v>19.44701769260792</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.09758181705783</v>
+        <v>15.09758181705788</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.88940358847698</v>
+        <v>25.88940358847699</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.17254464441835</v>
+        <v>28.17254464441828</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.92465960717022</v>
+        <v>5.924659607170181</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.0010488659128</v>
+        <v>13.00104886591276</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>18.82466646246837</v>
+        <v>18.82466646246839</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.54110884050578</v>
+        <v>14.54110884050568</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.596968503244</v>
+        <v>25.59696850324404</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.87659141754293</v>
+        <v>31.87659141754296</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>0.08926015430616019</v>
+        <v>0.08926015430621703</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.341403520299377</v>
+        <v>7.341403520299309</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>14.8728152161996</v>
+        <v>14.87281521619967</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3.667686007761962</v>
+        <v>3.667686007761954</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.26038062921847</v>
+        <v>24.26038062921844</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.92989112235293</v>
+        <v>39.92989112235294</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.91672504615374</v>
+        <v>21.91672504615379</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.16770780265497</v>
+        <v>34.16770780265507</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.08065429203181</v>
+        <v>40.08065429203173</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.987503482749396</v>
+        <v>6.987503482749425</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.82965195131573</v>
+        <v>19.8296519513157</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.10781290691322</v>
+        <v>30.10781290691327</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.02759200936492</v>
+        <v>42.02759200936482</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.9385390415681</v>
+        <v>38.93853904156813</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>46.93491293892218</v>
+        <v>46.93491293892211</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.30455202826496</v>
+        <v>45.30455202826507</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>13.31349893087153</v>
+        <v>13.3134989308716</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.54749912044836</v>
+        <v>41.54749912044835</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.51717193485504</v>
+        <v>44.51717193485489</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.13888232538531</v>
+        <v>23.13888232538538</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.60985278186142</v>
+        <v>35.60985278186141</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.07407767826342</v>
+        <v>38.07407767826341</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>2.282754558813718</v>
+        <v>2.282754558813632</v>
       </c>
     </row>
     <row r="664">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.28468842906286</v>
+        <v>35.2846884290629</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>8.945439818794529</v>
+        <v>8.94543981879443</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.87609705116104</v>
+        <v>56.87609705116114</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>56.51033837526438</v>
+        <v>56.51033837526437</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>65.75591276157601</v>
+        <v>65.75591276157604</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>69.46865461444321</v>
+        <v>69.46865461444328</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.73258628878946</v>
+        <v>70.73258628878941</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.57612357167847</v>
+        <v>30.57612357167839</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>62.70511471556941</v>
+        <v>62.70511471556934</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.30224465226704</v>
+        <v>65.30224465226705</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>43.05172453148444</v>
+        <v>43.05172453148434</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.57520005099308</v>
+        <v>32.57520005099313</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.79856446675139</v>
+        <v>39.79856446675144</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.37974085538843</v>
+        <v>44.37974085538841</v>
       </c>
     </row>
     <row r="679">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.05802382428261</v>
+        <v>38.05802382428259</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.99502660505432</v>
+        <v>41.99502660505433</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.12171484039606</v>
+        <v>16.1217148403961</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.66785787977565</v>
+        <v>32.66785787977566</v>
       </c>
     </row>
     <row r="684">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1.009008549123052</v>
+        <v>1.009008549123177</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.17046541568217</v>
+        <v>30.17046541568224</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.66008037883665</v>
+        <v>34.6600803788367</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>8.943882637801526</v>
+        <v>8.943882637801455</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>53.25609120183313</v>
+        <v>53.25609120183322</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>59.1959418452477</v>
+        <v>59.1959418452478</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.22463164130902</v>
+        <v>62.22463164130906</v>
       </c>
     </row>
     <row r="692">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.10286897685026</v>
+        <v>73.1028689768503</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.36267754785422</v>
+        <v>21.36267754785426</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>60.6377218960242</v>
+        <v>60.63772189602417</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>65.74024395981783</v>
+        <v>65.74024395981772</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.35179960346269</v>
+        <v>41.35179960346267</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.576301544373</v>
+        <v>19.57630154437305</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.94169895983746</v>
+        <v>25.94169895983739</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.53850127243274</v>
+        <v>32.53850127243277</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>4.054483278763019</v>
+        <v>4.054483278763012</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.03031299449417</v>
+        <v>34.03031299449431</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>41.13945454255753</v>
+        <v>41.13945454255731</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.37495536907137</v>
+        <v>12.37495536907141</v>
       </c>
     </row>
     <row r="705">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.56465366339146</v>
+        <v>38.56465366339147</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1.252923901007808</v>
+        <v>1.252923901007801</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.59261419386797</v>
+        <v>30.59261419386792</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.49264920869695</v>
+        <v>38.49264920869702</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>4.368410254165067</v>
+        <v>4.368410254165052</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.09071972545613</v>
+        <v>49.09071972545603</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>59.92877436678059</v>
+        <v>59.9287743667805</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.78959609364011</v>
+        <v>52.78959609364003</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.41418953118637</v>
+        <v>60.41418953118638</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.77467032196871</v>
+        <v>68.7746703219687</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>11.42877915719482</v>
+        <v>11.42877915719491</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.53887937779674</v>
+        <v>55.53887937779663</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.52410301507267</v>
+        <v>66.52410301507277</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.27318318171669</v>
+        <v>10.27318318171663</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.89109806136253</v>
+        <v>16.89109806136245</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.69833763515629</v>
+        <v>26.69833763515612</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.442912225350995</v>
+        <v>2.442912225351098</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.23382214216818</v>
+        <v>17.23382214216822</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.69655060597868</v>
+        <v>19.69655060597875</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.944934455333115</v>
+        <v>7.944934455333097</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.49859846570635</v>
+        <v>34.49859846570629</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.69174031277199</v>
+        <v>37.69174031277193</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.04159540863692</v>
+        <v>16.04159540863696</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.89342091535654</v>
+        <v>22.89342091535658</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.53468916933598</v>
+        <v>26.53468916933603</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>13.623064577112</v>
+        <v>13.62306457711195</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.17282710404899</v>
+        <v>14.17282710404901</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.27662273616773</v>
+        <v>28.27662273616775</v>
       </c>
     </row>
     <row r="734">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.88833077372248</v>
+        <v>29.88833077372249</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.86139935502221</v>
+        <v>36.86139935502217</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1.920116266997695</v>
+        <v>1.920116266997727</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.88521714738585</v>
+        <v>10.88521714738578</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.14132734709515</v>
+        <v>15.1413273470951</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.781805232193275</v>
+        <v>1.781805232193392</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.73268103759704</v>
+        <v>23.73268103759689</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.88057042437557</v>
+        <v>17.88057042437568</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.5467123461395</v>
+        <v>28.5467123461396</v>
       </c>
     </row>
     <row r="744">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.899789096116741</v>
+        <v>1.899789096116759</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.88417615685093</v>
+        <v>32.88417615685056</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.38666156578754</v>
+        <v>37.3866615657876</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.793330842740108</v>
+        <v>6.793330842740122</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>50.50152866768791</v>
+        <v>50.50152866768796</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.55913914710362</v>
+        <v>48.55913914710355</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>47.41419287806769</v>
+        <v>47.41419287806774</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.52775470003061</v>
+        <v>55.52775470003057</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.96929375490246</v>
+        <v>54.96929375490238</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.19323277599192</v>
+        <v>19.19323277599188</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.88902321041328</v>
+        <v>40.88902321041335</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.53766759689087</v>
+        <v>45.53766759689071</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.01505895370425</v>
+        <v>20.01505895370422</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.02103552004028</v>
+        <v>41.02103552004047</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.75530815416246</v>
+        <v>43.75530815416231</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>3.946308458460766</v>
+        <v>3.946308458460965</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.2426892100783</v>
+        <v>35.24268921007837</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.91141013282871</v>
+        <v>42.91141013282869</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3.570616019488195</v>
+        <v>3.570616019488192</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>58.32822107866011</v>
+        <v>58.32822107866016</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.910471477263773</v>
+        <v>6.910471477263897</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.75806446264725</v>
+        <v>19.75806446264737</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.717406553169</v>
+        <v>25.71740655316901</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.005271701478712032</v>
+        <v>0.005271701478768875</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.28912523427328</v>
+        <v>29.2891252342733</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.31701838941385</v>
+        <v>33.31701838941399</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>4.208870551260031</v>
+        <v>4.208870551259967</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>45.92890371547107</v>
+        <v>45.92890371547101</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>49.59547074740182</v>
+        <v>49.59547074740176</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>50.20932084526174</v>
+        <v>50.20932084526198</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.56494435780699</v>
+        <v>54.56494435780685</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.76244529470222</v>
+        <v>56.76244529470206</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>9.263823125056589</v>
+        <v>9.263823125056657</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.14401289867685</v>
+        <v>30.1440128986767</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.4137227786135</v>
+        <v>35.41372277861328</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.54633955692702</v>
+        <v>10.54633955692704</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.93315943951127</v>
+        <v>32.93315943951139</v>
       </c>
     </row>
     <row r="782">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.04034335623906</v>
+        <v>2.04034335623907</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.4642280215892</v>
+        <v>26.46422802158932</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.94240428257468</v>
+        <v>41.94240428257459</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1.092634407516304</v>
+        <v>1.092634407516115</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>48.40329553267433</v>
+        <v>48.40329553267426</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.03746709165922</v>
+        <v>4.037467091659291</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.24819176176504</v>
+        <v>16.24819176176518</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.76559473925347</v>
+        <v>24.76559473925348</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.6519891120102876</v>
+        <v>0.6519891120102805</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.72233269847755</v>
+        <v>30.72233269847761</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.87999738759004</v>
+        <v>35.87999738759002</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.953175252563152</v>
+        <v>1.953175252563327</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>45.15173491599942</v>
+        <v>45.15173491599951</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>50.25457725895406</v>
+        <v>50.25457725895411</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.02202265494565</v>
+        <v>39.02202265494563</v>
       </c>
     </row>
     <row r="798">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.45382786424274</v>
+        <v>48.45382786424273</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.809087089810106</v>
+        <v>7.809087089810191</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.90722407635313</v>
+        <v>24.90722407635315</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.92265878226267</v>
+        <v>36.92265878226253</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.830791706348879</v>
+        <v>7.830791706348919</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.082651988004</v>
+        <v>30.08265198800396</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.99609123769721</v>
+        <v>40.99609123769709</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2.624197587311691</v>
+        <v>2.624197587311798</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.25317323361827</v>
+        <v>25.25317323361832</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.26980187662674</v>
+        <v>41.26980187662684</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-0.06623790988361122</v>
+        <v>-0.06623790988352951</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.05449795532515</v>
+        <v>41.05449795532516</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.23419285344586</v>
+        <v>30.23419285344599</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.10810786660885</v>
+        <v>24.10810786660892</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>49.01564031569362</v>
+        <v>49.01564031569359</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>57.40115862819322</v>
+        <v>57.40115862819331</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.333680543746883</v>
+        <v>6.333680543746947</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.11251534521124</v>
+        <v>19.11251534521134</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.15622383782427</v>
+        <v>30.1562238378243</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.13614915452121</v>
+        <v>14.13614915452122</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.77699730453855</v>
+        <v>29.77699730453864</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>41.09460546793606</v>
+        <v>41.09460546793608</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1.873225685737577</v>
+        <v>1.873225685737555</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>8.949455501752624</v>
+        <v>8.949455501752748</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.14957301982588</v>
+        <v>14.14957301982591</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.474931602106718</v>
+        <v>2.474931602106778</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.39184473857873</v>
+        <v>23.39184473857868</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.99386984817657</v>
+        <v>40.99386984817646</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.51231162572154</v>
+        <v>27.51231162572148</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>51.24663046199692</v>
+        <v>51.24663046199711</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>59.49936386560786</v>
+        <v>59.49936386560812</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>7.027350076783453</v>
+        <v>7.027350076783669</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.46119313259406</v>
+        <v>22.46119313259409</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.28707301849511</v>
+        <v>31.28707301849502</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70.87101530975951</v>
+        <v>70.87101530975963</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>61.39333982023739</v>
+        <v>61.39333982023744</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>77.4570612051531</v>
+        <v>77.45706120515321</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>82.14098609411894</v>
+        <v>82.14098609411896</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.94323986758253</v>
+        <v>22.94323986758269</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>71.54365782838607</v>
+        <v>71.54365782838606</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>80.45543633810563</v>
+        <v>80.45543633810567</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.6654369318237</v>
+        <v>26.66543693182368</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.79040895908983</v>
+        <v>46.7904089590898</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.73100580645422</v>
+        <v>50.73100580645414</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>4.95240413948369</v>
+        <v>4.952404139483701</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.80562156468731</v>
+        <v>45.80562156468723</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.26191031188144</v>
+        <v>52.26191031188155</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.388755451945986</v>
+        <v>8.388755451945979</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>75.89717108411492</v>
+        <v>75.89717108411512</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>79.35008640277567</v>
+        <v>79.35008640277564</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>84.94360772577413</v>
+        <v>84.94360772577403</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>93.25303795940944</v>
+        <v>93.25303795940967</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>96.71739743154846</v>
+        <v>96.71739743154841</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.06984711981617</v>
+        <v>34.06984711981604</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>92.53523046694454</v>
+        <v>92.53523046694458</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>93.98902659942256</v>
+        <v>93.9890265994226</v>
       </c>
     </row>
     <row r="855">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.06300643273404</v>
+        <v>50.06300643273406</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>62.88234965933381</v>
+        <v>62.88234965933383</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>79.09308623180746</v>
+        <v>79.0930862318074</v>
       </c>
     </row>
     <row r="859">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>64.51600414417081</v>
+        <v>64.51600414417098</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>76.16872176688372</v>
+        <v>76.16872176688379</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.84482682675966</v>
+        <v>12.84482682675967</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.29896209304436</v>
+        <v>38.29896209304452</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.93895789431174</v>
+        <v>45.93895789431183</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.674484905682814</v>
+        <v>2.674484905682995</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.44672708983327</v>
+        <v>41.44672708983334</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.40945469055792</v>
+        <v>52.40945469055794</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.071363304604841</v>
+        <v>4.071363304604766</v>
       </c>
     </row>
     <row r="869">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>80.82777038983215</v>
+        <v>80.82777038983218</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>78.96650393666907</v>
+        <v>78.96650393666904</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>89.14065922454112</v>
+        <v>89.14065922454114</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>95.05890388371255</v>
+        <v>95.05890388371257</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.31016758132218</v>
+        <v>20.3101675813222</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>85.33864025214653</v>
+        <v>85.33864025214636</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>92.75210376951834</v>
+        <v>92.75210376951841</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>69.58135853562143</v>
+        <v>69.5813585356216</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.52421202308037</v>
+        <v>32.52421202308044</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>45.29963562213423</v>
+        <v>45.29963562213418</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>63.33139628514604</v>
+        <v>63.33139628514613</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>8.860538169502124</v>
+        <v>8.860538169502181</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>56.56454781070545</v>
+        <v>56.56454781070548</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>71.81319674406586</v>
+        <v>71.81319674406576</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.27258265557826</v>
+        <v>11.27258265557819</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.75291342792942</v>
+        <v>38.75291342792922</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>51.52881361744454</v>
+        <v>51.52881361744447</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>4.017123599659485</v>
+        <v>4.017123599659275</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.23084642038515</v>
+        <v>39.23084642038525</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.26322749532906</v>
+        <v>55.26322749532926</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2.052212844198323</v>
+        <v>2.05221284419823</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>62.55585321510517</v>
+        <v>62.55585321510536</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>82.37288565396581</v>
+        <v>82.37288565396575</v>
       </c>
     </row>
     <row r="893">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>87.76312930374023</v>
+        <v>87.76312930374031</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>97.21261715286298</v>
+        <v>97.21261715286292</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.81831683068236</v>
+        <v>15.81831683068234</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>77.75377471793118</v>
+        <v>77.75377471793141</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>91.2998855808043</v>
+        <v>91.29988558080439</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.604</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.978</v>
+        <v>16.703</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.665</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.263</v>
+        <v>17.589</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.986</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.217</v>
+        <v>1.347</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.469423274027825</v>
+        <v>12.98238053567452</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.83469396975414</v>
+        <v>13.6204964710743</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.37909480781867</v>
+        <v>22.12386888151228</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.385960359290706</v>
+        <v>5.670638428687255</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.89295921833441</v>
+        <v>13.8704424670544</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.03124581964986</v>
+        <v>16.47167143497342</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.552814655762838</v>
+        <v>9.755114424905269</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.51631765771873</v>
+        <v>29.54558450395759</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.29255029810499</v>
+        <v>30.87928281882046</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.05810723650664</v>
+        <v>13.4135783235713</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.32892396777061</v>
+        <v>16.49408327270063</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.98973167235256</v>
+        <v>17.47614327446937</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.97909815536617</v>
+        <v>16.20106460118741</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.529925763130347</v>
+        <v>13.03360208293789</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.89899927651069</v>
+        <v>21.16929104698077</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.23689394394569</v>
+        <v>13.43257341317096</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.96577380791008</v>
+        <v>22.48545742646786</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.88640454798384</v>
+        <v>30.37965407658657</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.366697455412218</v>
+        <v>7.649262351515905</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.64413471390099</v>
+        <v>12.70249466439206</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.62893891697992</v>
+        <v>16.89679739197116</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.194850531083585</v>
+        <v>5.191051883443997</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.91591107589358</v>
+        <v>17.76612261519409</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.04268325787455</v>
+        <v>20.70533122729339</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.07391570934337</v>
+        <v>27.08564699363478</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.01894284968526</v>
+        <v>26.28332471983511</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.549220584104777</v>
+        <v>5.450144404946105</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.52331842174524</v>
+        <v>30.00077787900635</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.51980813351036</v>
+        <v>31.28643935189184</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.304577154442413</v>
+        <v>8.651286315619327</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.53158311262769</v>
+        <v>41.07019103936281</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.6571473301338</v>
+        <v>38.41388056035056</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.30075139994726</v>
+        <v>39.99678139242106</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.63278988902754</v>
+        <v>46.9412030405448</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.79102751017599</v>
+        <v>47.88764691173576</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.32491189696131</v>
+        <v>22.17504486374413</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.08643548398799</v>
+        <v>29.28239467199484</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.69477510748482</v>
+        <v>32.06289448533639</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.74366953745401</v>
+        <v>18.93281478587874</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.12839693955643</v>
+        <v>29.2187819203591</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.22288214861632</v>
+        <v>33.12665472559011</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.530169786289331</v>
+        <v>8.307126483715386</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.4970125423035</v>
+        <v>27.27866263361922</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.3761936281963</v>
+        <v>35.23333350354272</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40.50565777749853</v>
+        <v>42.83082669047231</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.788630011806521</v>
+        <v>11.41543287274585</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.14621515859882</v>
+        <v>22.78460744263774</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.42882117023638</v>
+        <v>26.49868332174034</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.963909038642694</v>
+        <v>4.161354404286278</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.07626122303957</v>
+        <v>28.45910278212981</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.68767056931696</v>
+        <v>32.64241314232213</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.943712716230365</v>
+        <v>9.491892841010269</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41.09525724176441</v>
+        <v>42.98987453995242</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.62961155428441</v>
+        <v>45.68012001297467</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.45418792868396</v>
+        <v>43.66762623503247</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.23922697895819</v>
+        <v>48.55543756546163</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.28286694984095</v>
+        <v>52.04744010797528</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.86366763069576</v>
+        <v>12.86454451688335</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.65632008136865</v>
+        <v>28.755367346087</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.67161271182023</v>
+        <v>32.46554931452287</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.29246376985198</v>
+        <v>14.10922222055053</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.41162308709733</v>
+        <v>28.42104456865345</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.86918481007501</v>
+        <v>33.47847313094788</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.064223522694611</v>
+        <v>7.907235673702026</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.62408329745768</v>
+        <v>24.46067123844871</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.70546339533433</v>
+        <v>36.19585273410517</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.827490430786341</v>
+        <v>6.818383376513793</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.43956025125324</v>
+        <v>38.26026301417217</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6.000620146952421</v>
+        <v>8.408322257304054</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16.78524238505986</v>
+        <v>18.90909288241719</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.39086650846933</v>
+        <v>23.93979000375824</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.864674086166822</v>
+        <v>4.412091641552465</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.17183850353996</v>
+        <v>27.82819355047423</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.91594992354855</v>
+        <v>32.86763615747956</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.767410147085677</v>
+        <v>5.45704482299411</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>37.57018801159001</v>
+        <v>39.16209337289713</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.1476596176274</v>
+        <v>43.11760561608383</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.26737146326473</v>
+        <v>35.86078587989151</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.9784748615204</v>
+        <v>39.43704880665543</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.57312611271627</v>
+        <v>44.92156658776238</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>9.38645485194694</v>
+        <v>10.11433919682483</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.96867879084127</v>
+        <v>21.15324319458029</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.00066777173652</v>
+        <v>32.44082502545331</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9.231660164216997</v>
+        <v>11.23309779678763</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.62009425428553</v>
+        <v>25.12973634411313</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.92615961231915</v>
+        <v>31.85778696886638</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.04158169546217</v>
+        <v>8.269270567508499</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.82809094659882</v>
+        <v>24.71784757135334</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33.91635690421727</v>
+        <v>35.3470303399878</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.377397203763049</v>
+        <v>4.178033733100158</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.8202302177841</v>
+        <v>35.37727375053537</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>18.67806831132291</v>
+        <v>21.50947294462051</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16.25311813528655</v>
+        <v>18.81020610769814</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.80268669834906</v>
+        <v>35.78514305684505</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.28785117381012</v>
+        <v>39.55012076909856</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.736204863017466</v>
+        <v>8.852962501319414</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.19011294172482</v>
+        <v>16.05260857943068</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>18.9378073614919</v>
+        <v>22.00920965361077</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.39563552734612</v>
+        <v>14.8285357005504</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.89839149024369</v>
+        <v>23.49109672871523</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.14308633357279</v>
+        <v>32.00766917079222</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5.966803095689933</v>
+        <v>7.412829612125236</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.826700166176735</v>
+        <v>11.19921371215864</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>11.22737034286165</v>
+        <v>14.83256181354692</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.781638455349697</v>
+        <v>5.689057183389959</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.2675166053396</v>
+        <v>18.26734443589266</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.2850177197429</v>
+        <v>31.51020977943616</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>18.34934101140304</v>
+        <v>21.01964299520611</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.30316136849605</v>
+        <v>39.69476713187868</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.29004169361843</v>
+        <v>44.49751682049789</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6.69979563969186</v>
+        <v>8.465040693027454</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.77537550590439</v>
+        <v>16.44712077706655</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.17625186683795</v>
+        <v>24.79646280141009</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.59396432865302</v>
+        <v>51.09128744468723</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.05949338070813</v>
+        <v>46.04379536656866</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.78738187516461</v>
+        <v>56.31077722344342</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.61916160773269</v>
+        <v>59.09136962888872</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.16651768516165</v>
+        <v>21.66483837894928</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>48.617971310004</v>
+        <v>52.1832530277956</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.88303021363417</v>
+        <v>55.03299799174202</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.77763863860986</v>
+        <v>26.39287804550304</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.39533620423012</v>
+        <v>36.01732223827351</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.55224978152669</v>
+        <v>41.69094217223087</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.76137192318032</v>
+        <v>9.598997976820016</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.32093414817523</v>
+        <v>35.5249187495096</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.09288684465952</v>
+        <v>42.02362656903459</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.745115422380483</v>
+        <v>9.968466516111587</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.70816915295244</v>
+        <v>56.96383049478008</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.08217890857881</v>
+        <v>63.45166138329385</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.54806692547292</v>
+        <v>66.24695560258428</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.8549142873044</v>
+        <v>74.61325355132756</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.53582697816599</v>
+        <v>79.31401730980778</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.88736620775137</v>
+        <v>33.76689100734657</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69.25111303639349</v>
+        <v>69.07951158898349</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.23810457732823</v>
+        <v>72.11300577265095</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>53.50940122227782</v>
+        <v>55.42827544749942</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.84616068769227</v>
+        <v>38.49674414684281</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.50221480714482</v>
+        <v>45.59600794935733</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>56.94098338633419</v>
+        <v>58.49623248235152</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.24216564900421</v>
+        <v>17.07046578404132</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>45.53240198040924</v>
+        <v>47.52321568478409</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.36251237379719</v>
+        <v>54.10202704260767</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.40677639612153</v>
+        <v>17.72946809086581</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.90108049151126</v>
+        <v>33.1768773260122</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.97309291006104</v>
+        <v>40.38768132705348</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6.777302456661616</v>
+        <v>8.291757909250819</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.99056126856676</v>
+        <v>33.85163744583286</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.02146776101992</v>
+        <v>43.5478661909427</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.873348248429441</v>
+        <v>9.739952181917108</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.19021904566878</v>
+        <v>54.23083455481771</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.6685584503964</v>
+        <v>67.37580486281949</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>66.55719884109587</v>
+        <v>64.09992853228758</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.44532064519395</v>
+        <v>70.87696304143589</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.66893689444024</v>
+        <v>79.43614115960332</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.46965451163103</v>
+        <v>23.7807511177479</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>62.91111352062396</v>
+        <v>60.66168391172894</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73.10715935534749</v>
+        <v>69.48370969247127</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>48.98719711367998</v>
+        <v>50.39721396002963</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.19419896673301</v>
+        <v>26.28531509260343</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.87405463679738</v>
+        <v>33.37374269813701</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.18940967119912</v>
+        <v>43.82653678990249</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>11.00892959591973</v>
+        <v>12.74997432927759</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.87052981507196</v>
+        <v>43.00377937275616</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.00901055357988</v>
+        <v>51.19590147171988</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.89840210056971</v>
+        <v>15.44645686102036</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.21201919841105</v>
+        <v>33.14216289631378</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.1775731964146</v>
+        <v>43.7292653033995</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.469554639886706</v>
+        <v>9.209662145298097</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.4587307231583</v>
+        <v>33.95385675629412</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.76530019224703</v>
+        <v>45.53182583284713</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.746801646774866</v>
+        <v>5.288474586377401</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>50.22549617128941</v>
+        <v>48.78254491013742</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>69.02649235057063</v>
+        <v>67.68310669360356</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.82629550629211</v>
+        <v>54.41036757848195</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>65.62909987071141</v>
+        <v>62.23651786864973</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.07899903519608</v>
+        <v>78.87847284459022</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.50940328940297</v>
+        <v>16.76433835754396</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>53.29647004284489</v>
+        <v>54.67315314175653</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.2115553250527</v>
+        <v>69.96048607122536</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>11.83617326535186</v>
+        <v>18.73172467149526</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.4643148482638</v>
+        <v>21.79770355554028</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.65447998980401</v>
+        <v>29.23175283943653</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7.715767657868849</v>
+        <v>14.25217805673584</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.21820033982014</v>
+        <v>24.55461181351079</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.01225264423748</v>
+        <v>26.48176555435511</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.73671090440703</v>
+        <v>16.44977185477939</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>42.97520306964471</v>
+        <v>37.65588227775579</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>45.94303407972348</v>
+        <v>39.44576196173983</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.69848694389498</v>
+        <v>23.45259067879092</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.14751884089651</v>
+        <v>25.26263768989519</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.20678373262394</v>
+        <v>26.3699287540658</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.2467162680431</v>
+        <v>23.85884246616089</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.16266708796844</v>
+        <v>24.18092813445016</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.25178049391225</v>
+        <v>34.08247465431415</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.17603589139819</v>
+        <v>18.80918023918246</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.36872106884495</v>
+        <v>27.91069151968281</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.21004721701555</v>
+        <v>29.96961971951242</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8.079287753841069</v>
+        <v>14.08904673627489</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.11643233448807</v>
+        <v>20.38233785107466</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.69774164378648</v>
+        <v>22.88669304849939</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>8.383914818939683</v>
+        <v>14.65275964365682</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.28245993656937</v>
+        <v>28.21984960391009</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>18.40691199239433</v>
+        <v>24.26352503496893</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.34888786551095</v>
+        <v>32.02319460455796</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.94394737361553</v>
+        <v>32.55344123910161</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>7.740223247833015</v>
+        <v>14.5063573692016</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>37.08927422616843</v>
+        <v>34.77100328466234</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>40.25843407816697</v>
+        <v>35.95952386643508</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11.04391536574035</v>
+        <v>16.65332263502609</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>53.54400707794886</v>
+        <v>46.09941886349989</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.93512241753863</v>
+        <v>44.05831534812265</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.77941313157528</v>
+        <v>41.21598660664399</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>52.95532451149401</v>
+        <v>45.63964643001822</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.21983005549044</v>
+        <v>45.40957023200816</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.30219209516321</v>
+        <v>27.26827049009613</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.41459914768609</v>
+        <v>37.50687055645964</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.48391757619682</v>
+        <v>39.27323310271861</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.70490833555554</v>
+        <v>24.39723232317736</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.60822468962115</v>
+        <v>33.10719008885039</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.45681624708441</v>
+        <v>33.09208594174722</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>8.791811508656473</v>
+        <v>14.64473519875224</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34.07067283703922</v>
+        <v>31.91747612974345</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.51784899285571</v>
+        <v>32.69326798018169</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>9.461388060264415</v>
+        <v>15.35537292410166</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>49.84136985493262</v>
+        <v>43.87622658349854</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.662994101653094</v>
+        <v>16.35593782610312</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.84205620848997</v>
+        <v>25.72679561045165</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.02204531049324</v>
+        <v>29.86409311990916</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.588936322096764</v>
+        <v>13.79845216282309</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.82364808441278</v>
+        <v>32.44231164976952</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.59321813191069</v>
+        <v>34.44636773488255</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>9.829502085009008</v>
+        <v>15.45174074063666</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.00576822597077</v>
+        <v>43.15887686163961</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>52.10466158423884</v>
+        <v>44.34467046201235</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.4180262385143</v>
+        <v>45.69481593254628</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>55.64693304488253</v>
+        <v>50.16891431393314</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.17898693923986</v>
+        <v>48.93616581199431</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>12.09443140885497</v>
+        <v>16.26448975762444</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.22728882168708</v>
+        <v>29.29081919044437</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.90200457102102</v>
+        <v>33.62139409594525</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.65180700939547</v>
+        <v>20.50086212219076</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.76822873516623</v>
+        <v>31.14746395103346</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.27524446762153</v>
+        <v>32.44580539139826</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8.161493347776833</v>
+        <v>14.36412761419798</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.16097364532666</v>
+        <v>29.24181379810309</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.4133939476503</v>
+        <v>32.71314156385295</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>9.309539255920292</v>
+        <v>15.45234617211709</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>45.39359206035688</v>
+        <v>40.11635450824751</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>7.452443088518347</v>
+        <v>15.03148281099064</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.25209267908532</v>
+        <v>24.37755727944085</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.14700684785535</v>
+        <v>29.69122714828047</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.063483703634468</v>
+        <v>14.02906842239767</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.59714416451662</v>
+        <v>32.07782615784205</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>40.09568539688468</v>
+        <v>35.97531455072281</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>7.423958007642781</v>
+        <v>14.49991793486481</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>50.69773818599031</v>
+        <v>42.44541062952504</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.77536640730882</v>
+        <v>44.43201188447991</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>46.26571530028666</v>
+        <v>42.13591670050581</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>52.72119068067808</v>
+        <v>45.3548390387154</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>53.98083676694874</v>
+        <v>47.71357700783347</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.27719702529812</v>
+        <v>15.63863028334708</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.31265342511757</v>
+        <v>26.69815476910749</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.46374194576195</v>
+        <v>34.45038720591694</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.86144623324352</v>
+        <v>18.55625298279155</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.45339163714889</v>
+        <v>29.33550802354366</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.409828139612</v>
+        <v>31.81152275105591</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>8.229785395957776</v>
+        <v>14.54337017232332</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.21661980083906</v>
+        <v>28.06495237216089</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.20487597210813</v>
+        <v>32.16449836341604</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>7.727113668463385</v>
+        <v>14.36653773261404</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>41.50638833507947</v>
+        <v>36.98138316569949</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.60102391864331</v>
+        <v>28.58721448241992</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.06879604844303</v>
+        <v>26.21768205703761</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.63354132515927</v>
+        <v>36.20994941284047</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.78707084292625</v>
+        <v>38.11928457996623</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.56159314309457</v>
+        <v>18.71521086943683</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.15491204170124</v>
+        <v>26.51093889985398</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.72596161813233</v>
+        <v>30.59608068788676</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.20179693406532</v>
+        <v>20.91794239759837</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.42374702118106</v>
+        <v>28.39958780807524</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.84354187663538</v>
+        <v>33.47928674203535</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.037558219264994</v>
+        <v>14.02620701284677</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.92076526556442</v>
+        <v>19.31403717842547</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.80344060492185</v>
+        <v>24.03265878532224</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>8.929159661113022</v>
+        <v>15.07019611670888</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.05825067027321</v>
+        <v>28.99401477483529</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.77969548739008</v>
+        <v>40.66415231535101</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.32080505938176</v>
+        <v>28.48820392530934</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>47.10825784684172</v>
+        <v>41.12213296483833</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.9087961361886</v>
+        <v>43.80198772762151</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.13456503541562</v>
+        <v>18.14495817323637</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.18202104109983</v>
+        <v>27.36931979434143</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>38.89433618671625</v>
+        <v>35.2626022782686</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.90842913633131</v>
+        <v>46.05762461205398</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>50.85708646449596</v>
+        <v>43.89127803143843</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>57.490437249924</v>
+        <v>49.02979835489235</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>57.24203584715026</v>
+        <v>49.82291734343997</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.11014669306093</v>
+        <v>26.1150130775679</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>53.68782382817526</v>
+        <v>46.29601574141049</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.25794760971627</v>
+        <v>46.54805072099587</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.81349181263045</v>
+        <v>26.38759558232584</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>9.169441857869668</v>
+        <v>15.01411858646293</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.86895896056392</v>
+        <v>37.50934086149342</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.37417312200056</v>
+        <v>38.13168669787004</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.49549407205184</v>
+        <v>16.35800921019354</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>59.03245110553343</v>
+        <v>50.52988324503778</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>62.02433069715329</v>
+        <v>53.01807968196272</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>61.71612321046069</v>
+        <v>52.54486536203013</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>68.00158647042876</v>
+        <v>57.67384548077649</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.02247673974205</v>
+        <v>59.98002100289526</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.09674270302521</v>
+        <v>30.61275169919799</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>65.15857393018528</v>
+        <v>55.64482676086596</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>65.65417851179426</v>
+        <v>56.39225471314487</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>52.64905075780713</v>
+        <v>47.16979567472637</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>47.79806291415166</v>
+        <v>41.36520544887246</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>52.88257419832124</v>
+        <v>45.58676706945418</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>56.32283264496441</v>
+        <v>49.10025674005441</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>21.91326028095871</v>
+        <v>22.29205390873901</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>49.63978361532454</v>
+        <v>43.74639416768564</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.34780426517437</v>
+        <v>45.23471159332868</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.81678484129644</v>
+        <v>21.06099937688796</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.7438270305757</v>
+        <v>32.42832934853197</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.75162181705169</v>
+        <v>36.34935642864762</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>8.187356668775099</v>
+        <v>14.39232111354979</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>37.22394380603898</v>
+        <v>34.11901794212648</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.19856209207899</v>
+        <v>37.31240751802707</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.48569804104476</v>
+        <v>16.60989298862214</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.95068491504882</v>
+        <v>47.47542490502585</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>62.79875222158036</v>
+        <v>53.97918513807537</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>60.4883451444713</v>
+        <v>51.80788740647046</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>67.1859515044969</v>
+        <v>57.01634125742294</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>70.92112527374093</v>
+        <v>60.48290695151078</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.77468571630558</v>
+        <v>23.880663515548</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>63.07365991174004</v>
+        <v>52.62812991988309</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>65.36474865961057</v>
+        <v>55.35318383085866</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>49.52683715953983</v>
+        <v>44.27579090115145</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.64103844013674</v>
+        <v>31.65666605705282</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.31627018554168</v>
+        <v>36.20047151956349</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.69907290768422</v>
+        <v>40.14104645451972</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18.1810942378809</v>
+        <v>19.91498158110499</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.24743383307911</v>
+        <v>39.99297502926741</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.06865659210586</v>
+        <v>44.03633310517854</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.16477738948359</v>
+        <v>20.26726443267798</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.42027997517283</v>
+        <v>32.43192762102808</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.53326331186687</v>
+        <v>38.3663793734513</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.858172367678403</v>
+        <v>14.77662563738447</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.71347139266177</v>
+        <v>33.87268280289842</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.66059886818825</v>
+        <v>39.47754148820674</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>8.463137716266015</v>
+        <v>14.79931894036844</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>52.36721768692898</v>
+        <v>44.98256452154794</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>63.56650900847235</v>
+        <v>54.08020595118275</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>55.49136292033222</v>
+        <v>47.96628045467266</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.10358255979358</v>
+        <v>54.85567633805213</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>70.73954310685826</v>
+        <v>60.02238514620541</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.9601566473419</v>
+        <v>21.4404126788409</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>60.78391218871454</v>
+        <v>51.18474858580885</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>68.04471682534499</v>
+        <v>57.24478445674718</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.15930732176833</v>
+        <v>17.20093967621556</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.06246562643824</v>
+        <v>21.94619726758343</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.83333252751309</v>
+        <v>29.47015497114996</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3.719219278553233</v>
+        <v>7.653217327827868</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.87982434664566</v>
+        <v>18.03262836596812</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.0123382994424</v>
+        <v>20.72151847041603</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.030244016995514</v>
+        <v>9.347323877298766</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.44837237248733</v>
+        <v>38.76431134112188</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.9707833092835</v>
+        <v>41.92558360676938</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.97289985526986</v>
+        <v>22.85998279047036</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.07800239959995</v>
+        <v>26.23709860104586</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.08235856683388</v>
+        <v>27.21385527456922</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.42344936087342</v>
+        <v>15.86636176156942</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.21022527660354</v>
+        <v>20.87635008548625</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.94153973300203</v>
+        <v>27.27446562868574</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.40769569249501</v>
+        <v>17.45147664315555</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.31736534406325</v>
+        <v>28.25434116156853</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.74129057334178</v>
+        <v>30.6156744989754</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.732408500676932</v>
+        <v>7.867287063939088</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>14.79495412092503</v>
+        <v>16.29119675761203</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.6823464152278</v>
+        <v>19.63846200031544</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.380864342841885</v>
+        <v>8.887473047832643</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.51250000899099</v>
+        <v>28.56331642315789</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.08381204925842</v>
+        <v>26.998751306266</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.67939398315325</v>
+        <v>36.5088263924118</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.63548098759313</v>
+        <v>34.81417617128682</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>4.730598454331389</v>
+        <v>8.428301113362608</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.21543941455583</v>
+        <v>35.00379134389357</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.33335078323985</v>
+        <v>36.05224194481396</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.655622756571983</v>
+        <v>9.897294804338458</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>56.29156624410574</v>
+        <v>51.17901294581994</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>53.04814816595719</v>
+        <v>48.67691830720182</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>46.5563365004945</v>
+        <v>44.8874744566174</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.86294565296235</v>
+        <v>51.41552831345619</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.03745789079094</v>
+        <v>51.87452302985999</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.0521937977372</v>
+        <v>21.94865169002311</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.84921796769636</v>
+        <v>44.62912391436289</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.47042235474909</v>
+        <v>45.75636573308861</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.9294755822024</v>
+        <v>22.60615765783647</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.70042816382711</v>
+        <v>34.63957546899318</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.47232787523578</v>
+        <v>35.16988986803927</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.40351934506873</v>
+        <v>8.460578695002344</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>33.55789389708404</v>
+        <v>31.87550580423578</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.62672481793282</v>
+        <v>32.69008042560721</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5.672838101926907</v>
+        <v>9.209598506652195</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>54.12735763335786</v>
+        <v>49.71631553835579</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>8.759975320632382</v>
+        <v>11.77624488081336</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.85297293401123</v>
+        <v>26.80665709309087</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>31.09913339735558</v>
+        <v>30.51871197835016</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.112037465268479</v>
+        <v>7.483934606876421</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.03702789641191</v>
+        <v>32.72801720730686</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.97206964028064</v>
+        <v>35.04806059834927</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.737142226025405</v>
+        <v>9.602852225903217</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>53.63812475387772</v>
+        <v>48.4050309719768</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>52.02000639528607</v>
+        <v>48.2316180696224</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>50.54923858579333</v>
+        <v>48.93120244635059</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>56.29943277826791</v>
+        <v>55.23736019613816</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.78726506387709</v>
+        <v>53.13740621372183</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>4.274710480260765</v>
+        <v>9.628081233016843</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.42639069477182</v>
+        <v>31.61714560809517</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.10430739599345</v>
+        <v>32.15475962642126</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.00596905531012</v>
+        <v>17.1760319099374</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.23545311850079</v>
+        <v>32.57278130605516</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.22402815001691</v>
+        <v>34.34328968642903</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>5.125215408002369</v>
+        <v>8.19050734567351</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.41505399358261</v>
+        <v>28.96571943615351</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.07976107283878</v>
+        <v>33.75782569147653</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.937589868075289</v>
+        <v>8.868092759667359</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>48.97886278552825</v>
+        <v>44.3562689115211</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>7.454189455994559</v>
+        <v>10.95545297017248</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.06723872346786</v>
+        <v>25.78060977794969</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.85170638957918</v>
+        <v>31.25996281286985</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.706465805588476</v>
+        <v>8.007495007020687</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.92196767096733</v>
+        <v>32.42990159493708</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>43.73338041823126</v>
+        <v>39.48317887594306</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.403163949084409</v>
+        <v>8.461236987396905</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>56.50272429070566</v>
+        <v>49.08774677848211</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>57.11967555694041</v>
+        <v>50.62735293893365</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>48.32556069343399</v>
+        <v>45.82555774087459</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>55.76981697967376</v>
+        <v>51.07726706749158</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>57.33514255611735</v>
+        <v>53.65925755845635</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.348828088471272</v>
+        <v>10.91063415535904</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.82760457795556</v>
+        <v>34.83018122324932</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.91281245981614</v>
+        <v>37.52417711052959</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.88150710358714</v>
+        <v>13.8840374422377</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.31534964781192</v>
+        <v>29.67358748985364</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.10358718007561</v>
+        <v>33.24423828597813</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.413425342990006</v>
+        <v>8.309175523749037</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.3558424757484</v>
+        <v>27.74257448880295</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.46091150422994</v>
+        <v>33.35275865748358</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>4.724309347285985</v>
+        <v>8.21086046456125</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>45.95379132511011</v>
+        <v>40.76823570281246</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.7532808805401</v>
+        <v>27.99349749016152</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.42238209139923</v>
+        <v>25.56996402203144</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.92832258488253</v>
+        <v>37.99673972335933</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>43.85659087744892</v>
+        <v>40.36932404359322</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.87578263206156</v>
+        <v>14.22602228311605</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.28439536535621</v>
+        <v>23.20942231163575</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.32068343912533</v>
+        <v>29.9100713798614</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.62921897386702</v>
+        <v>18.03638356742461</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.36147891098704</v>
+        <v>29.58610193252171</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.49508974991878</v>
+        <v>34.68907522696111</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.746214484366583</v>
+        <v>7.809675789898211</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.97995232762528</v>
+        <v>15.51489719595178</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.95489955468732</v>
+        <v>22.59273691091836</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.84292415635484</v>
+        <v>9.301951803444222</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.12237540053264</v>
+        <v>30.29577752100207</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>51.52804087415085</v>
+        <v>46.23542283723859</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.41375522681666</v>
+        <v>29.18593236086229</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>47.00910638550947</v>
+        <v>43.43104868552543</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>53.78576602511582</v>
+        <v>49.24646408560042</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.63831795682668</v>
+        <v>13.95815097044236</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.98580098094843</v>
+        <v>26.96370331212547</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.81557080783806</v>
+        <v>37.49744764406161</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.25937219184351</v>
+        <v>54.61281330996876</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>56.85817626013024</v>
+        <v>49.99973352114328</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>65.78044813913479</v>
+        <v>58.3088370969306</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.468716287871</v>
+        <v>57.29568620581458</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.09244192694448</v>
+        <v>22.54333445194617</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>57.91429721692936</v>
+        <v>52.07833005148215</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.10153443947095</v>
+        <v>54.32531826763481</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.69543441937981</v>
+        <v>28.69489244856209</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>43.09405303267785</v>
+        <v>39.87448620014968</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.75651943910155</v>
+        <v>40.26819947523677</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>6.134790310212601</v>
+        <v>9.17510223118434</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.24323916089877</v>
+        <v>39.57493250700609</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.62431559268024</v>
+        <v>39.18741037744027</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>7.391300849305647</v>
+        <v>11.46553715788432</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>64.01787701192829</v>
+        <v>58.21811131153953</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>64.72964098311364</v>
+        <v>59.78243249430146</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>69.62201199711966</v>
+        <v>63.60906548147997</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>75.68185559482239</v>
+        <v>68.74969140512195</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>78.26537667747667</v>
+        <v>71.60661961281282</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.61478878613809</v>
+        <v>29.47001470098757</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>71.03119246402882</v>
+        <v>64.42646349168326</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>71.03781327271986</v>
+        <v>65.48662283898972</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>57.16765136003449</v>
+        <v>52.89249377631782</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.98300815043586</v>
+        <v>46.41217743363362</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>58.99328975554539</v>
+        <v>52.60034179999033</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.91812806329553</v>
+        <v>56.73591516009098</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.63932333310155</v>
+        <v>17.2591879876056</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>53.45021121350878</v>
+        <v>49.146800147989</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>55.14393426157421</v>
+        <v>51.52980982539747</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.95801125564174</v>
+        <v>19.74116658631446</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>39.71122561824485</v>
+        <v>36.27336948597547</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.53296699971402</v>
+        <v>38.19740087567027</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.396560517914367</v>
+        <v>8.035943813004351</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.76746553850864</v>
+        <v>34.93065377291461</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.28582648167328</v>
+        <v>38.24764896084842</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.404826935213425</v>
+        <v>10.45725527859275</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>59.04504158109235</v>
+        <v>54.11138255564206</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>64.56138586670494</v>
+        <v>60.36726398067623</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>65.7297594449597</v>
+        <v>60.33962036752558</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>73.11103399449924</v>
+        <v>66.37091070651654</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>78.67281592025647</v>
+        <v>72.06742898570387</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.05018327167445</v>
+        <v>21.64213378803223</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>67.31678558452293</v>
+        <v>60.5328730618731</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>67.78931632237206</v>
+        <v>63.32138077388885</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>56.95690920922517</v>
+        <v>51.51708110315421</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.23792007008057</v>
+        <v>32.31085320695431</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.88895535514125</v>
+        <v>38.98293587593866</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>49.73227049906312</v>
+        <v>45.26558539205634</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>13.83465639264513</v>
+        <v>14.02812433483701</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>51.3474950641568</v>
+        <v>44.12661741997046</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>55.36788742188461</v>
+        <v>50.46897681322387</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.80502808700454</v>
+        <v>16.86090315943867</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>41.35492509070789</v>
+        <v>36.86534034296864</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.63178723792797</v>
+        <v>40.67438942101914</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.598240770012556</v>
+        <v>8.797777172178851</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.77416132699169</v>
+        <v>36.22422228579302</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.03885743119338</v>
+        <v>42.23787075085051</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.831033005371136</v>
+        <v>9.315479470709786</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>57.44619760304592</v>
+        <v>51.29694120574968</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>66.74305083007722</v>
+        <v>61.0382282850155</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>60.43404364322757</v>
+        <v>55.67569357486913</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>68.04175118283922</v>
+        <v>61.70195019668832</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>77.33243826625954</v>
+        <v>70.66097340026376</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>18.87749113242855</v>
+        <v>17.56350135204391</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>67.80717410000341</v>
+        <v>60.0648697344256</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>72.65409491213254</v>
+        <v>66.30971595743088</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.58709020455573</v>
+        <v>14.33381935403671</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.8509637354672</v>
+        <v>19.03115447111361</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.03092087484664</v>
+        <v>24.79671485129481</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.934023977649399</v>
+        <v>5.609370794924335</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.29834191406461</v>
+        <v>15.72330602525864</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.4763457692171</v>
+        <v>17.85302661739714</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.165355894659644</v>
+        <v>7.801756723056336</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.84018415861988</v>
+        <v>30.86221030917557</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>32.26572735959755</v>
+        <v>34.01201612399627</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.31028790057861</v>
+        <v>18.71359206106894</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.07825142811568</v>
+        <v>21.91688928650518</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.94819756683938</v>
+        <v>23.3837641550465</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.14087870055013</v>
+        <v>14.09927048689592</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.26694193693238</v>
+        <v>17.49844706490391</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.35795197923129</v>
+        <v>27.20133748877787</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.153259176541415</v>
+        <v>12.1382278461611</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.57328827090842</v>
+        <v>22.55071192420578</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.24550495647732</v>
+        <v>25.29995688493895</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.7624974148280934</v>
+        <v>4.754262104064644</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>6.411640294684602</v>
+        <v>10.79147203573407</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.06170005380971</v>
+        <v>13.82870525514599</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.51658779240028</v>
+        <v>5.98914403120736</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.38983124638029</v>
+        <v>21.0950850865594</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.82135420741228</v>
+        <v>18.04678706372907</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.01876987372253</v>
+        <v>27.06315908510613</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.04155839391209</v>
+        <v>26.87022895036192</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.589628797705135</v>
+        <v>5.839870372679627</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.69849315001468</v>
+        <v>26.68198832219955</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.73232057947489</v>
+        <v>27.7528165536688</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.844304041647995</v>
+        <v>8.350117916476385</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.22154452594292</v>
+        <v>39.59198324704128</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.51341344098014</v>
+        <v>39.15455928762297</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.54039185705844</v>
+        <v>38.02745291893547</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>41.10012806282285</v>
+        <v>42.22010263746454</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.89700202559402</v>
+        <v>44.40206629162171</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.0334346174671</v>
+        <v>19.87780983105105</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>40.88451579248544</v>
+        <v>40.65006923428884</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.17992153413657</v>
+        <v>42.72463023112761</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.96256397098653</v>
+        <v>15.71690555524741</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.69691002802437</v>
+        <v>27.63938121144314</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.72126629034357</v>
+        <v>29.45851584312634</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.6840540334908454</v>
+        <v>5.073803753185388</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.45526552418712</v>
+        <v>25.02796304820644</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.99266696298874</v>
+        <v>27.24784563974406</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.42084084084582</v>
+        <v>6.176750970364687</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>37.27714716258853</v>
+        <v>40.34143503688658</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>6.220704815135072</v>
+        <v>9.03063171044791</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.61418793762945</v>
+        <v>20.17557716916333</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.66502233401762</v>
+        <v>24.57371183364013</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>1.421548981440719</v>
+        <v>5.357334562428942</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.58467196791637</v>
+        <v>25.73712906293284</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.30642472521975</v>
+        <v>27.40126674311125</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.761097933088315</v>
+        <v>9.473759059195196</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.27772367675072</v>
+        <v>39.20734242560471</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>39.39357852282155</v>
+        <v>40.72333154659781</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.006276057996</v>
+        <v>41.304260072112</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.38453782528491</v>
+        <v>44.92230198500963</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.25255194533305</v>
+        <v>46.01538344643149</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>6.529463317984025</v>
+        <v>8.598780083684414</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.74660503335478</v>
+        <v>29.50868788724978</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.89887837539939</v>
+        <v>32.84153221070068</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.671782082279623</v>
+        <v>10.8500255614031</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.61449582545638</v>
+        <v>25.45726662845257</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.77459904537316</v>
+        <v>28.97999450972575</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>0.6659363248859194</v>
+        <v>4.712593409122956</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.66875089292448</v>
+        <v>20.50410679223697</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.11860503607834</v>
+        <v>28.11483606925184</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.675592104288803</v>
+        <v>6.774778544376748</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.02415990355894</v>
+        <v>33.75370116409192</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.659335260397974</v>
+        <v>7.858356595395804</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.54086913671054</v>
+        <v>17.60992582793634</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.65054683793938</v>
+        <v>23.81354121210705</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0.8532150044786526</v>
+        <v>4.935645344297093</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.61156625586738</v>
+        <v>23.90515585560138</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.70195156780297</v>
+        <v>30.05486675802808</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1.480004457596912</v>
+        <v>5.497482982399468</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.64560818349764</v>
+        <v>35.61280604800682</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.27177401930977</v>
+        <v>40.38257771386914</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.78610757568969</v>
+        <v>34.60089264954236</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.2691991281083</v>
+        <v>38.38367212481982</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.35050779105833</v>
+        <v>42.5005665654917</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.931016522955399</v>
+        <v>8.095446663261487</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.77970567756262</v>
+        <v>28.8194519111122</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.8683068006757</v>
+        <v>37.0440958888355</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.388376521529967</v>
+        <v>8.375300247744811</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.51305911889269</v>
+        <v>22.22364288048442</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.90093575360266</v>
+        <v>27.57041363922053</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.3611912222760978</v>
+        <v>4.889890426091135</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.9514651741806</v>
+        <v>19.31496401648448</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.81884136471884</v>
+        <v>27.14929659369905</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1.22460150247467</v>
+        <v>5.25728521140228</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.79034072907886</v>
+        <v>29.6231743870636</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.44701769260792</v>
+        <v>21.32568253597209</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.09758181705788</v>
+        <v>18.89071081144658</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.88940358847699</v>
+        <v>29.36600972011698</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.17254464441828</v>
+        <v>31.18761007857177</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.924659607170181</v>
+        <v>9.467069714685334</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.00104886591276</v>
+        <v>16.73804115697915</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>18.82466646246839</v>
+        <v>22.15431929494482</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.54110884050568</v>
+        <v>15.76467214242181</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.59696850324404</v>
+        <v>26.23003885321607</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.87659141754296</v>
+        <v>32.02591678377974</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>0.08926015430621703</v>
+        <v>4.684034503695251</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.341403520299309</v>
+        <v>11.03551160658042</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>14.87281521619967</v>
+        <v>17.44242895493362</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3.667686007761954</v>
+        <v>7.098672676532306</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.26038062921844</v>
+        <v>25.07164076556549</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.92989112235294</v>
+        <v>39.14877601623846</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.91672504615379</v>
+        <v>23.67574267758854</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.16770780265507</v>
+        <v>36.07710825352147</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.08065429203173</v>
+        <v>40.98634531836381</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.987503482749425</v>
+        <v>10.33397619963095</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.8296519513157</v>
+        <v>21.78989215735198</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.10781290691327</v>
+        <v>31.16882920459277</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.02759200936482</v>
+        <v>44.63295408502345</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.93853904156813</v>
+        <v>40.75846838267832</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>46.93491293892211</v>
+        <v>47.95257324448602</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.30455202826507</v>
+        <v>46.48809739737665</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>13.3134989308716</v>
+        <v>15.91182324418979</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>41.54749912044835</v>
+        <v>43.0588842487774</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.51717193485489</v>
+        <v>45.40341116464536</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.13888232538538</v>
+        <v>24.5478455884715</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.60985278186141</v>
+        <v>35.74822630002247</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.07407767826341</v>
+        <v>38.17460961160957</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>2.282754558813632</v>
+        <v>6.558783269777926</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.90150575567957</v>
+        <v>35.3915452494706</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.2846884290629</v>
+        <v>36.53465060877429</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>8.94543981879443</v>
+        <v>11.46944841936615</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.87609705116114</v>
+        <v>54.49954309038633</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>56.51033837526437</v>
+        <v>55.6678518562534</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>65.75591276157604</v>
+        <v>62.9087986810043</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>69.46865461444328</v>
+        <v>66.78267582814645</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>70.73258628878941</v>
+        <v>69.12843122673446</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.57612357167839</v>
+        <v>28.69960887993021</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>62.70511471556934</v>
+        <v>60.62693607040944</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.30224465226705</v>
+        <v>63.14452426773565</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>43.05172453148434</v>
+        <v>44.90614537864856</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>32.57520005099313</v>
+        <v>35.32896249166868</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.79856446675144</v>
+        <v>41.50725281683044</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.37974085538841</v>
+        <v>46.3564879321989</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.271425034121464</v>
+        <v>10.52703447393936</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.05802382428259</v>
+        <v>40.17224609869251</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.99502660505433</v>
+        <v>43.78001066234788</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.1217148403961</v>
+        <v>16.90627929194113</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.66785787977566</v>
+        <v>32.45064729904381</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.25719502391887</v>
+        <v>36.8290335290529</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1.009008549123177</v>
+        <v>5.38589436022481</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.17046541568224</v>
+        <v>31.58513820587484</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.6600803788367</v>
+        <v>36.15336304766518</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>8.943882637801455</v>
+        <v>10.68670015478612</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>53.25609120183322</v>
+        <v>50.65426829979582</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>59.1959418452478</v>
+        <v>57.95080178232439</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.22463164130906</v>
+        <v>58.47949829806842</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>68.23103887001743</v>
+        <v>64.297761066322</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.1028689768503</v>
+        <v>69.73360977335444</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.36267754785426</v>
+        <v>20.21730520038644</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>60.63772189602417</v>
+        <v>57.90323924790397</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>65.74024395981772</v>
+        <v>63.22012543661702</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>41.35179960346267</v>
+        <v>42.63383178577834</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.57630154437305</v>
+        <v>22.76089894097503</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.94169895983739</v>
+        <v>28.79567896203665</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.53850127243277</v>
+        <v>35.56538546354385</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>4.054483278763012</v>
+        <v>8.166948248272725</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.03031299449431</v>
+        <v>34.65005357394163</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>41.13945454255731</v>
+        <v>42.00585572670665</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.37495536907141</v>
+        <v>14.28691982437785</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.80088033399007</v>
+        <v>32.00209472842754</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.56465366339147</v>
+        <v>38.60750741670969</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1.252923901007801</v>
+        <v>6.038196086491944</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.59261419386792</v>
+        <v>30.8874315056904</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.49264920869702</v>
+        <v>38.73573454600123</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>4.368410254165052</v>
+        <v>7.700552238538982</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.09071972545603</v>
+        <v>46.53009804594846</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>59.9287743667805</v>
+        <v>58.14325819460686</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.78959609364003</v>
+        <v>50.31037713359954</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.41418953118638</v>
+        <v>57.81914806202902</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.7746703219687</v>
+        <v>66.5861944641974</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>11.42877915719491</v>
+        <v>13.64636829131774</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.53887937779663</v>
+        <v>53.01485367228162</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.52410301507277</v>
+        <v>63.73637104669601</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.27318318171663</v>
+        <v>11.45284497864751</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.89109806136245</v>
+        <v>14.72260774632493</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.69833763515612</v>
+        <v>24.79515253443421</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.442912225351098</v>
+        <v>2.770484500855012</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>17.23382214216822</v>
+        <v>14.37471277252266</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.69655060597875</v>
+        <v>17.12998574357867</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.944934455333097</v>
+        <v>7.884436421229054</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.49859846570629</v>
+        <v>32.50366429945979</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.69174031277193</v>
+        <v>34.81617731889398</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.04159540863696</v>
+        <v>13.8626331439413</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.89342091535658</v>
+        <v>18.31441088454246</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.53468916933603</v>
+        <v>21.2505788517173</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>13.62306457711195</v>
+        <v>15.73856309294469</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.17282710404901</v>
+        <v>14.49255691727832</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.27662273616775</v>
+        <v>26.79255112240831</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.48214313012697</v>
+        <v>11.42282532342967</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.88833077372249</v>
+        <v>27.88048973798722</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.86139935502217</v>
+        <v>35.28684781286903</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1.920116266997727</v>
+        <v>2.267552290654915</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.88521714738578</v>
+        <v>10.34334000833055</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.1413273470951</v>
+        <v>14.70154534516275</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.781805232193392</v>
+        <v>2.045753284208772</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.73268103759689</v>
+        <v>22.29138388987127</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.88057042437568</v>
+        <v>19.5638641679006</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.5467123461396</v>
+        <v>28.60962143863265</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.10221433842927</v>
+        <v>27.74839022756137</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.899789096116759</v>
+        <v>2.68190070833732</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.88417615685056</v>
+        <v>31.35505896869977</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.3866615657876</v>
+        <v>34.03199779335882</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.793330842740122</v>
+        <v>6.693473120312358</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>50.50152866768796</v>
+        <v>46.9810050906983</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.55913914710355</v>
+        <v>44.04716063251264</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>47.41419287806774</v>
+        <v>45.14273072504103</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.52775470003057</v>
+        <v>53.24385326609555</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.96929375490238</v>
+        <v>52.79012523641678</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.19323277599188</v>
+        <v>21.39694908770487</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.88902321041335</v>
+        <v>37.49063241661126</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.53766759689071</v>
+        <v>40.86928399781797</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.01505895370422</v>
+        <v>19.19809554439943</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.02103552004047</v>
+        <v>37.63570693906942</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.75530815416231</v>
+        <v>41.14692400963862</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>3.946308458460965</v>
+        <v>3.912499625862697</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.24268921007837</v>
+        <v>33.2389210234548</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.91141013282869</v>
+        <v>40.75423861454234</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3.570616019488192</v>
+        <v>3.68005179727615</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>58.32822107866016</v>
+        <v>58.35211180021332</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.910471477263897</v>
+        <v>7.689623748981507</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.75806446264737</v>
+        <v>19.91305026865705</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.71740655316901</v>
+        <v>24.72252471483565</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.005271701478768875</v>
+        <v>0.6214619514884347</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.2891252342733</v>
+        <v>27.98947113203871</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.31701838941399</v>
+        <v>31.73823361608637</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>4.208870551259967</v>
+        <v>4.42445181201942</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>45.92890371547101</v>
+        <v>43.54125472013576</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>49.59547074740176</v>
+        <v>47.3209684131792</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>50.20932084526198</v>
+        <v>47.8845116804624</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>54.56494435780685</v>
+        <v>54.21052116975088</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.76244529470206</v>
+        <v>55.65091572144256</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>9.263823125056657</v>
+        <v>8.208716487264851</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.1440128986767</v>
+        <v>29.05324177420152</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.41372277861328</v>
+        <v>33.68672644130523</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.54633955692704</v>
+        <v>10.85814490590387</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.93315943951139</v>
+        <v>31.66309039710682</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.32074861384319</v>
+        <v>40.62368366669776</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.04034335623907</v>
+        <v>2.57735245879671</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.46422802158932</v>
+        <v>25.39223988333928</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.94240428257459</v>
+        <v>40.44847638287551</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1.092634407516115</v>
+        <v>2.299329967928422</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>48.40329553267426</v>
+        <v>42.33398858829791</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.037467091659291</v>
+        <v>5.129730543746341</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.24819176176518</v>
+        <v>16.64597246661421</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.76559473925348</v>
+        <v>23.41417296079218</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.6519891120102805</v>
+        <v>1.245894859406221</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.72233269847761</v>
+        <v>27.75975543188837</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.87999738759002</v>
+        <v>33.89546337512822</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.953175252563327</v>
+        <v>2.586578159776391</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>45.15173491599951</v>
+        <v>41.90796943292438</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>50.25457725895411</v>
+        <v>46.77007404653678</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.02202265494563</v>
+        <v>38.80867347133228</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.72771304207313</v>
+        <v>44.16207207289087</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.45382786424273</v>
+        <v>48.63165665148409</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.809087089810191</v>
+        <v>6.889579825938842</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.90722407635315</v>
+        <v>22.06885797809926</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.92265878226253</v>
+        <v>33.69381233261573</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.830791706348919</v>
+        <v>8.243668419301805</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.08265198800396</v>
+        <v>28.00870146223617</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.99609123769709</v>
+        <v>38.39359973054768</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2.624197587311798</v>
+        <v>3.618895223378246</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.25317323361832</v>
+        <v>24.41375842061314</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.26980187662684</v>
+        <v>39.73352157373355</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-0.06623790988352951</v>
+        <v>1.397392120771997</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.05449795532516</v>
+        <v>39.34913158063609</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.23419285344599</v>
+        <v>27.07977446371762</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.10810786660892</v>
+        <v>22.90665170370823</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>49.01564031569359</v>
+        <v>45.27837982785397</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>57.40115862819331</v>
+        <v>52.18691634338442</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.333680543746947</v>
+        <v>6.416765950157391</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.11251534521134</v>
+        <v>17.94357191817218</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.1562238378243</v>
+        <v>27.99619119794407</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.13614915452122</v>
+        <v>13.46065085748794</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.77699730453864</v>
+        <v>27.24980797516759</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>41.09460546793608</v>
+        <v>37.92601005842678</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1.873225685737555</v>
+        <v>2.108056388302685</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>8.949455501752748</v>
+        <v>7.922536140330401</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.14957301982591</v>
+        <v>13.62699856987236</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.474931602106778</v>
+        <v>2.811968408943308</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.39184473857868</v>
+        <v>21.23094452124202</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>40.99386984817646</v>
+        <v>36.52649823610315</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.51231162572148</v>
+        <v>25.5567559460608</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>51.24663046199711</v>
+        <v>47.72404587216641</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>59.49936386560812</v>
+        <v>55.32494676582947</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>7.027350076783669</v>
+        <v>6.511173385750936</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.46119313259409</v>
+        <v>19.01719727543128</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.28707301849502</v>
+        <v>28.0721396196742</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>70.87101530975963</v>
+        <v>66.60704391191314</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>61.39333982023744</v>
+        <v>62.00308825665961</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>77.45706120515321</v>
+        <v>73.85541492153044</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>82.14098609411896</v>
+        <v>75.51284622451973</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.94323986758269</v>
+        <v>21.58399780765102</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>71.54365782838606</v>
+        <v>72.15282759280996</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>80.45543633810567</v>
+        <v>74.3066572774852</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.66543693182368</v>
+        <v>26.6948690135901</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.7904089590898</v>
+        <v>44.34083934990745</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.73100580645414</v>
+        <v>48.20509844759395</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>4.952404139483701</v>
+        <v>5.234110341158058</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.80562156468723</v>
+        <v>40.36139564013774</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.26191031188155</v>
+        <v>49.20879386675654</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.388755451945979</v>
+        <v>8.793024892662746</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>75.89717108411512</v>
+        <v>73.43055976115429</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>79.35008640277564</v>
+        <v>75.59658725981217</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>84.94360772577403</v>
+        <v>80.21360904482158</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>93.25303795940967</v>
+        <v>88.73628591563731</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>96.71739743154841</v>
+        <v>92.62000929014164</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.06984711981604</v>
+        <v>34.04136927155736</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>92.53523046694458</v>
+        <v>87.53694428688496</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>93.9890265994226</v>
+        <v>89.22510068653907</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>72.05871465212988</v>
+        <v>68.53839804561439</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.06300643273406</v>
+        <v>44.25796743784213</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>62.88234965933383</v>
+        <v>57.11833419909442</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>79.0930862318074</v>
+        <v>75.58454825389656</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.69741182078751</v>
+        <v>12.78734667767382</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>64.51600414417098</v>
+        <v>59.88824390166015</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>76.16872176688379</v>
+        <v>70.96549243812021</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.84482682675967</v>
+        <v>13.35059487397934</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.29896209304452</v>
+        <v>37.12817690000166</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.93895789431183</v>
+        <v>44.90166878068583</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.674484905682995</v>
+        <v>3.056341027134838</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.44672708983334</v>
+        <v>38.66814740472464</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.40945469055794</v>
+        <v>50.60267644148615</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>4.071363304604766</v>
+        <v>3.83817753339455</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>67.39114173594005</v>
+        <v>62.82282945348668</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>80.82777038983218</v>
+        <v>77.16060506610839</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>78.96650393666904</v>
+        <v>73.47022666104647</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>89.14065922454114</v>
+        <v>84.63396538981345</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>95.05890388371257</v>
+        <v>91.87491969941505</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.3101675813222</v>
+        <v>20.8913727905887</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>85.33864025214636</v>
+        <v>78.59272606539736</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>92.75210376951841</v>
+        <v>86.04406705655083</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>69.5813585356216</v>
+        <v>66.02531824118007</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.52421202308044</v>
+        <v>30.3475978836986</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>45.29963562213418</v>
+        <v>41.89845767044543</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>63.33139628514613</v>
+        <v>58.1135252898946</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>8.860538169502181</v>
+        <v>9.113052172989004</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>56.56454781070548</v>
+        <v>52.08709918913301</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>71.81319674406576</v>
+        <v>66.50903257338514</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.27258265557819</v>
+        <v>11.99202328261685</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.75291342792922</v>
+        <v>37.05834800287771</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>51.52881361744447</v>
+        <v>49.40150567602794</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>4.017123599659275</v>
+        <v>4.19777945762171</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.23084642038525</v>
+        <v>37.54319645983359</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.26322749532926</v>
+        <v>51.94637544622127</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2.05221284419823</v>
+        <v>2.287309275117735</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>62.55585321510536</v>
+        <v>58.78545858852966</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>82.37288565396575</v>
+        <v>78.89245401263271</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>70.20055044936561</v>
+        <v>66.02619386911152</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>87.76312930374031</v>
+        <v>80.1298490673003</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>97.21261715286292</v>
+        <v>93.05045446334213</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.81831683068234</v>
+        <v>15.2146402265093</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>77.75377471793141</v>
+        <v>75.81365027333955</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>91.29988558080439</v>
+        <v>86.29698138548402</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.465</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.051</v>
+        <v>16.116</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.497</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.93</v>
+        <v>16.666</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.037</v>
+        <v>2.221</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.07574706321726</v>
+        <v>11.47664747831503</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.76454797604056</v>
+        <v>13.40543674939071</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.82423898079825</v>
+        <v>20.55079024135407</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.02069912363412</v>
+        <v>4.117834961014779</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.62948273686648</v>
+        <v>12.37727603477484</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.18923457627771</v>
+        <v>14.50900788187276</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.21643949792839</v>
+        <v>8.3503952050146</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.92844713126773</v>
+        <v>26.34102940332326</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.22997252659151</v>
+        <v>28.23793711652034</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.84010924233791</v>
+        <v>12.2135029547708</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.42294918944895</v>
+        <v>17.12808203924567</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.53099449474632</v>
+        <v>18.7723958883639</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.64200878973316</v>
+        <v>13.87703781405832</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.69120504509</v>
+        <v>8.439346528844911</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.26041740560932</v>
+        <v>17.22172078136988</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.66287000996682</v>
+        <v>11.96626484460853</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.25298343527082</v>
+        <v>21.08179230747789</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.49695658466275</v>
+        <v>29.51330383985922</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.34511934948253</v>
+        <v>6.4454132201435</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.27916443197286</v>
+        <v>11.37583104842454</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.66071191330776</v>
+        <v>16.07251436425635</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.84774938299049</v>
+        <v>3.963453518522012</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.80969917145219</v>
+        <v>15.87691545683249</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.38667317528052</v>
+        <v>19.17143801693123</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.45803472149391</v>
+        <v>26.23193427612773</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.17309587003451</v>
+        <v>25.10684642472761</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11.07874420066508</v>
+        <v>3.112786511095841</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.76911767660915</v>
+        <v>29.39746006746716</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.00113527227291</v>
+        <v>31.3010045552284</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.3271844726161</v>
+        <v>7.120136558175805</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.18285326079545</v>
+        <v>40.41031416761182</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.37075239956157</v>
+        <v>38.17687131093553</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.41537654575387</v>
+        <v>38.9575147422002</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>45.36284171834569</v>
+        <v>46.0444375043092</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.36658373999898</v>
+        <v>47.04390037241351</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.59618501051923</v>
+        <v>20.04727025360819</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.28282256864052</v>
+        <v>28.06115686479013</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.66319470551586</v>
+        <v>31.20848962004142</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.86927939051322</v>
+        <v>17.68217501346071</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.63293693891815</v>
+        <v>28.43382111851444</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.8678883247643</v>
+        <v>32.13893084205435</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.55514302976992</v>
+        <v>6.649092263127372</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.05260558380609</v>
+        <v>26.92128384036555</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.91796469862736</v>
+        <v>34.55423961148603</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42.19888865840419</v>
+        <v>41.76674323333404</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.0462371232781</v>
+        <v>10.13355323003697</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.08246243307512</v>
+        <v>21.61042209287665</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.18738622534254</v>
+        <v>25.4541210100714</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.16818083535222</v>
+        <v>2.433911012092214</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.20993603404901</v>
+        <v>26.97128730107634</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.25040393231305</v>
+        <v>31.54350544895523</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.38092799790474</v>
+        <v>8.40963719911629</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.50995793631502</v>
+        <v>42.15734839465668</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.12747025198665</v>
+        <v>44.51403300114511</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.65918489450292</v>
+        <v>43.1553948732229</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46.72125815852385</v>
+        <v>48.48322845890585</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.31109559816636</v>
+        <v>51.94636224053517</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.38199544066904</v>
+        <v>12.70552888647491</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.40011883958498</v>
+        <v>26.84741305502733</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.69962134054904</v>
+        <v>30.90423332034225</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>18.13267615221582</v>
+        <v>12.79103385852088</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.72880191215264</v>
+        <v>27.13326101730307</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.73281078644187</v>
+        <v>32.65343508398295</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13.17584355025771</v>
+        <v>6.322746526613926</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.64290739005376</v>
+        <v>22.76148451627252</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.36617209221105</v>
+        <v>35.55857472637927</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.05136924085309</v>
+        <v>5.291057364370712</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.16197887048654</v>
+        <v>37.99535059868082</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>13.54853517270838</v>
+        <v>6.847069205697039</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21.98077181592955</v>
+        <v>17.28708501146415</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.14555319239641</v>
+        <v>22.6827295527638</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>10.44985703960392</v>
+        <v>2.651253723382396</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.42028600799034</v>
+        <v>26.96570130917356</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.55062528344732</v>
+        <v>31.86402810895263</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>11.0002877126905</v>
+        <v>3.778284639789256</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.96816610677892</v>
+        <v>38.32571832138554</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.10813140119659</v>
+        <v>42.38507553186655</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.40612119170692</v>
+        <v>32.1894984784295</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.42124223188974</v>
+        <v>37.1566970416401</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.83915008771109</v>
+        <v>41.79368168199351</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.80671824456138</v>
+        <v>9.829034983740481</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.91122616012638</v>
+        <v>18.35644936159341</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.28007549715615</v>
+        <v>31.17670063158868</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>15.70270379988887</v>
+        <v>9.771330243876264</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.27007436826287</v>
+        <v>24.26853075826643</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.33515985107404</v>
+        <v>30.93620831207856</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>13.38663749864223</v>
+        <v>6.779045309470828</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.79330285440796</v>
+        <v>23.41803193922006</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.72532719832113</v>
+        <v>34.66610053134691</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10.11951524047642</v>
+        <v>2.360548156885333</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.73510970621954</v>
+        <v>34.12960695823503</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.66032303195383</v>
+        <v>19.99321118802453</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.47967127915568</v>
+        <v>17.51699801010393</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.95150926937455</v>
+        <v>35.08972169922905</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.99819207994853</v>
+        <v>39.01677318787889</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13.75740294812974</v>
+        <v>7.293184811037772</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.85604873843587</v>
+        <v>14.22467839870079</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.77729711591947</v>
+        <v>20.52276016023257</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>18.68272743647808</v>
+        <v>14.30971545668021</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.39472752635586</v>
+        <v>22.86389865072505</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.56964546898853</v>
+        <v>31.63227997957496</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>13.20783732752615</v>
+        <v>6.214515731669383</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.96013880516491</v>
+        <v>9.64381888279344</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>18.54780177983864</v>
+        <v>12.07807162124478</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10.93918111259553</v>
+        <v>4.299447569382341</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.24714626356011</v>
+        <v>17.08163654358648</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.07682767863039</v>
+        <v>32.3400064114112</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>23.83488119488722</v>
+        <v>19.61696691334817</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>39.03079125925961</v>
+        <v>39.26521159196813</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.98909697421168</v>
+        <v>44.40595922932735</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>13.40671743097475</v>
+        <v>6.212340429696173</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.46604290337568</v>
+        <v>15.09060877500277</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.59407483308126</v>
+        <v>24.50544261397201</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.61887788776155</v>
+        <v>50.62414775454842</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>44.70133604069908</v>
+        <v>44.58627864562182</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.82489325350088</v>
+        <v>56.24926360956833</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>55.09259493535532</v>
+        <v>59.5094914697038</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.05751920959866</v>
+        <v>20.73268382287305</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>49.51062623378</v>
+        <v>50.88055181696951</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.88649193743518</v>
+        <v>54.79964881288294</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.40296500201232</v>
+        <v>26.19630817832636</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.61795184906225</v>
+        <v>35.47743333531346</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.23173104344957</v>
+        <v>41.73421594405241</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.29759300682971</v>
+        <v>8.142948201237981</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.56047506824634</v>
+        <v>35.85328733009682</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.52748279168573</v>
+        <v>42.1166964157043</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>14.36233225448519</v>
+        <v>8.809051339283901</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>52.78962545826774</v>
+        <v>57.55582435295602</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.90435745646323</v>
+        <v>64.43407679742822</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>60.31917530650103</v>
+        <v>68.75493570173641</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>66.62396065558401</v>
+        <v>76.16876861643517</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>70.5345936336852</v>
+        <v>81.64696815198747</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.25759412724648</v>
+        <v>34.0529423102936</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>62.33447211123141</v>
+        <v>69.90063779251764</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>64.95969658018959</v>
+        <v>73.45805170189379</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.52563752129444</v>
+        <v>55.12060727782998</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.62085045535684</v>
+        <v>37.99199344082176</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.32848424289587</v>
+        <v>44.84601770074758</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.77235213250114</v>
+        <v>58.24575318700144</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.54718148301792</v>
+        <v>15.94093231372694</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>45.43410850590482</v>
+        <v>47.05282142424518</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.5429735875335</v>
+        <v>53.78439489966453</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.57727237938465</v>
+        <v>17.16041746692667</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.15589582158863</v>
+        <v>32.79177274779011</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.20347681693048</v>
+        <v>40.54429563114911</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>13.70966587921114</v>
+        <v>6.891209173447585</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.16751327004839</v>
+        <v>33.88031513926942</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.97568228891075</v>
+        <v>43.57809089800408</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.12547240159208</v>
+        <v>8.792971498794387</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>50.66899381001815</v>
+        <v>54.32516634069415</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>60.58191811963218</v>
+        <v>68.86306075746415</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>58.60528663254629</v>
+        <v>65.61262615236558</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>63.62622414652013</v>
+        <v>72.03571711482434</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>70.39261031452465</v>
+        <v>81.33978998000354</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.26545001766326</v>
+        <v>24.00562544480259</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>56.09548718779881</v>
+        <v>62.48187714184393</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>63.2502388845335</v>
+        <v>72.12395846767603</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>48.21343846639946</v>
+        <v>50.05430467190385</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.61462676874898</v>
+        <v>25.14821191490289</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.24673162814528</v>
+        <v>32.06031132584647</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.53712566239319</v>
+        <v>43.08716076685796</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>17.0254907112273</v>
+        <v>11.32946500794592</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.61487223128525</v>
+        <v>42.71259451147088</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.70703113611001</v>
+        <v>50.9803076919835</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>18.686462046439</v>
+        <v>14.70821805386503</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.13622642773855</v>
+        <v>33.4109494861964</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.4677650721361</v>
+        <v>44.27199243580019</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>13.93647666692677</v>
+        <v>7.705915912190001</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.01502524998882</v>
+        <v>33.75919405528906</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>43.15232342364104</v>
+        <v>45.98664580474105</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>10.68590087107056</v>
+        <v>3.746777762497093</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>46.1276971104344</v>
+        <v>49.75520391976512</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.06244125591833</v>
+        <v>69.02769482595724</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>50.53267284572648</v>
+        <v>55.49973320904666</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.19377320261169</v>
+        <v>64.12680870616646</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>70.11891662070984</v>
+        <v>80.5865563506034</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.51315264788632</v>
+        <v>15.85715436021374</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>51.20842977695037</v>
+        <v>55.66699405685025</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.05540870794039</v>
+        <v>71.50133543212652</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.39897412651792</v>
+        <v>14.73293205984535</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.03161818799027</v>
+        <v>19.9974340841402</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.54171395187324</v>
+        <v>29.04709349190973</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.95882299911378</v>
+        <v>9.59071579806675</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>27.98181665593135</v>
+        <v>23.41113503139714</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.8462329756946</v>
+        <v>26.06648133122873</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.1239357534667</v>
+        <v>12.3625145892047</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.25977826541224</v>
+        <v>40.14790516514012</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.34018467351208</v>
+        <v>42.92524651680025</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.81016780941534</v>
+        <v>21.13802137348748</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.89081257576839</v>
+        <v>25.32420841424715</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.3482609632675</v>
+        <v>27.87136084563125</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.5441527567489</v>
+        <v>21.66596943832839</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.99787956218753</v>
+        <v>19.4899420125364</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.70736031572396</v>
+        <v>33.34489223729146</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.34055399389843</v>
+        <v>15.12133742782522</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.87793977699054</v>
+        <v>27.24159078118109</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.99404462471058</v>
+        <v>29.41710972532353</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.14249641291412</v>
+        <v>9.560223381524285</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.92498346818984</v>
+        <v>17.98879628048918</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.15676019426968</v>
+        <v>20.7440766505794</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.3508762357306</v>
+        <v>10.05107396055152</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.94693495206968</v>
+        <v>28.0874388986812</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.8798693777473</v>
+        <v>21.74221587059494</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.73590673933591</v>
+        <v>32.18714785651748</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>32.02327683768667</v>
+        <v>33.45572095606056</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.14088192061214</v>
+        <v>9.723650722044713</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>32.942170184072</v>
+        <v>36.47825035640862</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.47060088469928</v>
+        <v>38.16961305020418</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.13181885181961</v>
+        <v>12.42998114843433</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.6153905316753</v>
+        <v>50.73776548132056</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>37.61836494525587</v>
+        <v>48.48870510788284</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.45231373884634</v>
+        <v>44.06810461580947</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.8420133517939</v>
+        <v>50.35429027882867</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.59420389516368</v>
+        <v>50.23340835307035</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.45524735117703</v>
+        <v>24.49094223625596</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.48665809435248</v>
+        <v>38.44413969060052</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.15886822202737</v>
+        <v>40.75157826909699</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>27.82414818053046</v>
+        <v>23.14864039269292</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>32.3528742312263</v>
+        <v>33.81791090340454</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.44661954044603</v>
+        <v>33.46371180423988</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>23.15508411544796</v>
+        <v>10.2496070686598</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.66649149916164</v>
+        <v>32.85438919586888</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.32901981905095</v>
+        <v>33.28747824027585</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>23.5939216458368</v>
+        <v>10.88369122476022</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>37.68758569672749</v>
+        <v>48.19991409222858</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.22361560585729</v>
+        <v>11.92831538600314</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.90855337569324</v>
+        <v>24.14451085803854</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.83288481303144</v>
+        <v>29.58269950643292</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.87020710461002</v>
+        <v>8.77996837244709</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.97507292211371</v>
+        <v>33.15340444326658</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>32.94829212331346</v>
+        <v>35.83284142388388</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.79237384814456</v>
+        <v>10.86480307732521</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>37.45164232518294</v>
+        <v>47.48604830376199</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>37.95272923285355</v>
+        <v>48.84948419908437</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.69066346199415</v>
+        <v>50.05886229404262</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>40.76270473051801</v>
+        <v>54.82964035915376</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.25334256134784</v>
+        <v>54.65388806276412</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.15601655690419</v>
+        <v>12.62551008855021</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>31.23895056581201</v>
+        <v>28.14643508318923</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.25190174583214</v>
+        <v>33.48203470408782</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.05672061772028</v>
+        <v>17.9412434260122</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.36534864839926</v>
+        <v>31.31041758830948</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.21275958528246</v>
+        <v>32.54063689038154</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>23.08797825566952</v>
+        <v>9.744107856932459</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.35552656081416</v>
+        <v>29.11927460956218</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.41714070054715</v>
+        <v>32.90920807440462</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.63069816000226</v>
+        <v>10.97755503910732</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>35.83892455939255</v>
+        <v>43.25051379791697</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23.62006218472589</v>
+        <v>10.01559042105886</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.0193781424185</v>
+        <v>22.47922272930571</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.59331187896339</v>
+        <v>29.73431217696487</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.88060437249667</v>
+        <v>9.155163630432828</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.5837131243986</v>
+        <v>34.02884856281038</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>33.60540710153346</v>
+        <v>38.01128129781787</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.11287377750648</v>
+        <v>9.601046375711253</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.76540449237745</v>
+        <v>46.96915348145788</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>37.98004334188927</v>
+        <v>49.4223873088156</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.63361914639348</v>
+        <v>45.32007387075728</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.2961847160146</v>
+        <v>50.39132142874817</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>39.40238037671525</v>
+        <v>52.4928685336085</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>23.89241365467934</v>
+        <v>11.15846141928506</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.93883942844063</v>
+        <v>25.08680357927094</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>33.61690238788646</v>
+        <v>35.88393993828612</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.0760344511108</v>
+        <v>15.37511024474179</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.45259353417685</v>
+        <v>29.44769525256104</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.73951757378047</v>
+        <v>31.85683664576926</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>23.08777597487652</v>
+        <v>9.787937196400168</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.6708714988521</v>
+        <v>27.82234353573449</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.01752620271443</v>
+        <v>32.50139470234292</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.98788998071249</v>
+        <v>9.431447488036092</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.12360856752921</v>
+        <v>39.24306883797398</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.25715105403131</v>
+        <v>28.27088790352495</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.03288371776884</v>
+        <v>24.95624861492076</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.90627884341399</v>
+        <v>38.10900880688156</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>34.91334659281714</v>
+        <v>40.73597871100072</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.17412706774098</v>
+        <v>15.74064429846677</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.83945124436706</v>
+        <v>25.97922957329533</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.96268059691598</v>
+        <v>31.15919690037859</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.23090032332188</v>
+        <v>18.2407994983976</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.9507287894512</v>
+        <v>27.88948611722169</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.56432022404788</v>
+        <v>34.4604189798259</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>23.11067871808154</v>
+        <v>9.568711097197966</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.27900281475639</v>
+        <v>16.52856860801919</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.60295229585277</v>
+        <v>22.3955070389078</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.33895878915315</v>
+        <v>10.77229419176461</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.02263820437439</v>
+        <v>29.31958915769627</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.66702122201216</v>
+        <v>45.35380446258229</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.01527689339726</v>
+        <v>28.13363768782049</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.27768975629801</v>
+        <v>44.99263790657914</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.70681010894875</v>
+        <v>47.79573613319455</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.73643280430381</v>
+        <v>15.2580791510119</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.31695420770491</v>
+        <v>27.16581586587637</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>33.0960737421034</v>
+        <v>37.48085284626774</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>39.07839464856512</v>
+        <v>50.30195249775723</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.86126945010177</v>
+        <v>48.0590278775349</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.54869849146611</v>
+        <v>54.46675932715163</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>40.8581936333363</v>
+        <v>55.24663533457331</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.53844992102289</v>
+        <v>25.68928868507665</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.22384766286181</v>
+        <v>51.11932489687659</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>39.41127365882262</v>
+        <v>50.7892535475676</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.91600980165537</v>
+        <v>25.48184030256101</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.30860254759143</v>
+        <v>10.63618854953248</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.40281492027882</v>
+        <v>39.62999598873356</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.99310169805357</v>
+        <v>40.33305917716793</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.01032341343422</v>
+        <v>12.07054648683046</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>41.20166127026376</v>
+        <v>56.39488385164184</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>42.2441515957967</v>
+        <v>59.5066466960471</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>42.51699122905039</v>
+        <v>59.52693439154612</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.8433231011371</v>
+        <v>65.25246810381378</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>46.01977396054439</v>
+        <v>68.0045666744757</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.79514998759844</v>
+        <v>31.6858532731949</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>43.73194576019982</v>
+        <v>62.56638711158571</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>44.24177030916991</v>
+        <v>63.34153280499527</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.50978058752798</v>
+        <v>51.54065020455626</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.44701812872377</v>
+        <v>45.0897035364974</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.65195788194531</v>
+        <v>50.40363534056652</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.67286453909652</v>
+        <v>54.4808948115181</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.75079501903043</v>
+        <v>20.75768567259839</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.70864663989186</v>
+        <v>47.56157162606927</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.65217910016916</v>
+        <v>48.91144098209693</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.27061576760688</v>
+        <v>18.53751718831822</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.21721174423821</v>
+        <v>32.6574497189466</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.17832868930452</v>
+        <v>37.66158103580748</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.140815395225</v>
+        <v>9.845521248600026</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.93037165385648</v>
+        <v>35.7529917072704</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.67014630802878</v>
+        <v>38.87920501040158</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.23405556596316</v>
+        <v>12.84283705252186</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.59039184892352</v>
+        <v>52.50837736472396</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.91724349441969</v>
+        <v>60.76730511603647</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>41.99462473011783</v>
+        <v>58.1363390416947</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>44.53486304209387</v>
+        <v>64.60256702826032</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>46.36355801255363</v>
+        <v>68.70018405214901</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27.47691737912267</v>
+        <v>22.90989396733318</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>42.35138478375052</v>
+        <v>59.7592601548068</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>43.88650588781584</v>
+        <v>62.65495055467846</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38.22086479926036</v>
+        <v>47.94644379081917</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.48755455070438</v>
+        <v>32.70037195171513</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.73450942188345</v>
+        <v>38.26796801967181</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.06360848315498</v>
+        <v>42.47764496235609</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.61655242764686</v>
+        <v>17.51979857475726</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.62018644182145</v>
+        <v>43.82302615913395</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.08993570450732</v>
+        <v>47.72834599473059</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.73298384208174</v>
+        <v>17.41343286040737</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.01953676795172</v>
+        <v>33.52147025790555</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.99764945454312</v>
+        <v>40.74934654178336</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.17509430816921</v>
+        <v>10.28992077561297</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.6100086383769</v>
+        <v>35.46655340499015</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.52247394939409</v>
+        <v>41.98971384490069</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.25074112979723</v>
+        <v>10.06500345641019</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.15528421667037</v>
+        <v>49.60194725096429</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>42.85616988157154</v>
+        <v>61.01021270558382</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>39.66824153290341</v>
+        <v>53.27584643955045</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>43.12627847621016</v>
+        <v>62.24772078325239</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>46.11466616017948</v>
+        <v>68.46805811841925</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.14927926154522</v>
+        <v>19.76785558874457</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.24532909154517</v>
+        <v>57.67046163903053</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>44.54945941804493</v>
+        <v>64.83776996532586</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.02149443078029</v>
+        <v>14.44973812150719</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.35956059667284</v>
+        <v>21.3098544224863</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>30.5386081310449</v>
+        <v>29.22962584346207</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.36415193335994</v>
+        <v>4.770183632780753</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.74031908155853</v>
+        <v>16.24547076381935</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.45720823187659</v>
+        <v>19.52291375428862</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.86171353422994</v>
+        <v>6.388282301699505</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>36.51280812669394</v>
+        <v>40.14138837863176</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>38.95565073557052</v>
+        <v>43.6459676044572</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.08498062190445</v>
+        <v>20.9173798401265</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.72649226295121</v>
+        <v>26.71604213526396</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.18413947219367</v>
+        <v>27.80869460060728</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.15928839802235</v>
+        <v>13.69941976215127</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.67099896485993</v>
+        <v>17.52016400631538</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.70838776936786</v>
+        <v>24.49951282062594</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.0202578374368</v>
+        <v>16.26290116051239</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.50063205404384</v>
+        <v>28.24672815417795</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.24579727132151</v>
+        <v>30.53808115448205</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.59350868707358</v>
+        <v>5.179084405231333</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>20.95881879987233</v>
+        <v>14.9160407753717</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.22434929394497</v>
+        <v>17.84258878511843</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.95295201242285</v>
+        <v>6.060703926730334</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.73147855863724</v>
+        <v>28.95950816660602</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.2698322285296</v>
+        <v>23.53918873204699</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>34.18680057525502</v>
+        <v>37.27035023628806</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.8427315818713</v>
+        <v>35.96572270035016</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.67786885895597</v>
+        <v>5.51244346116523</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.88666945980759</v>
+        <v>36.13460493185151</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.15420040090397</v>
+        <v>37.38506433741908</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16.75486002860134</v>
+        <v>6.918487566791434</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>45.02871851368365</v>
+        <v>54.31303997256691</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.30020086732674</v>
+        <v>51.43730630420067</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>41.22444720943959</v>
+        <v>46.23693048874856</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.14051325799199</v>
+        <v>54.55242967281378</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.15538374725848</v>
+        <v>55.05326907357207</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.66927335122061</v>
+        <v>20.41259068618766</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.58770745479201</v>
+        <v>44.9592393622804</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.46186972398858</v>
+        <v>45.8715041062888</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.05887042945331</v>
+        <v>22.85394315403944</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.4143381887155</v>
+        <v>35.32557026622462</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.19077773963198</v>
+        <v>35.5623481174862</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.55327251268649</v>
+        <v>5.861864465244121</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.80797080440344</v>
+        <v>32.63031613919588</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.73213846021422</v>
+        <v>33.0081364728142</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>16.11660790183311</v>
+        <v>6.40806618767737</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.08841564722668</v>
+        <v>52.89827710789248</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>18.1522841171876</v>
+        <v>9.199520606232443</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.37768337521808</v>
+        <v>26.72047509975087</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.99879970707472</v>
+        <v>30.56873652888577</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.32550889695427</v>
+        <v>4.474915726201349</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.51827669641263</v>
+        <v>33.09641726852657</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.07955622989231</v>
+        <v>35.97912211081485</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.94670035047062</v>
+        <v>6.696154940156852</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>43.51762941490855</v>
+        <v>51.28385238659535</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>43.30678276185325</v>
+        <v>50.9288155813231</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>44.11564706926794</v>
+        <v>51.0226768467754</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>48.20247640465038</v>
+        <v>57.07195291756902</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>47.01654973641545</v>
+        <v>56.14476102267005</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.86711068440869</v>
+        <v>6.424667859114429</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.06518277527218</v>
+        <v>30.45507495634041</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.90560146325085</v>
+        <v>30.30183417856648</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.60673757890863</v>
+        <v>16.06797157171423</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.99138319320822</v>
+        <v>33.15328145245371</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.80419979900881</v>
+        <v>34.57743553250184</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.45508890880688</v>
+        <v>5.472332493318898</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.8923893027423</v>
+        <v>29.23932471757648</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.4032027064878</v>
+        <v>33.97269140903506</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>16.15019434274828</v>
+        <v>6.100648730433061</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>40.7220731674449</v>
+        <v>46.7955350681102</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>17.64319906343896</v>
+        <v>8.198255754449217</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.23536550456141</v>
+        <v>25.95705992385024</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.21131639451902</v>
+        <v>31.79374813685542</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.33859606270642</v>
+        <v>5.247982626294373</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.93927814284304</v>
+        <v>34.4361408326858</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.99610269488565</v>
+        <v>41.56698861411203</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.63735101894224</v>
+        <v>5.432293293086399</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>43.45474674500015</v>
+        <v>52.87413627492712</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>44.9237625846876</v>
+        <v>54.52099333369866</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>41.43293071332126</v>
+        <v>47.95106170940961</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.16055449752452</v>
+        <v>54.55541735306492</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>46.85370703446111</v>
+        <v>56.81301177039045</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>17.54186336499753</v>
+        <v>8.362847457027932</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.71363626233334</v>
+        <v>35.23943504067174</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.47382487434414</v>
+        <v>37.66932851063542</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.10435508675386</v>
+        <v>12.29798802406303</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.24849925892167</v>
+        <v>30.30650052342905</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.60387462589983</v>
+        <v>33.37796835329926</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>15.449077418711</v>
+        <v>5.704816296449732</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.69464821223286</v>
+        <v>28.1993201612366</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.09049711210776</v>
+        <v>34.24583967175304</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.46200532960684</v>
+        <v>5.276354524633348</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.70683291269398</v>
+        <v>42.86857118634427</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.42468171640468</v>
+        <v>27.95589307466504</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.71497461378821</v>
+        <v>25.2728094723745</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.88577940621327</v>
+        <v>39.39704262933882</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.85999758529029</v>
+        <v>42.40586838014027</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.02149546916881</v>
+        <v>12.70219457678566</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.73797138061017</v>
+        <v>22.96393670080271</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.53627120016463</v>
+        <v>30.07086579049712</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.12986633701281</v>
+        <v>16.84823416669887</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.03252969082367</v>
+        <v>29.77024910532441</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.96099352792272</v>
+        <v>35.31304013749902</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.59041886191467</v>
+        <v>5.269563043570749</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.28485286657358</v>
+        <v>14.12818811563039</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.59093595693874</v>
+        <v>22.00895774030544</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.53744586338699</v>
+        <v>6.71567483573957</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.47035170300036</v>
+        <v>31.05530193101036</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>41.62271661724577</v>
+        <v>49.64679316156094</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.0302592601485</v>
+        <v>29.3919610810136</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.03398704174579</v>
+        <v>45.80136914183104</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.98910102793553</v>
+        <v>52.08438147822871</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.16424818526628</v>
+        <v>12.52897288220289</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.31804363370502</v>
+        <v>27.24553064300015</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.57306504654407</v>
+        <v>39.00631928406261</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>48.01573466292604</v>
+        <v>57.58564079234117</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>44.787110714421</v>
+        <v>53.57810754714298</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.58958384794268</v>
+        <v>62.39703953098125</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>49.8951438149742</v>
+        <v>61.28539322946009</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.01198612583878</v>
+        <v>22.30295285154167</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>46.37097987660702</v>
+        <v>55.38862330333065</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>48.09165154833163</v>
+        <v>57.87133142530835</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.235410467366</v>
+        <v>28.89114660047421</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>37.06626928832717</v>
+        <v>41.40989730829283</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.88068234337723</v>
+        <v>41.3525741280392</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>15.94161743505968</v>
+        <v>6.593331916810577</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.7881840541835</v>
+        <v>40.83539664369846</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.38166577832083</v>
+        <v>40.22119610520369</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>17.62268886263833</v>
+        <v>8.406784094254398</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.29515479014275</v>
+        <v>61.73218783559695</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>51.1578174756754</v>
+        <v>63.60962116426629</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>54.27975465023155</v>
+        <v>67.96416874133025</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>57.96022544651845</v>
+        <v>73.54761555064718</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>59.49050467802616</v>
+        <v>76.94647076409706</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.83296980797057</v>
+        <v>30.49703581801289</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>55.00270694633845</v>
+        <v>68.89612158711353</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.94435931462326</v>
+        <v>69.5528883183144</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>46.67685404124596</v>
+        <v>55.76141864101299</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>41.92517453898112</v>
+        <v>49.42918970464274</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>46.41794736252015</v>
+        <v>56.14337264258695</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>49.53682047677412</v>
+        <v>60.55605862192517</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.47711378995513</v>
+        <v>16.10109043113931</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>43.83499883146674</v>
+        <v>51.46129215568077</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>46.10956896503349</v>
+        <v>53.98126822153124</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.0737417076708</v>
+        <v>18.91626115810715</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.95984696919974</v>
+        <v>37.48921880475049</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.36232204101768</v>
+        <v>38.98779659510969</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>15.58985663605587</v>
+        <v>5.163012284279159</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.28370732830242</v>
+        <v>35.76306892923287</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.86057755119854</v>
+        <v>38.76420918977856</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.99910182296256</v>
+        <v>8.193707978026985</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.78304675520869</v>
+        <v>57.12165322034442</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>52.13344991435211</v>
+        <v>64.03948259884559</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>52.25526443282634</v>
+        <v>64.41219125762345</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>56.56679468976853</v>
+        <v>71.30238976089824</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>60.35680598418212</v>
+        <v>77.21231204822001</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.14294298736075</v>
+        <v>21.44052511760357</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>52.49700382298541</v>
+        <v>65.07596295003353</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>54.44863269142792</v>
+        <v>67.03967865844554</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>46.04787030691247</v>
+        <v>54.33495386124997</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.63383110107904</v>
+        <v>33.56810748294054</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.32609606107357</v>
+        <v>40.96623602062986</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>41.48153850840802</v>
+        <v>47.11130620390672</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19.15293552051406</v>
+        <v>12.87884869043439</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.95473546199324</v>
+        <v>47.92489738064787</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.30506050189258</v>
+        <v>53.09787531073545</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.97039750885109</v>
+        <v>15.61905611048057</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.2127479646451</v>
+        <v>38.67629595655899</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.64619561063467</v>
+        <v>42.09131760240049</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.62451637637595</v>
+        <v>6.075638602792672</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.89892481494257</v>
+        <v>37.74305942142705</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.24542028981172</v>
+        <v>44.41490539778627</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.1870712225813</v>
+        <v>6.425661723603383</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>45.47810591207163</v>
+        <v>54.50225626983023</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>52.21920020097996</v>
+        <v>65.24481547379582</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.34011379470901</v>
+        <v>59.44675465180889</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>52.51593140482136</v>
+        <v>65.84347133751209</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>59.07941675528951</v>
+        <v>75.67220819858672</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.0987656880089</v>
+        <v>17.08779826970577</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>51.566123380703</v>
+        <v>64.69548582742104</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>56.44105478192871</v>
+        <v>70.82257557162384</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.75667850996468</v>
+        <v>12.46559111483835</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.20984754175408</v>
+        <v>17.50627693264536</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.31270221828411</v>
+        <v>23.96025596313661</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.98299311651894</v>
+        <v>3.127519197722023</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.33775419461311</v>
+        <v>13.8448954551156</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.79226439102473</v>
+        <v>16.01403707031718</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.69168318111102</v>
+        <v>5.456272404198671</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.68592682784104</v>
+        <v>30.29926930732501</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>34.07428134083227</v>
+        <v>33.61252884935395</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.64464846662188</v>
+        <v>16.68417419079122</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.01973288257282</v>
+        <v>20.31021377175167</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.85746220189951</v>
+        <v>21.72255903166599</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.54055295260731</v>
+        <v>12.27598382634225</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.57532512230669</v>
+        <v>16.08237415687125</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.91938278954082</v>
+        <v>26.76322809553663</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.74413082077206</v>
+        <v>9.643622376130089</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.73871413674534</v>
+        <v>21.47836863812672</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.67336025636305</v>
+        <v>24.35540271333795</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.84955922002363</v>
+        <v>1.870953501905021</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.086461347693</v>
+        <v>8.114440070102194</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.1506066883947</v>
+        <v>11.096822648314</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.29007015884122</v>
+        <v>3.454444197639976</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.37057629739956</v>
+        <v>19.48813872975109</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.52201117396555</v>
+        <v>15.00944804574002</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.9211447658577</v>
+        <v>25.26055641202477</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.17894713609547</v>
+        <v>25.81092902488061</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.3181704917067</v>
+        <v>2.739233709053789</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.12515493140054</v>
+        <v>25.30983731686646</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.63157688644087</v>
+        <v>26.47550195322498</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.717653098509</v>
+        <v>5.778308434917669</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.04829557784242</v>
+        <v>39.49095584276904</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.81653206038352</v>
+        <v>39.08727342965952</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.69933964876458</v>
+        <v>37.28877969970591</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>40.08234816431095</v>
+        <v>42.65972778859118</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.98053498140791</v>
+        <v>45.02989981466366</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.2691191331117</v>
+        <v>17.97678732392518</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.42775894169244</v>
+        <v>40.97633911064369</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.73576570595831</v>
+        <v>43.71569478419249</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.87700798111869</v>
+        <v>13.97837513457007</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.23458132074857</v>
+        <v>26.13266991477932</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.3869419463209</v>
+        <v>28.25022835404458</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.84873357861206</v>
+        <v>2.060373704093887</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.70874720350654</v>
+        <v>23.46237021713938</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.23901984506946</v>
+        <v>25.74490096678391</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.27506833286814</v>
+        <v>3.477699343878648</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.25008040403802</v>
+        <v>39.86797852431992</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.4328187945776</v>
+        <v>6.770300505781506</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.56636981429897</v>
+        <v>18.69280608100854</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.12210973044779</v>
+        <v>23.52864982708104</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.80450466127383</v>
+        <v>2.65545084644301</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.15333794095513</v>
+        <v>24.18153751647485</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.61903546417288</v>
+        <v>26.06926497608124</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.51239044054176</v>
+        <v>7.357152482268198</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>37.75401972837554</v>
+        <v>39.28136788596367</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>38.54083006530341</v>
+        <v>41.07117606989803</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.17373907283844</v>
+        <v>41.41819440212795</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.75631592245221</v>
+        <v>43.91668741994181</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.27794426666362</v>
+        <v>46.96179753047529</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>16.015795400197</v>
+        <v>6.771419617657457</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.50941103408005</v>
+        <v>29.55957326008631</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.93970752230759</v>
+        <v>33.15284304198334</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.91712183852059</v>
+        <v>8.525880544738673</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.7384750304548</v>
+        <v>24.25869914209553</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.02006026683042</v>
+        <v>28.00255571086412</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.76074240012989</v>
+        <v>1.619495645392323</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.90405551140242</v>
+        <v>18.60773751714018</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.76200341249281</v>
+        <v>26.93644226410163</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.04455317994021</v>
+        <v>4.544463570146252</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.17409607450355</v>
+        <v>33.20306707295835</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>15.83273256398681</v>
+        <v>5.302438548782192</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.7365414047547</v>
+        <v>15.32865144169559</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.72877622594062</v>
+        <v>22.3813598185477</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.81425815285394</v>
+        <v>2.061758605931946</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.9247445531521</v>
+        <v>22.81649622802336</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.28150649968341</v>
+        <v>29.0889695062658</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.17385220296794</v>
+        <v>2.52593905074832</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.4564695363214</v>
+        <v>34.95951022227297</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.62747676276004</v>
+        <v>40.57345694029775</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.81982319276976</v>
+        <v>33.86047487039412</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.55757656553289</v>
+        <v>37.79146099333511</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.08928874122305</v>
+        <v>42.74703063978507</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>15.90907072808616</v>
+        <v>5.578396171506718</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.03401844837109</v>
+        <v>28.25478780763785</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.3770682147324</v>
+        <v>36.99105657268368</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>16.14881683745047</v>
+        <v>5.604842654002816</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.57349878488985</v>
+        <v>20.55477246638633</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.92600967631882</v>
+        <v>26.25755366950961</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>13.75703287205851</v>
+        <v>1.702997988059327</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.65605731604857</v>
+        <v>17.27515239484921</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.08420484169004</v>
+        <v>26.1681468326095</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>13.91795628420002</v>
+        <v>2.248353187535912</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.80421513203163</v>
+        <v>28.07842715860392</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.43742060453128</v>
+        <v>19.78365704652075</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.8387476346662</v>
+        <v>16.6622637518841</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.86677095464023</v>
+        <v>27.93970877130025</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.32790671115646</v>
+        <v>30.25873867188684</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.99586055077397</v>
+        <v>7.206199729059996</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.1323685387048</v>
+        <v>14.57950734368498</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.00848543760767</v>
+        <v>20.29687330522361</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>20.94771637452396</v>
+        <v>14.36013518563835</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.12456246255569</v>
+        <v>25.65804388361622</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.09078877166142</v>
+        <v>32.02712731421006</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>13.8760201992164</v>
+        <v>1.668575254842768</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>17.99915155642537</v>
+        <v>8.548018884462465</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.62622700963995</v>
+        <v>15.54528044711529</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.98318133820766</v>
+        <v>4.566217499997638</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.33341537225698</v>
+        <v>24.35149280897295</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>37.41061718869404</v>
+        <v>39.92189524509622</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.51463413211771</v>
+        <v>22.54693599221244</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.64195484076732</v>
+        <v>35.732464659892</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.02382613575098</v>
+        <v>40.95067649723683</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.97859681294228</v>
+        <v>8.03445155586471</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.48225471718241</v>
+        <v>20.54792222498072</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>32.16149186480593</v>
+        <v>30.63948266522034</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>41.60828279123391</v>
+        <v>44.43748748334811</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.77869315079107</v>
+        <v>40.804037260787</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.96829511044069</v>
+        <v>48.50491208038626</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.21048770591264</v>
+        <v>46.47314269478372</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>20.88850624235361</v>
+        <v>13.96761693424296</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>40.47924899275136</v>
+        <v>43.33334244054041</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.13282132490269</v>
+        <v>45.77820474605683</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.4903270683288</v>
+        <v>24.13135267298113</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.57645725230159</v>
+        <v>36.05398687320366</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.32295012197647</v>
+        <v>38.57093711221975</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>14.58500153295759</v>
+        <v>3.643171462570489</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.22479784482002</v>
+        <v>35.27580680811877</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.55065003714345</v>
+        <v>36.47041348046115</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.52163694607438</v>
+        <v>9.412126080786582</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>47.71600775917832</v>
+        <v>56.48054119213209</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>48.48341694819531</v>
+        <v>57.35919648276145</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>52.93934166191151</v>
+        <v>65.97426400515052</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.1357367113492</v>
+        <v>69.64309508780981</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.87140740177149</v>
+        <v>72.32493752416744</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.98042587180132</v>
+        <v>29.79043827665793</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>52.16735846174549</v>
+        <v>63.11478064857512</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>53.70269562118364</v>
+        <v>65.83651666546506</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.38576743496729</v>
+        <v>45.02995833000654</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.99907775912052</v>
+        <v>34.79120482387823</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.35405668106863</v>
+        <v>41.48025230937357</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.85421254166093</v>
+        <v>46.56750715769037</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>17.70644197223792</v>
+        <v>7.975279292074045</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.05175918658433</v>
+        <v>40.07277023426133</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.79317646605968</v>
+        <v>44.1174522678902</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.27919550148492</v>
+        <v>15.80434669054747</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.53705404941962</v>
+        <v>32.73040110045691</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.17087657544458</v>
+        <v>37.40463617299275</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>13.97330217129552</v>
+        <v>2.320741484224389</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.98986506440075</v>
+        <v>31.14197093202596</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.13002967923218</v>
+        <v>36.05222844897756</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>17.35884479256617</v>
+        <v>9.355319835486007</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>44.91582113218613</v>
+        <v>52.54841857410881</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.11377972163925</v>
+        <v>60.27880204432716</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.2786525098356</v>
+        <v>61.49609679983075</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>54.59336008256772</v>
+        <v>67.82465898910925</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>58.39650225015357</v>
+        <v>73.16465293015891</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.3911575851615</v>
+        <v>19.9557025886454</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>50.16272665476629</v>
+        <v>60.55392879669273</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.36156156431517</v>
+        <v>66.18847030015357</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.06307339573011</v>
+        <v>42.89640104446428</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.2777407003095</v>
+        <v>21.00854250219561</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.4641627858229</v>
+        <v>27.48319048949685</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.24631027516804</v>
+        <v>34.2793490596172</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>16.06188025716983</v>
+        <v>5.385158029798948</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.03544174309594</v>
+        <v>34.92668757435356</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.58751314712697</v>
+        <v>42.32775669435975</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>19.73735478544635</v>
+        <v>12.377662514711</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.19914370768905</v>
+        <v>32.25956189967812</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.36915952752523</v>
+        <v>39.07150533422166</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.10579870271147</v>
+        <v>2.857533560677428</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.54257734386011</v>
+        <v>30.72630118341078</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.86141244059179</v>
+        <v>39.43054525536721</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>15.26050345848949</v>
+        <v>5.029372035161732</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.94102443483447</v>
+        <v>48.26931888062358</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.17712826377839</v>
+        <v>60.572374882245</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.52265092503117</v>
+        <v>52.41767173154535</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.06579851219632</v>
+        <v>60.16038591990158</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>56.34319198898271</v>
+        <v>69.43744498891846</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>19.24139242854465</v>
+        <v>11.76046442591963</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.92435204311534</v>
+        <v>55.02697281201927</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>54.25929663053936</v>
+        <v>66.63852959478241</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>13.69329534076828</v>
+        <v>11.0830847478786</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.00787150166357</v>
+        <v>16.10426066056162</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.3148794456965</v>
+        <v>26.02750472582069</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>5.968849204459698</v>
+        <v>2.436379828085315</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>15.85037539647208</v>
+        <v>15.44925372916676</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.17750663369302</v>
+        <v>17.69337394292672</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>9.908826979864713</v>
+        <v>7.768950694226255</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.26944595758273</v>
+        <v>33.06187312586747</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.27346067173345</v>
+        <v>36.21901839074454</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.1480086177948</v>
+        <v>14.58107805718581</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.19850583544565</v>
+        <v>20.33096415913208</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.57202015583165</v>
+        <v>24.70613288643109</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.57403138656611</v>
+        <v>15.11261426567812</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.06367598205541</v>
+        <v>13.28904628034893</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.25476893763281</v>
+        <v>26.83343331623638</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>14.20957792649425</v>
+        <v>10.67792580277791</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.55956740443097</v>
+        <v>28.63802566014185</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.13538247329476</v>
+        <v>36.47658426061103</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>6.965658891392263</v>
+        <v>1.916137675017097</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>12.49393949902998</v>
+        <v>10.51592763214192</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.69130032976499</v>
+        <v>14.89267742480261</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>5.688743020324846</v>
+        <v>1.814968825213519</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.75995989500253</v>
+        <v>22.46437847639333</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.68173673613024</v>
+        <v>19.08666851295388</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.60572155298419</v>
+        <v>29.05526241295259</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.88068792797889</v>
+        <v>28.75555339922786</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>6.168503452034997</v>
+        <v>1.544734196568932</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.63228404828151</v>
+        <v>32.55023286424998</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.93979065831208</v>
+        <v>35.76839573985289</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.205885016262062</v>
+        <v>6.434169462520149</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.82693588618405</v>
+        <v>48.91075504112706</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.36954635147134</v>
+        <v>46.2436796436149</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.05046967097844</v>
+        <v>46.96157894704053</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.30543134605118</v>
+        <v>54.73503168475602</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>49.00935661870622</v>
+        <v>54.27577252664547</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.29459788346308</v>
+        <v>20.29533230983569</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.83017973808373</v>
+        <v>40.20875995056349</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>37.52612020146051</v>
+        <v>43.5232025088433</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.94803410364455</v>
+        <v>19.19776790202578</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.85745766824154</v>
+        <v>39.02964593587742</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>39.05226415365222</v>
+        <v>42.35320614622397</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>7.180727721827424</v>
+        <v>3.499648794941614</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>32.10051906222053</v>
+        <v>34.50243408294335</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>38.78070572386404</v>
+        <v>41.67427813910644</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.033274829732793</v>
+        <v>3.355634178979226</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>54.18929213400844</v>
+        <v>58.20438595061172</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>10.7933003540949</v>
+        <v>7.338199073218519</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.83274142693816</v>
+        <v>19.94824582928184</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.42020841228367</v>
+        <v>25.49213379782818</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>4.531979839014102</v>
+        <v>0.1554910163761285</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.61815826917385</v>
+        <v>28.5883116059842</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.39349003283978</v>
+        <v>32.62306522614338</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>8.423297498031548</v>
+        <v>3.861527485474721</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>40.91090458452133</v>
+        <v>45.01663820481603</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>43.61767944083553</v>
+        <v>48.72963835311346</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.95544702773695</v>
+        <v>49.80792074592892</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.05458373588391</v>
+        <v>55.60943338785481</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>51.20283320887134</v>
+        <v>57.24551110185753</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>10.64970442092031</v>
+        <v>8.932707230977392</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.07470580848501</v>
+        <v>30.15991979534779</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.76032536854423</v>
+        <v>35.1907146648344</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>13.02805829242124</v>
+        <v>10.67984831720266</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.58925797085777</v>
+        <v>32.32089545742361</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.45022427704797</v>
+        <v>41.77420493170298</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>6.39763469077689</v>
+        <v>2.144099024420964</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.01657358980812</v>
+        <v>25.79578681047515</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>38.84342931812862</v>
+        <v>41.27787852272904</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>5.948747691935484</v>
+        <v>1.643907108449678</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>39.66719136927821</v>
+        <v>45.45815201637782</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>8.409973628367126</v>
+        <v>4.63882431668392</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>17.93469364065726</v>
+        <v>16.5829897659589</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.13683959719083</v>
+        <v>24.37022521549874</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>5.064308532187628</v>
+        <v>0.8540254045100717</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.69788614396415</v>
+        <v>29.42211215894531</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.98549340810647</v>
+        <v>35.11522893578638</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>5.771991833373256</v>
+        <v>2.144113487996275</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>38.66252918158597</v>
+        <v>43.80168976403072</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>43.0308323078853</v>
+        <v>49.04920568546075</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.07662441281519</v>
+        <v>38.87084327661232</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.56675828265936</v>
+        <v>45.38311408858543</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.78032999451928</v>
+        <v>48.90088485581936</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>9.800747563677607</v>
+        <v>7.203659752458371</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>23.08852573935638</v>
+        <v>22.8406853327604</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.43240048170449</v>
+        <v>35.99532243241787</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>10.82520534006036</v>
+        <v>7.894114770048049</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.49673508885723</v>
+        <v>29.0611882416601</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>35.81011662240242</v>
+        <v>39.84980143577388</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>6.816495817311282</v>
+        <v>3.038239216691505</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.55832997535449</v>
+        <v>24.77389857962117</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.1193246517925</v>
+        <v>40.66580647728142</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>4.921036443316382</v>
+        <v>0.608319182297258</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.32598151493537</v>
+        <v>40.35327772090193</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.69628874268869</v>
+        <v>28.08200370467772</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.21804700143636</v>
+        <v>23.45894614965651</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.27395337944503</v>
+        <v>46.9340891274235</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>48.00943615011005</v>
+        <v>54.46675004789118</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>9.415275560689121</v>
+        <v>6.141988907231994</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.49783672336446</v>
+        <v>18.29873550863776</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.00603021604657</v>
+        <v>29.03668448465656</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.18988759337302</v>
+        <v>13.54847936846905</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.07567543090198</v>
+        <v>28.3015920517204</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.22049968237946</v>
+        <v>39.08143018031185</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>6.696229822527648</v>
+        <v>1.856131661707131</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>10.91418982021757</v>
+        <v>7.829646427846903</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.68541729398722</v>
+        <v>13.35137297647677</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.972023501960233</v>
+        <v>2.527388653626062</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.10122516859634</v>
+        <v>22.06377854861969</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.25295099714493</v>
+        <v>38.81158598537836</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.26134251089551</v>
+        <v>26.10399269066032</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.37178186958585</v>
+        <v>49.45898993258616</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>50.91430903408526</v>
+        <v>57.26889358334341</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>9.82621135276661</v>
+        <v>6.014253369942026</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.68761709431816</v>
+        <v>19.63241388329277</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.00392765363011</v>
+        <v>29.28461717331901</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>60.57422114132939</v>
+        <v>68.37555302671424</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>56.77285834032703</v>
+        <v>61.26695153896839</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>67.18156258335294</v>
+        <v>76.6333744251793</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>68.66734618281119</v>
+        <v>78.51256776701069</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.00815088613567</v>
+        <v>21.9838816099043</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>65.34274233852958</v>
+        <v>71.80162772352676</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>67.3583083172215</v>
+        <v>77.16753060808801</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.18682864156391</v>
+        <v>26.73508547874109</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>41.93946228718112</v>
+        <v>45.28778247211424</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.58601300463626</v>
+        <v>49.17302287735465</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>8.303762664167014</v>
+        <v>4.846737674599858</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>37.89357188030527</v>
+        <v>42.0515198700083</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.81750363023676</v>
+        <v>50.67801538672914</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>11.57048687128655</v>
+        <v>8.471469962004374</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>66.93955134423386</v>
+        <v>74.63196048124149</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>69.02595268527061</v>
+        <v>77.60158894863837</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>73.64225193483789</v>
+        <v>83.19676728381506</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>80.26054462816063</v>
+        <v>91.11305770742248</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>84.61890810933838</v>
+        <v>94.94470565813357</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.96695569684684</v>
+        <v>34.12654219702991</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>79.31545253557078</v>
+        <v>89.78728211281813</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>81.06226844961961</v>
+        <v>91.5952481137426</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>62.52625146979358</v>
+        <v>70.34582343360785</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.57774596007863</v>
+        <v>47.00203784271008</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>52.5146527756605</v>
+        <v>59.22761861028766</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>68.85891416832264</v>
+        <v>77.46303785984122</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.67015416230752</v>
+        <v>12.66214312393786</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>54.53045684345172</v>
+        <v>62.21129365472037</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>64.29728473583566</v>
+        <v>73.46722487181685</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.67388189498218</v>
+        <v>12.87332506006918</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.87995762717586</v>
+        <v>37.70436228122158</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.01666467159708</v>
+        <v>45.58959632923844</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>7.360869368650828</v>
+        <v>2.713474368509203</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.59603945189625</v>
+        <v>40.39491565119073</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.72425692441495</v>
+        <v>51.63984729031013</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.494151378186679</v>
+        <v>3.06626818946938</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>57.89421090793832</v>
+        <v>64.35138745804143</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>70.67119098369636</v>
+        <v>78.97866371958132</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.70176197858909</v>
+        <v>75.49788917644132</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>76.55895154009814</v>
+        <v>86.59524614168345</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>83.25243473756103</v>
+        <v>93.69509137224597</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.99574890122443</v>
+        <v>20.50659165875705</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>71.31823094863395</v>
+        <v>81.97418062345818</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>78.42212387887847</v>
+        <v>89.71798314917632</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>60.37656161950979</v>
+        <v>68.40233756474711</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.64013501029186</v>
+        <v>31.36251937211136</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>39.14509756987255</v>
+        <v>43.41248593862495</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>53.17171465562238</v>
+        <v>60.51757538060459</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.56917836034508</v>
+        <v>8.777913576826325</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>47.10164801420559</v>
+        <v>54.48653511161884</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>60.57749387889495</v>
+        <v>69.092573802639</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>14.31673001146874</v>
+        <v>11.39101298769285</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.55055362245496</v>
+        <v>37.99677995519207</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.53491258848047</v>
+        <v>50.53944318946233</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.422568842400466</v>
+        <v>3.843860688130576</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.76722910429636</v>
+        <v>38.3868998155473</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>48.37804094986161</v>
+        <v>53.97683733263264</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>5.700631283336108</v>
+        <v>1.765922381662296</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>54.32659908177928</v>
+        <v>60.66324861445535</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>72.11720051825908</v>
+        <v>80.7982001219336</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>60.53471359812033</v>
+        <v>68.03871222783897</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>72.24192235437216</v>
+        <v>83.5766890333519</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>84.03041436515282</v>
+        <v>95.39823338830932</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.86221347085147</v>
+        <v>14.9614891681391</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>68.17292102302903</v>
+        <v>78.11269034939461</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>78.25334067444712</v>
+        <v>88.80012626349452</v>
       </c>
     </row>
   </sheetData>
